--- a/Design/맵기믹 기획.xlsx
+++ b/Design/맵기믹 기획.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\PLUM\2022 8월 게임 프로젝트\PlumTowerDefecne\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\PLUM\2022 8월 게임 프로젝트\백업파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14EA6933-C732-41EB-BD12-1F3DB5706FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A58686-9C90-4153-BCF6-CDA169293C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{6ED0029A-6F1E-4A92-AB37-7B6700187FC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6ED0029A-6F1E-4A92-AB37-7B6700187FC9}"/>
   </bookViews>
   <sheets>
     <sheet name="VerCon" sheetId="7" r:id="rId1"/>
     <sheet name="기믹 개요" sheetId="9" r:id="rId2"/>
-    <sheet name="장애물" sheetId="8" r:id="rId3"/>
-    <sheet name="자원" sheetId="10" r:id="rId4"/>
-    <sheet name="보물상자" sheetId="6" r:id="rId5"/>
-    <sheet name="버프존, 디버프존" sheetId="11" r:id="rId6"/>
+    <sheet name="버프존, 디버프존" sheetId="11" r:id="rId3"/>
+    <sheet name="장애물" sheetId="8" r:id="rId4"/>
+    <sheet name="자원" sheetId="10" r:id="rId5"/>
+    <sheet name="보물상자" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="212">
   <si>
     <t>맵 기믹 기획서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,10 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>채굴 속도(개/s)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>광물 에셋</t>
   </si>
   <si>
@@ -278,10 +274,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -438,10 +430,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>제거할 때 비용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>그라운드당 평지의 약 1/6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -510,86 +498,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이 타일을 지나면 모든 몬스터의 체력이 10% 회복됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 타일을 지나면 모든 몬스터의 방어구가 5% 증가함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 타일을 지나면 모든 몬스터의 방어구가 5% 감소함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 타일을 지나면 모든 몬스터의 체력이 7% 감소됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 타일을 지나면 물 속성 몬스터의 체력이 10% 감소됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 타일을 지나면 흙 속성 몬스터의 체력이 10% 감소됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 타일을 지나면 불 속성 몬스터의 체력이 10% 감소됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 타일을 지나면 전기 속성 몬스터의 체력이 10% 감소됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 타일을 지나면 물 속성 몬스터의 체력이 13% 회복됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 타일을 지나면 흙 속성 몬스터의 체력이 13% 회복됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 타일을 지나면 불 속성 몬스터의 체력이 13% 회복됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 타일을 지나면 전기 속성 몬스터의 체력이 13% 회복됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 타일을 지나면 영구적으로 물 속성 몬스터의 방어력이 7% 증가함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 타일을 지나면 영구적으로 흙 속성 몬스터의 방어력이 7% 증가함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 타일을 지나면 영구적으로 불 속성 몬스터의 방어력이 7% 증가함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 타일을 지나면 영구적으로 전기 속성 몬스터의 방어력이 7% 증가함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 타일을 지나면 영구적으로 물 속성 몬스터의 방어력이 7% 감소함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 타일을 지나면 영구적으로 흙 속성 몬스터의 방어력이 7% 감소함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 타일을 지나면 영구적으로 불 속성 몬스터의 방어력이 7% 감소함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 타일을 지나면 영구적으로 전기 속성 몬스터의 방어력이 7% 감소함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>버프존, 디버프존에서 몬스터 전체, 몬스터 속성별 수치 디테일 잡음, 용어 정리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -614,10 +522,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>각 자원은 2~X번 채굴할 수 있고 각각은 X%의 확률을 가짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자원 생성 알고리즘은 다음과 같다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -674,10 +578,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3. 2의 공격로에 확률 0.25로 버프존, 디버프존 타일 생성(자세한 부분은 장애물 시트 참고)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>보물상자 제거 규칙 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -787,6 +687,198 @@
   </si>
   <si>
     <t>기믹 개요-기믹 생성 알고리즘-2.-3.에서 이어짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ver1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기믹 ID 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 2의 공격로에 확률 0.25로 버프존, 디버프존 타일 생성(자세한 부분은 버프존, 디버프존 시트 참고)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inKorean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obstacle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Treasure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffnNerf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제거할 때 비용(비율)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 모든 몬스터의 전체 체력 중 10%가 회복됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 모든 몬스터의 전체 방어구 중 5%가 회복됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 모든 몬스터의 전체 방어구 중 5%가 감소함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 모든 몬스터의 전체 체력 중 7%가 감소함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 물 속성 몬스터의 전체 체력 중 13%가 회복됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 흙 속성 몬스터의 전체 체력 중 13%가 회복됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 불 속성 몬스터의 전체 체력 중 13%가 회복됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 전기 속성 몬스터의 전체 체력 중 13%가 회복됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 물 속성 몬스터의 전체 체력 중 10%가 감소함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 흙 속성 몬스터의 전체 체력 중 10%가 감소함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 불 속성 몬스터의 전체 체력 중 10%가 감소함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 전기 속성 몬스터의 전체 체력 중 10%가 감소함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 15초간 물 속성 몬스터의 방어력이 7% 증가함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 15초간 흙 속성 몬스터의 방어력이 7% 증가함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 15초간 불 속성 몬스터의 방어력이 7% 증가함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 15초간 전기 속성 몬스터의 방어력이 7% 증가함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 15초간 물 속성 몬스터의 방어력이 7% 감소함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 15초간 흙 속성 몬스터의 방어력이 7% 감소함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 15초간 불 속성 몬스터의 방어력이 7% 감소함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 15초간 전기 속성 몬스터의 방어력이 7% 감소함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화살타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모래시계타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드래곤타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나는 동안 화살타워에서 받는 데미지가 5% 증가함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나는 동안 이동속도가 5% 감소함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나는 동안 초당 받는 데미지가 5% 증가함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나는 동안 드래곤타워에서 받는 데미지가 5% 증가함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이저타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나는 동안 레이저타워에서 받는 데미지가 5% 증가함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미사일타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나는 동안 미사일타워에서 받는 데미지가 5% 증가함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장애물 제거할 때 비용 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타워별 버프 디테일 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성될 그라운드에만 생성됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격로에는 생성되지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자원 채굴속도 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 자원은 2~9번 채굴할 수 있고 각각은 12.5%의 확률을 가짐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -795,7 +887,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="180" formatCode="#\ ?/10"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -1027,7 +1119,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1070,12 +1162,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1149,6 +1235,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1181,6 +1276,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1190,7 +1288,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1239,7 +1346,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3558540" y="3375660"/>
+          <a:off x="3916680" y="3375660"/>
           <a:ext cx="3227975" cy="2065020"/>
           <a:chOff x="2484120" y="3169920"/>
           <a:chExt cx="3113675" cy="2065020"/>
@@ -1734,10 +1841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9685DD35-646D-4F18-B38B-7C194FF0E322}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1746,151 +1853,183 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="37" t="s">
+      <c r="B3" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="C3" s="31"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="33"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="27" t="s">
+      <c r="B4" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="27" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="33" t="s">
+      <c r="B5" s="31">
+        <v>220819</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="33">
-        <v>220819</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33" t="s">
+      <c r="B7" s="31">
+        <v>220820</v>
+      </c>
+      <c r="C7" s="31" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="33" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="33">
-        <v>220820</v>
-      </c>
-      <c r="C7" s="33" t="s">
+      <c r="B8" s="31">
+        <v>220821</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="33">
-        <v>220821</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33" t="s">
-        <v>59</v>
-      </c>
-    </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="33">
+      <c r="A11" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="31">
         <v>220823</v>
       </c>
-      <c r="C11" s="33" t="s">
-        <v>139</v>
+      <c r="C11" s="31" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33" t="s">
-        <v>142</v>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33" t="s">
-        <v>153</v>
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="35" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="35" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="37" t="s">
-        <v>179</v>
-      </c>
-    </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="37" t="s">
-        <v>185</v>
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" s="39">
+        <v>220825</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="41" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="41" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -1908,247 +2047,266 @@
   <dimension ref="B2:L23"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="3.19921875" customWidth="1"/>
-    <col min="2" max="3" width="12.8984375" customWidth="1"/>
+    <col min="2" max="2" width="12.8984375" customWidth="1"/>
+    <col min="3" max="3" width="11.796875" customWidth="1"/>
+    <col min="4" max="4" width="12.59765625" customWidth="1"/>
+    <col min="12" max="12" width="11.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
       <c r="B2" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="4" t="s">
-        <v>61</v>
+        <v>164</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>62</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D3" s="39"/>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
         <v>1</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="39" t="s">
         <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="5">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>68</v>
+        <v>3</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="5">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>69</v>
+        <v>4</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="2:12" s="3" customFormat="1">
       <c r="B9" s="3" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="2:12" s="1" customFormat="1"/>
     <row r="11" spans="2:12">
-      <c r="B11" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="36"/>
+      <c r="B11" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="34"/>
     </row>
     <row r="12" spans="2:12">
-      <c r="D12" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="36"/>
+      <c r="D12" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="34"/>
     </row>
     <row r="13" spans="2:12">
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="36"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="34"/>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="36"/>
+      <c r="B14" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="34"/>
     </row>
     <row r="15" spans="2:12">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="36"/>
+      <c r="D15" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="34"/>
     </row>
     <row r="16" spans="2:12" s="1" customFormat="1">
-      <c r="D16" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="36"/>
+      <c r="D16" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="34"/>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="34"/>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="D18" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="34"/>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="D19" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="36"/>
-    </row>
-    <row r="18" spans="2:12">
-      <c r="D18" s="34" t="s">
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="34"/>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="D20" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="34"/>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="D21" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="36"/>
-    </row>
-    <row r="19" spans="2:12">
-      <c r="D19" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="36"/>
-    </row>
-    <row r="20" spans="2:12">
-      <c r="D20" s="34" t="s">
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="34"/>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="D22" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="34"/>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="D23" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="36"/>
-    </row>
-    <row r="21" spans="2:12">
-      <c r="D21" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="36"/>
-    </row>
-    <row r="22" spans="2:12">
-      <c r="D22" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="36"/>
-    </row>
-    <row r="23" spans="2:12">
-      <c r="D23" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="36"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2157,11 +2315,844 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7031D8E7-E59D-4CF6-92A4-F7402D47A7CE}">
+  <dimension ref="B1:P48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39:L44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="2.69921875" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="7" max="7" width="10.796875" customWidth="1"/>
+    <col min="8" max="8" width="10.796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.796875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="55.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" s="3" customFormat="1">
+      <c r="B1" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16">
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="B4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="45"/>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="B5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="B6" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7" s="48"/>
+      <c r="C7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="B10" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="B11" s="48"/>
+      <c r="C11" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="2:16" s="1" customFormat="1">
+      <c r="B12" s="48"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="B13" s="47"/>
+      <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="51"/>
+      <c r="H16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="L16" s="51"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="4">
+        <v>10</v>
+      </c>
+      <c r="F17" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="50"/>
+      <c r="H17" s="4">
+        <v>11</v>
+      </c>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20">
+        <v>10</v>
+      </c>
+      <c r="K17" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="L17" s="50"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" s="15"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="50"/>
+      <c r="H18" s="4">
+        <v>21</v>
+      </c>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20">
+        <v>10</v>
+      </c>
+      <c r="K18" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="L18" s="50"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="15"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="39">
+        <v>31</v>
+      </c>
+      <c r="I19" s="20"/>
+      <c r="J19" s="39">
+        <v>10</v>
+      </c>
+      <c r="K19" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="L19" s="50"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="15"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="39">
+        <v>41</v>
+      </c>
+      <c r="I20" s="20"/>
+      <c r="J20" s="39">
+        <v>10</v>
+      </c>
+      <c r="K20" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="L20" s="52"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="15"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="39">
+        <v>51</v>
+      </c>
+      <c r="I21" s="20"/>
+      <c r="J21" s="39">
+        <v>10</v>
+      </c>
+      <c r="K21" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="L21" s="52"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="15"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="39">
+        <v>61</v>
+      </c>
+      <c r="I22" s="20"/>
+      <c r="J22" s="39">
+        <v>10</v>
+      </c>
+      <c r="K22" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="L22" s="52"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="20">
+        <v>20</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="18"/>
+      <c r="H23" s="22">
+        <v>11</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="J23" s="20">
+        <v>11</v>
+      </c>
+      <c r="K23" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="L23" s="50"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="15"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="28"/>
+      <c r="I24" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="J24" s="20">
+        <v>21</v>
+      </c>
+      <c r="K24" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="L24" s="50"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="15"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="28"/>
+      <c r="I25" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="J25" s="20">
+        <v>31</v>
+      </c>
+      <c r="K25" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="L25" s="50"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="B26" s="15"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="28"/>
+      <c r="I26" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="J26" s="20">
+        <v>41</v>
+      </c>
+      <c r="K26" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="L26" s="50"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="15"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="18"/>
+      <c r="H27" s="22">
+        <v>21</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="J27" s="20">
+        <v>11</v>
+      </c>
+      <c r="K27" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="L27" s="50"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="B28" s="15"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="28"/>
+      <c r="I28" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="J28" s="20">
+        <v>21</v>
+      </c>
+      <c r="K28" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="L28" s="50"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="B29" s="15"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="28"/>
+      <c r="I29" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="J29" s="20">
+        <v>31</v>
+      </c>
+      <c r="K29" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="L29" s="50"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="2:16">
+      <c r="B30" s="15"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="J30" s="20">
+        <v>41</v>
+      </c>
+      <c r="K30" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="L30" s="50"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="2:16">
+      <c r="B31" s="15"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="G31" s="18"/>
+      <c r="H31" s="22">
+        <v>31</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="J31" s="20">
+        <v>11</v>
+      </c>
+      <c r="K31" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="L31" s="50"/>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="B32" s="15"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="28"/>
+      <c r="I32" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="J32" s="20">
+        <v>21</v>
+      </c>
+      <c r="K32" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="L32" s="50"/>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33" s="15"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="28"/>
+      <c r="I33" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="J33" s="20">
+        <v>31</v>
+      </c>
+      <c r="K33" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="L33" s="50"/>
+    </row>
+    <row r="34" spans="2:12" s="1" customFormat="1">
+      <c r="B34" s="15"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="J34" s="20">
+        <v>41</v>
+      </c>
+      <c r="K34" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="L34" s="50"/>
+    </row>
+    <row r="35" spans="2:12">
+      <c r="B35" s="15"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="G35" s="18"/>
+      <c r="H35" s="22">
+        <v>41</v>
+      </c>
+      <c r="I35" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="J35" s="20">
+        <v>11</v>
+      </c>
+      <c r="K35" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="L35" s="50"/>
+    </row>
+    <row r="36" spans="2:12">
+      <c r="B36" s="15"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="J36" s="20">
+        <v>21</v>
+      </c>
+      <c r="K36" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="L36" s="50"/>
+    </row>
+    <row r="37" spans="2:12">
+      <c r="B37" s="15"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="J37" s="20">
+        <v>31</v>
+      </c>
+      <c r="K37" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="L37" s="50"/>
+    </row>
+    <row r="38" spans="2:12">
+      <c r="B38" s="15"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="J38" s="20">
+        <v>41</v>
+      </c>
+      <c r="K38" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="L38" s="50"/>
+    </row>
+    <row r="39" spans="2:12">
+      <c r="B39" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="19">
+        <v>30</v>
+      </c>
+      <c r="F39" s="17"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="20">
+        <v>10</v>
+      </c>
+      <c r="I39" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="J39" s="20">
+        <v>11</v>
+      </c>
+      <c r="K39" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="L39" s="50"/>
+    </row>
+    <row r="40" spans="2:12">
+      <c r="I40" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="J40" s="41">
+        <v>21</v>
+      </c>
+      <c r="K40" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="L40" s="50"/>
+    </row>
+    <row r="41" spans="2:12">
+      <c r="I41" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="J41" s="41">
+        <v>31</v>
+      </c>
+      <c r="K41" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="L41" s="50"/>
+    </row>
+    <row r="42" spans="2:12">
+      <c r="I42" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="J42" s="41">
+        <v>41</v>
+      </c>
+      <c r="K42" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="L42" s="50"/>
+    </row>
+    <row r="43" spans="2:12">
+      <c r="I43" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="J43" s="41">
+        <v>51</v>
+      </c>
+      <c r="K43" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="L43" s="50"/>
+    </row>
+    <row r="44" spans="2:12">
+      <c r="I44" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="J44" s="41">
+        <v>61</v>
+      </c>
+      <c r="K44" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="L44" s="50"/>
+    </row>
+    <row r="46" spans="2:12" s="3" customFormat="1">
+      <c r="B46" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" s="1" customFormat="1"/>
+    <row r="48" spans="2:12" s="1" customFormat="1">
+      <c r="B48" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB72675-8795-4DA3-A916-AE0915099200}">
   <dimension ref="B1:H32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2169,20 +3160,20 @@
     <col min="1" max="1" width="2.19921875" customWidth="1"/>
     <col min="2" max="2" width="9.69921875" customWidth="1"/>
     <col min="3" max="3" width="8.796875" customWidth="1"/>
-    <col min="4" max="4" width="12.8984375" customWidth="1"/>
+    <col min="4" max="4" width="17.59765625" customWidth="1"/>
     <col min="5" max="5" width="12.796875" customWidth="1"/>
     <col min="6" max="8" width="10.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1">
       <c r="B1" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="2:8" s="12" customFormat="1"/>
     <row r="3" spans="2:8">
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
@@ -2193,19 +3184,19 @@
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="44"/>
+        <v>62</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="46" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -2218,9 +3209,9 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="2:8" s="1" customFormat="1">
-      <c r="B6" s="46"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -2229,7 +3220,7 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="46" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -2244,12 +3235,12 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="47"/>
-      <c r="C8" s="45" t="s">
+      <c r="B8" s="48"/>
+      <c r="C8" s="46" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>71</v>
+        <v>208</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -2257,10 +3248,10 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8" s="1" customFormat="1">
-      <c r="B9" s="47"/>
-      <c r="C9" s="46"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="8" t="s">
-        <v>23</v>
+        <v>209</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -2268,9 +3259,9 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="46"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
@@ -2284,17 +3275,17 @@
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
+      <c r="C11" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="46" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2309,7 +3300,7 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="46"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
@@ -2334,133 +3325,149 @@
         <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>101</v>
+        <v>70</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="22"/>
+      <c r="D17" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="22"/>
+        <v>71</v>
+      </c>
+      <c r="D18" s="20">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="22"/>
+        <v>72</v>
+      </c>
+      <c r="D19" s="20">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="22"/>
+        <v>73</v>
+      </c>
+      <c r="D20" s="20">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="22"/>
+        <v>73</v>
+      </c>
+      <c r="D21" s="39">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="22"/>
+        <v>74</v>
+      </c>
+      <c r="D22" s="39">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="22"/>
+        <v>74</v>
+      </c>
+      <c r="D23" s="39">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="22"/>
+        <v>75</v>
+      </c>
+      <c r="D24" s="20">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="2:8">
-      <c r="D25" s="31"/>
+      <c r="D25" s="29"/>
     </row>
     <row r="26" spans="2:8" s="3" customFormat="1">
       <c r="B26" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="36"/>
+      <c r="B30" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="34"/>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="G31" s="35"/>
-      <c r="H31" s="36"/>
+      <c r="B31" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31" s="33"/>
+      <c r="H31" s="34"/>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="36"/>
+      <c r="B32" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2484,12 +3491,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B521D6-2D85-4E20-A231-43C3768C3612}">
   <dimension ref="B1:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2506,33 +3513,33 @@
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1">
       <c r="B1" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="44"/>
+        <v>62</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="46" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -2541,7 +3548,7 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="2:8" s="1" customFormat="1">
-      <c r="B6" s="47"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="8" t="s">
         <v>22</v>
       </c>
@@ -2552,9 +3559,9 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="46"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="8" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -2563,7 +3570,7 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="46" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -2578,8 +3585,8 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="47"/>
-      <c r="C9" s="45" t="s">
+      <c r="B9" s="48"/>
+      <c r="C9" s="46" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -2591,8 +3598,8 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="47"/>
-      <c r="C10" s="46"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="47"/>
       <c r="D10" s="8" t="s">
         <v>23</v>
       </c>
@@ -2602,22 +3609,22 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="2:8" s="1" customFormat="1">
-      <c r="B11" s="47"/>
-      <c r="C11" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="36"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="34"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="46"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D12" s="10">
         <v>2</v>
@@ -2631,10 +3638,10 @@
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="49"/>
+      <c r="C13" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="50"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -2654,10 +3661,10 @@
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="46" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -2669,8 +3676,8 @@
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="2:8" s="1" customFormat="1">
-      <c r="B16" s="47"/>
-      <c r="C16" s="46"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="8" t="s">
         <v>26</v>
       </c>
@@ -2680,53 +3687,51 @@
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="46"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>35</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
     </row>
     <row r="19" spans="2:8">
       <c r="E19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="H20" s="57"/>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="4" t="s">
-        <v>61</v>
+        <v>164</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>30</v>
@@ -2734,16 +3739,14 @@
       <c r="F21" s="13">
         <v>0.4</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="40">
         <v>1</v>
       </c>
-      <c r="H21" s="14">
-        <v>0.1</v>
-      </c>
+      <c r="H21" s="58"/>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>30</v>
@@ -2754,16 +3757,14 @@
       <c r="F22" s="13">
         <v>0.3</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="40">
         <v>1.8</v>
       </c>
-      <c r="H22" s="15">
-        <v>0.125</v>
-      </c>
+      <c r="H22" s="59"/>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>29</v>
@@ -2774,16 +3775,14 @@
       <c r="F23" s="13">
         <v>0.2</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="40">
         <v>3.3</v>
       </c>
-      <c r="H23" s="15">
-        <v>0.2</v>
-      </c>
+      <c r="H23" s="59"/>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>28</v>
@@ -2794,16 +3793,14 @@
       <c r="F24" s="13">
         <v>0.1</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="40">
         <v>5</v>
       </c>
-      <c r="H24" s="15">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="H24" s="59"/>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>27</v>
@@ -2811,12 +3808,12 @@
     </row>
     <row r="27" spans="2:8" s="3" customFormat="1">
       <c r="B27" s="3" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2827,74 +3824,74 @@
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="36"/>
+      <c r="B31" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="34"/>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="36"/>
+      <c r="B32" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="34"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="36"/>
+      <c r="B33" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="34"/>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="36"/>
+      <c r="B34" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="34"/>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="36"/>
+      <c r="B35" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="34"/>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="36"/>
+      <c r="B36" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="34"/>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="36"/>
+      <c r="B37" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="34"/>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="40"/>
+      <c r="B38" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="38"/>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2916,11 +3913,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5AC036-5AF3-43C9-8DCB-8CAD147E7305}">
   <dimension ref="B1:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -2931,12 +3928,12 @@
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1">
       <c r="B1" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
@@ -2947,23 +3944,23 @@
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="44"/>
+        <v>62</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="46" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -2972,9 +3969,9 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="46"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -2983,14 +3980,14 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="46" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -2998,12 +3995,12 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="47"/>
-      <c r="C8" s="45" t="s">
+      <c r="B8" s="48"/>
+      <c r="C8" s="46" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -3011,8 +4008,8 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="47"/>
-      <c r="C9" s="46"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="8" t="s">
         <v>23</v>
       </c>
@@ -3022,22 +4019,22 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8" s="1" customFormat="1">
-      <c r="B10" s="47"/>
-      <c r="C10" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="36"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="34"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="46"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" s="10">
         <v>3</v>
@@ -3051,24 +4048,24 @@
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
+      <c r="C12" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="46" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -3076,7 +4073,7 @@
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="46"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="4" t="s">
         <v>15</v>
       </c>
@@ -3088,31 +4085,31 @@
     </row>
     <row r="16" spans="2:8" s="3" customFormat="1">
       <c r="B16" s="3" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="2:5" s="1" customFormat="1"/>
     <row r="18" spans="2:5" s="1" customFormat="1">
       <c r="B18" s="1" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="2:5" s="1" customFormat="1"/>
     <row r="20" spans="2:5" s="1" customFormat="1">
-      <c r="B20" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="36"/>
+      <c r="B20" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="34"/>
     </row>
     <row r="21" spans="2:5" s="1" customFormat="1">
-      <c r="B21" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="36"/>
+      <c r="B21" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
     </row>
     <row r="22" spans="2:5" s="1" customFormat="1"/>
   </sheetData>
@@ -3126,766 +4123,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7031D8E7-E59D-4CF6-92A4-F7402D47A7CE}">
-  <dimension ref="B1:P49"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="1" max="1" width="2.69921875" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="7" max="7" width="10.796875" customWidth="1"/>
-    <col min="8" max="8" width="10.796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.796875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="55.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:16" s="3" customFormat="1">
-      <c r="B1" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16">
-      <c r="B3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16">
-      <c r="B4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="44"/>
-    </row>
-    <row r="5" spans="2:16">
-      <c r="B5" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="2:16">
-      <c r="B6" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" spans="2:16">
-      <c r="B7" s="47"/>
-      <c r="C7" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" spans="2:16">
-      <c r="B8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="2:16">
-      <c r="B9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="9"/>
-    </row>
-    <row r="10" spans="2:16">
-      <c r="B10" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="2:16">
-      <c r="B11" s="47"/>
-      <c r="C11" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" spans="2:16" s="1" customFormat="1">
-      <c r="B12" s="47"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="13" spans="2:16">
-      <c r="B13" s="46"/>
-      <c r="C13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-    </row>
-    <row r="15" spans="2:16">
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="2:16">
-      <c r="B16" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="G16" s="50"/>
-      <c r="H16" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="K16" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="L16" s="50"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="2:16">
-      <c r="B17" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="49"/>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22">
-        <v>0</v>
-      </c>
-      <c r="K17" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="L17" s="49"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="2:16">
-      <c r="B18" s="17"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="49"/>
-      <c r="H18" s="4">
-        <v>1</v>
-      </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22">
-        <v>0</v>
-      </c>
-      <c r="K18" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="L18" s="49"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="2:16">
-      <c r="B19" s="17"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4">
-        <v>2</v>
-      </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22">
-        <v>0</v>
-      </c>
-      <c r="K19" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="L19" s="49"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="2:16">
-      <c r="B20" s="17"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="4">
-        <v>3</v>
-      </c>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22">
-        <v>0</v>
-      </c>
-      <c r="K20" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="54"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="2:16">
-      <c r="B21" s="17"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="4">
-        <v>4</v>
-      </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22">
-        <v>0</v>
-      </c>
-      <c r="K21" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="L21" s="54"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="2:16">
-      <c r="B22" s="17"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="4">
-        <v>5</v>
-      </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22">
-        <v>0</v>
-      </c>
-      <c r="K22" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="L22" s="54"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="2:16">
-      <c r="B23" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="22">
-        <v>1</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="24">
-        <v>0</v>
-      </c>
-      <c r="I23" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="J23" s="22">
-        <v>0</v>
-      </c>
-      <c r="K23" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="L23" s="49"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="2:16">
-      <c r="B24" s="17"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="30"/>
-      <c r="I24" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="J24" s="22">
-        <v>1</v>
-      </c>
-      <c r="K24" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="L24" s="49"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="2:16">
-      <c r="B25" s="17"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="30"/>
-      <c r="I25" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="J25" s="22">
-        <v>2</v>
-      </c>
-      <c r="K25" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="L25" s="49"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-    </row>
-    <row r="26" spans="2:16">
-      <c r="B26" s="17"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="30"/>
-      <c r="I26" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="J26" s="22">
-        <v>3</v>
-      </c>
-      <c r="K26" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="L26" s="49"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="2:16">
-      <c r="B27" s="17"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" s="20"/>
-      <c r="H27" s="24">
-        <v>1</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="J27" s="22">
-        <v>0</v>
-      </c>
-      <c r="K27" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="L27" s="49"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="2:16">
-      <c r="B28" s="17"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="30"/>
-      <c r="I28" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="J28" s="22">
-        <v>1</v>
-      </c>
-      <c r="K28" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="L28" s="49"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="2:16">
-      <c r="B29" s="17"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="30"/>
-      <c r="I29" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="J29" s="22">
-        <v>2</v>
-      </c>
-      <c r="K29" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="L29" s="49"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="2:16">
-      <c r="B30" s="17"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="J30" s="22">
-        <v>3</v>
-      </c>
-      <c r="K30" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="L30" s="49"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-    </row>
-    <row r="31" spans="2:16">
-      <c r="B31" s="17"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="G31" s="20"/>
-      <c r="H31" s="24">
-        <v>2</v>
-      </c>
-      <c r="I31" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="J31" s="22">
-        <v>0</v>
-      </c>
-      <c r="K31" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="L31" s="49"/>
-    </row>
-    <row r="32" spans="2:16">
-      <c r="B32" s="17"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="30"/>
-      <c r="I32" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="J32" s="22">
-        <v>1</v>
-      </c>
-      <c r="K32" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="L32" s="49"/>
-    </row>
-    <row r="33" spans="2:12">
-      <c r="B33" s="17"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="30"/>
-      <c r="I33" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="J33" s="22">
-        <v>2</v>
-      </c>
-      <c r="K33" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="L33" s="49"/>
-    </row>
-    <row r="34" spans="2:12" s="1" customFormat="1">
-      <c r="B34" s="17"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="J34" s="22">
-        <v>3</v>
-      </c>
-      <c r="K34" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="L34" s="49"/>
-    </row>
-    <row r="35" spans="2:12">
-      <c r="B35" s="17"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="G35" s="20"/>
-      <c r="H35" s="24">
-        <v>3</v>
-      </c>
-      <c r="I35" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="J35" s="22">
-        <v>0</v>
-      </c>
-      <c r="K35" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="L35" s="49"/>
-    </row>
-    <row r="36" spans="2:12">
-      <c r="B36" s="17"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="J36" s="22">
-        <v>1</v>
-      </c>
-      <c r="K36" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="L36" s="49"/>
-    </row>
-    <row r="37" spans="2:12">
-      <c r="B37" s="17"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="J37" s="22">
-        <v>2</v>
-      </c>
-      <c r="K37" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="L37" s="49"/>
-    </row>
-    <row r="38" spans="2:12">
-      <c r="B38" s="17"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="J38" s="22">
-        <v>3</v>
-      </c>
-      <c r="K38" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="L38" s="49"/>
-    </row>
-    <row r="39" spans="2:12">
-      <c r="B39" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="21">
-        <v>2</v>
-      </c>
-      <c r="F39" s="19"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="22">
-        <v>0</v>
-      </c>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
-    </row>
-    <row r="47" spans="2:12" s="3" customFormat="1">
-      <c r="B47" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" s="1" customFormat="1"/>
-    <row r="49" spans="2:2" s="1" customFormat="1">
-      <c r="B49" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K36:L36"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Design/맵기믹 기획.xlsx
+++ b/Design/맵기믹 기획.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\PLUM\2022 8월 게임 프로젝트\백업파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\PLUM\2022 8월 게임 프로젝트\PlumTowerDefecne\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A58686-9C90-4153-BCF6-CDA169293C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECB64C0-52EC-47B3-8F67-41F668B0E817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6ED0029A-6F1E-4A92-AB37-7B6700187FC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{6ED0029A-6F1E-4A92-AB37-7B6700187FC9}"/>
   </bookViews>
   <sheets>
     <sheet name="VerCon" sheetId="7" r:id="rId1"/>
     <sheet name="기믹 개요" sheetId="9" r:id="rId2"/>
-    <sheet name="버프존, 디버프존" sheetId="11" r:id="rId3"/>
+    <sheet name="공격로버프" sheetId="11" r:id="rId3"/>
     <sheet name="장애물" sheetId="8" r:id="rId4"/>
     <sheet name="자원" sheetId="10" r:id="rId5"/>
     <sheet name="보물상자" sheetId="6" r:id="rId6"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="218">
   <si>
     <t>맵 기믹 기획서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,22 +290,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GimmickID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GimmickType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>보물상자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>버프, 디버프존</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>장애물의 특징과 설명은 아래와 같다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -374,14 +362,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>버프존, 디버프존의 종류 및 특징은 다음과 같다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버프존, 디버프존의 특징</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>버프존/디버프존만 따로 표시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -706,10 +686,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inKorean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Obstacle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -722,10 +698,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BuffnNerf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>제거할 때 비용(비율)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -826,38 +798,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이 타일을 지나는 동안 화살타워에서 받는 데미지가 5% 증가함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이 타일을 지나는 동안 이동속도가 5% 감소함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이 타일을 지나는 동안 초당 받는 데미지가 5% 증가함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 타일을 지나는 동안 드래곤타워에서 받는 데미지가 5% 증가함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>레이저타워</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이 타일을 지나는 동안 레이저타워에서 받는 데미지가 5% 증가함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>미사일타워</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이 타일을 지나는 동안 미사일타워에서 받는 데미지가 5% 증가함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>장애물 제거할 때 비용 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -879,6 +831,78 @@
   </si>
   <si>
     <t>각 자원은 2~9번 채굴할 수 있고 각각은 12.5%의 확률을 가짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapGimmickType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격로버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaneBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격로버프의 종류 및 특징은 다음과 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격로버프의 특징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 3초간 화살타워에서 받는 데미지가 5% 증가함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 3초간 초당 받는 데미지가 5% 증가함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 3초간 드래곤타워에서 받는 데미지가 5% 증가함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 3초간 레이저타워에서 받는 데미지가 5% 증가함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 3초간 미사일타워에서 받는 데미지가 5% 증가함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ver1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장애물 제거 비용 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프존, 디버프존-&gt;공격로버프로 이름 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격로버프의 타워별버프 시간 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -887,7 +911,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="#\ ?/10"/>
+    <numFmt numFmtId="176" formatCode="#\ ?/10"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -1119,7 +1143,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1246,58 +1270,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1841,30 +1871,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9685DD35-646D-4F18-B38B-7C194FF0E322}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:E23"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="3" max="3" width="64.296875" customWidth="1"/>
+    <col min="3" max="3" width="66" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="35" t="s">
@@ -1942,94 +1972,119 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="31" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B11" s="31">
         <v>220823</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="31"/>
       <c r="B12" s="31"/>
       <c r="C12" s="31" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="31"/>
       <c r="B13" s="31"/>
       <c r="C13" s="31" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="31"/>
       <c r="B14" s="31"/>
       <c r="C14" s="31" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="31"/>
       <c r="B15" s="31"/>
       <c r="C15" s="31" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="31"/>
       <c r="B16" s="31"/>
       <c r="C16" s="35" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="31"/>
       <c r="B17" s="31"/>
       <c r="C17" s="35" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="31"/>
       <c r="B18" s="31"/>
       <c r="C18" s="35" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="39" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B19" s="39">
         <v>220825</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="39"/>
       <c r="B20" s="39"/>
       <c r="C20" s="41" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="39"/>
       <c r="B21" s="39"/>
       <c r="C21" s="41" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="41" t="s">
-        <v>210</v>
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="47" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="B23" s="46">
+        <v>220827</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="47" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2046,96 +2101,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A8C1CE-C1F0-4982-85A8-F917430450C0}">
   <dimension ref="B2:L23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="3.19921875" customWidth="1"/>
     <col min="2" max="2" width="12.8984375" customWidth="1"/>
-    <col min="3" max="3" width="11.796875" customWidth="1"/>
+    <col min="3" max="3" width="16.69921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.59765625" customWidth="1"/>
     <col min="12" max="12" width="11.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="46">
+        <v>1</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="46">
+        <v>2</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="46">
+        <v>3</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="46">
+        <v>4</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="46" t="s">
         <v>64</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="39"/>
-    </row>
-    <row r="4" spans="2:12">
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="5">
-        <v>3</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="5">
-        <v>4</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9" spans="2:12" s="3" customFormat="1">
       <c r="B9" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="2:12" s="1" customFormat="1"/>
     <row r="11" spans="2:12">
       <c r="B11" s="32" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="32" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
@@ -2148,7 +2205,7 @@
     </row>
     <row r="12" spans="2:12">
       <c r="D12" s="32" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
@@ -2172,11 +2229,11 @@
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="32" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="32" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
@@ -2191,7 +2248,7 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="32" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
@@ -2204,7 +2261,7 @@
     </row>
     <row r="16" spans="2:12" s="1" customFormat="1">
       <c r="D16" s="32" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
@@ -2219,7 +2276,7 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="32" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
@@ -2232,7 +2289,7 @@
     </row>
     <row r="18" spans="2:12">
       <c r="D18" s="32" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E18" s="33"/>
       <c r="F18" s="33"/>
@@ -2245,7 +2302,7 @@
     </row>
     <row r="19" spans="2:12">
       <c r="D19" s="32" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
@@ -2258,7 +2315,7 @@
     </row>
     <row r="20" spans="2:12">
       <c r="D20" s="32" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
@@ -2271,7 +2328,7 @@
     </row>
     <row r="21" spans="2:12">
       <c r="D21" s="32" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E21" s="33"/>
       <c r="F21" s="33"/>
@@ -2284,7 +2341,7 @@
     </row>
     <row r="22" spans="2:12">
       <c r="D22" s="32" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E22" s="33"/>
       <c r="F22" s="33"/>
@@ -2297,7 +2354,7 @@
     </row>
     <row r="23" spans="2:12">
       <c r="D23" s="32" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E23" s="33"/>
       <c r="F23" s="33"/>
@@ -2318,8 +2375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7031D8E7-E59D-4CF6-92A4-F7402D47A7CE}">
   <dimension ref="B1:P48"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39:L44"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2335,29 +2392,29 @@
   <sheetData>
     <row r="1" spans="2:16" s="3" customFormat="1">
       <c r="B1" s="3" t="s">
-        <v>85</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="2:16">
       <c r="B3" t="s">
-        <v>86</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="2:16">
       <c r="B4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="45"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="2:16">
       <c r="B5" s="14" t="s">
@@ -2376,7 +2433,7 @@
       <c r="K5" s="9"/>
     </row>
     <row r="6" spans="2:16">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="50" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="32" t="s">
@@ -2394,7 +2451,7 @@
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="2:16">
-      <c r="B7" s="48"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="14" t="s">
         <v>7</v>
       </c>
@@ -2414,7 +2471,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="8"/>
@@ -2442,7 +2499,7 @@
       <c r="K9" s="9"/>
     </row>
     <row r="10" spans="2:16">
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="50" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -2460,12 +2517,12 @@
       <c r="K10" s="9"/>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="48"/>
-      <c r="C11" s="46" t="s">
+      <c r="B11" s="51"/>
+      <c r="C11" s="50" t="s">
         <v>63</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -2476,10 +2533,10 @@
       <c r="K11" s="9"/>
     </row>
     <row r="12" spans="2:16" s="1" customFormat="1">
-      <c r="B12" s="48"/>
-      <c r="C12" s="47"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -2490,7 +2547,7 @@
       <c r="K12" s="9"/>
     </row>
     <row r="13" spans="2:16">
-      <c r="B13" s="47"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
@@ -2510,53 +2567,53 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
       <c r="E16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="51"/>
+        <v>90</v>
+      </c>
+      <c r="F16" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="54"/>
       <c r="H16" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I16" s="21" t="s">
         <v>41</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="K16" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="L16" s="51"/>
+        <v>99</v>
+      </c>
+      <c r="K16" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="54"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
       <c r="E17" s="4">
         <v>10</v>
       </c>
-      <c r="F17" s="50" t="s">
+      <c r="F17" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="50"/>
+      <c r="G17" s="53"/>
       <c r="H17" s="4">
         <v>11</v>
       </c>
@@ -2564,10 +2621,10 @@
       <c r="J17" s="20">
         <v>10</v>
       </c>
-      <c r="K17" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="L17" s="50"/>
+      <c r="K17" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="L17" s="53"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
@@ -2576,10 +2633,10 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="50" t="s">
+      <c r="F18" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="50"/>
+      <c r="G18" s="53"/>
       <c r="H18" s="4">
         <v>21</v>
       </c>
@@ -2587,10 +2644,10 @@
       <c r="J18" s="20">
         <v>10</v>
       </c>
-      <c r="K18" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="L18" s="50"/>
+      <c r="K18" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="L18" s="53"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
@@ -2600,7 +2657,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="39">
@@ -2610,10 +2667,10 @@
       <c r="J19" s="39">
         <v>10</v>
       </c>
-      <c r="K19" s="50" t="s">
-        <v>175</v>
-      </c>
-      <c r="L19" s="50"/>
+      <c r="K19" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="L19" s="53"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
@@ -2623,7 +2680,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="16" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="39">
@@ -2633,10 +2690,10 @@
       <c r="J20" s="39">
         <v>10</v>
       </c>
-      <c r="K20" s="52" t="s">
-        <v>176</v>
-      </c>
-      <c r="L20" s="52"/>
+      <c r="K20" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="L20" s="57"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
@@ -2646,7 +2703,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="16" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="39">
@@ -2656,10 +2713,10 @@
       <c r="J21" s="39">
         <v>10</v>
       </c>
-      <c r="K21" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="L21" s="52"/>
+      <c r="K21" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="L21" s="57"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
@@ -2669,7 +2726,7 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="16" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="39">
@@ -2679,19 +2736,19 @@
       <c r="J22" s="39">
         <v>10</v>
       </c>
-      <c r="K22" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="L22" s="52"/>
+      <c r="K22" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="L22" s="57"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
+      <c r="B23" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="20">
         <v>20</v>
       </c>
@@ -2703,15 +2760,15 @@
         <v>11</v>
       </c>
       <c r="I23" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J23" s="20">
         <v>11</v>
       </c>
-      <c r="K23" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="L23" s="50"/>
+      <c r="K23" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="L23" s="53"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
@@ -2721,15 +2778,15 @@
       <c r="D24" s="6"/>
       <c r="E24" s="28"/>
       <c r="I24" s="20" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J24" s="20">
         <v>21</v>
       </c>
-      <c r="K24" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="L24" s="50"/>
+      <c r="K24" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="L24" s="53"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
@@ -2739,15 +2796,15 @@
       <c r="D25" s="6"/>
       <c r="E25" s="28"/>
       <c r="I25" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="J25" s="20">
         <v>31</v>
       </c>
-      <c r="K25" s="50" t="s">
-        <v>180</v>
-      </c>
-      <c r="L25" s="50"/>
+      <c r="K25" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="L25" s="53"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
@@ -2757,15 +2814,15 @@
       <c r="D26" s="6"/>
       <c r="E26" s="28"/>
       <c r="I26" s="24" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J26" s="20">
         <v>41</v>
       </c>
-      <c r="K26" s="50" t="s">
-        <v>181</v>
-      </c>
-      <c r="L26" s="50"/>
+      <c r="K26" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="L26" s="53"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
@@ -2780,15 +2837,15 @@
         <v>21</v>
       </c>
       <c r="I27" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J27" s="20">
         <v>11</v>
       </c>
-      <c r="K27" s="50" t="s">
-        <v>182</v>
-      </c>
-      <c r="L27" s="50"/>
+      <c r="K27" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="L27" s="53"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
@@ -2798,15 +2855,15 @@
       <c r="D28" s="6"/>
       <c r="E28" s="28"/>
       <c r="I28" s="20" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J28" s="20">
         <v>21</v>
       </c>
-      <c r="K28" s="50" t="s">
-        <v>183</v>
-      </c>
-      <c r="L28" s="50"/>
+      <c r="K28" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="L28" s="53"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
@@ -2816,15 +2873,15 @@
       <c r="D29" s="6"/>
       <c r="E29" s="28"/>
       <c r="I29" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="J29" s="20">
         <v>31</v>
       </c>
-      <c r="K29" s="50" t="s">
-        <v>184</v>
-      </c>
-      <c r="L29" s="50"/>
+      <c r="K29" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="L29" s="53"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
@@ -2837,15 +2894,15 @@
       <c r="G30" s="26"/>
       <c r="H30" s="6"/>
       <c r="I30" s="24" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J30" s="20">
         <v>41</v>
       </c>
-      <c r="K30" s="50" t="s">
-        <v>185</v>
-      </c>
-      <c r="L30" s="50"/>
+      <c r="K30" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="L30" s="53"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
@@ -2855,22 +2912,22 @@
       <c r="D31" s="6"/>
       <c r="E31" s="28"/>
       <c r="F31" s="27" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G31" s="18"/>
       <c r="H31" s="22">
         <v>31</v>
       </c>
       <c r="I31" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J31" s="20">
         <v>11</v>
       </c>
-      <c r="K31" s="50" t="s">
-        <v>186</v>
-      </c>
-      <c r="L31" s="50"/>
+      <c r="K31" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="L31" s="53"/>
     </row>
     <row r="32" spans="2:16">
       <c r="B32" s="15"/>
@@ -2878,15 +2935,15 @@
       <c r="D32" s="6"/>
       <c r="E32" s="28"/>
       <c r="I32" s="20" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J32" s="20">
         <v>21</v>
       </c>
-      <c r="K32" s="50" t="s">
-        <v>187</v>
-      </c>
-      <c r="L32" s="50"/>
+      <c r="K32" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="L32" s="53"/>
     </row>
     <row r="33" spans="2:12">
       <c r="B33" s="15"/>
@@ -2894,15 +2951,15 @@
       <c r="D33" s="6"/>
       <c r="E33" s="28"/>
       <c r="I33" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="J33" s="20">
         <v>31</v>
       </c>
-      <c r="K33" s="50" t="s">
-        <v>188</v>
-      </c>
-      <c r="L33" s="50"/>
+      <c r="K33" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="L33" s="53"/>
     </row>
     <row r="34" spans="2:12" s="1" customFormat="1">
       <c r="B34" s="15"/>
@@ -2913,15 +2970,15 @@
       <c r="G34" s="26"/>
       <c r="H34" s="6"/>
       <c r="I34" s="24" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J34" s="20">
         <v>41</v>
       </c>
-      <c r="K34" s="50" t="s">
-        <v>189</v>
-      </c>
-      <c r="L34" s="50"/>
+      <c r="K34" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="L34" s="53"/>
     </row>
     <row r="35" spans="2:12">
       <c r="B35" s="15"/>
@@ -2929,22 +2986,22 @@
       <c r="D35" s="6"/>
       <c r="E35" s="28"/>
       <c r="F35" s="27" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G35" s="18"/>
       <c r="H35" s="22">
         <v>41</v>
       </c>
       <c r="I35" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J35" s="20">
         <v>11</v>
       </c>
-      <c r="K35" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="L35" s="50"/>
+      <c r="K35" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="L35" s="53"/>
     </row>
     <row r="36" spans="2:12">
       <c r="B36" s="15"/>
@@ -2955,15 +3012,15 @@
       <c r="G36" s="26"/>
       <c r="H36" s="6"/>
       <c r="I36" s="20" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J36" s="20">
         <v>21</v>
       </c>
-      <c r="K36" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="L36" s="50"/>
+      <c r="K36" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="L36" s="53"/>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="15"/>
@@ -2974,15 +3031,15 @@
       <c r="G37" s="26"/>
       <c r="H37" s="6"/>
       <c r="I37" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="J37" s="20">
         <v>31</v>
       </c>
-      <c r="K37" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="L37" s="50"/>
+      <c r="K37" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="L37" s="53"/>
     </row>
     <row r="38" spans="2:12">
       <c r="B38" s="15"/>
@@ -2993,22 +3050,22 @@
       <c r="G38" s="26"/>
       <c r="H38" s="6"/>
       <c r="I38" s="24" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J38" s="20">
         <v>41</v>
       </c>
-      <c r="K38" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="L38" s="50"/>
+      <c r="K38" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="L38" s="53"/>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="54"/>
-      <c r="D39" s="55"/>
+      <c r="B39" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="59"/>
+      <c r="D39" s="60"/>
       <c r="E39" s="19">
         <v>30</v>
       </c>
@@ -3018,85 +3075,85 @@
         <v>10</v>
       </c>
       <c r="I39" s="20" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="J39" s="20">
         <v>11</v>
       </c>
-      <c r="K39" s="50" t="s">
-        <v>198</v>
-      </c>
-      <c r="L39" s="50"/>
+      <c r="K39" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="L39" s="53"/>
     </row>
     <row r="40" spans="2:12">
       <c r="I40" s="41" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="J40" s="41">
         <v>21</v>
       </c>
-      <c r="K40" s="50" t="s">
-        <v>199</v>
-      </c>
-      <c r="L40" s="50"/>
+      <c r="K40" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="L40" s="53"/>
     </row>
     <row r="41" spans="2:12">
       <c r="I41" s="41" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="J41" s="41">
         <v>31</v>
       </c>
-      <c r="K41" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="L41" s="50"/>
+      <c r="K41" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="L41" s="53"/>
     </row>
     <row r="42" spans="2:12">
       <c r="I42" s="41" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="J42" s="41">
         <v>41</v>
       </c>
-      <c r="K42" s="50" t="s">
-        <v>201</v>
-      </c>
-      <c r="L42" s="50"/>
+      <c r="K42" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="L42" s="53"/>
     </row>
     <row r="43" spans="2:12">
       <c r="I43" s="41" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="J43" s="41">
         <v>51</v>
       </c>
-      <c r="K43" s="50" t="s">
-        <v>203</v>
-      </c>
-      <c r="L43" s="50"/>
+      <c r="K43" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="L43" s="53"/>
     </row>
     <row r="44" spans="2:12">
       <c r="I44" s="41" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="J44" s="41">
         <v>61</v>
       </c>
-      <c r="K44" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="L44" s="50"/>
+      <c r="K44" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="L44" s="53"/>
     </row>
     <row r="46" spans="2:12" s="3" customFormat="1">
       <c r="B46" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="2:12" s="1" customFormat="1"/>
     <row r="48" spans="2:12" s="1" customFormat="1">
       <c r="B48" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -3151,8 +3208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB72675-8795-4DA3-A916-AE0915099200}">
   <dimension ref="B1:H32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -3167,13 +3224,13 @@
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1">
       <c r="B1" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="2:8" s="12" customFormat="1"/>
     <row r="3" spans="2:8">
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
@@ -3186,17 +3243,17 @@
       <c r="B4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="45"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="56"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="50" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -3209,7 +3266,7 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="2:8" s="1" customFormat="1">
-      <c r="B6" s="47"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="8" t="s">
         <v>38</v>
       </c>
@@ -3220,7 +3277,7 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="50" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -3235,12 +3292,12 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="48"/>
-      <c r="C8" s="46" t="s">
+      <c r="B8" s="51"/>
+      <c r="C8" s="50" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -3248,10 +3305,10 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8" s="1" customFormat="1">
-      <c r="B9" s="48"/>
-      <c r="C9" s="47"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="8" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -3259,7 +3316,7 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="47"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="4" t="s">
         <v>61</v>
       </c>
@@ -3275,17 +3332,17 @@
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
+      <c r="C11" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="50" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -3300,7 +3357,7 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="47"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
@@ -3325,7 +3382,7 @@
         <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="2:8">
@@ -3333,10 +3390,10 @@
         <v>59</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="2:8">
@@ -3355,10 +3412,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D18" s="20">
-        <v>1.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -3366,10 +3423,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D19" s="20">
-        <v>1.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:8">
@@ -3377,10 +3434,10 @@
         <v>4</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D20" s="20">
-        <v>1.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="2:8">
@@ -3388,10 +3445,10 @@
         <v>5</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D21" s="39">
-        <v>1.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:8">
@@ -3399,10 +3456,10 @@
         <v>6</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D22" s="39">
-        <v>1.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="2:8">
@@ -3410,10 +3467,10 @@
         <v>7</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D23" s="39">
-        <v>1.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:8">
@@ -3421,10 +3478,10 @@
         <v>8</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D24" s="20">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="2:8">
@@ -3432,17 +3489,17 @@
     </row>
     <row r="26" spans="2:8" s="3" customFormat="1">
       <c r="B26" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="32" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
@@ -3450,20 +3507,20 @@
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="32" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="34"/>
       <c r="F31" s="32" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G31" s="33"/>
       <c r="H31" s="34"/>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="32" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
@@ -3496,7 +3553,7 @@
   <dimension ref="B1:H39"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:D13"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -3513,33 +3570,33 @@
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1">
       <c r="B1" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="45"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="56"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="50" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -3548,7 +3605,7 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="2:8" s="1" customFormat="1">
-      <c r="B6" s="48"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="8" t="s">
         <v>22</v>
       </c>
@@ -3559,9 +3616,9 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="47"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -3570,7 +3627,7 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="50" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -3585,8 +3642,8 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="48"/>
-      <c r="C9" s="46" t="s">
+      <c r="B9" s="51"/>
+      <c r="C9" s="50" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -3598,8 +3655,8 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="48"/>
-      <c r="C10" s="47"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="8" t="s">
         <v>23</v>
       </c>
@@ -3609,12 +3666,12 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="2:8" s="1" customFormat="1">
-      <c r="B11" s="48"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="30" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
@@ -3622,7 +3679,7 @@
       <c r="H11" s="34"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="47"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="4" t="s">
         <v>61</v>
       </c>
@@ -3638,10 +3695,10 @@
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="50"/>
+      <c r="C13" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="53"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -3661,10 +3718,10 @@
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="50" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -3676,8 +3733,8 @@
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="2:8" s="1" customFormat="1">
-      <c r="B16" s="48"/>
-      <c r="C16" s="47"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="8" t="s">
         <v>26</v>
       </c>
@@ -3687,7 +3744,7 @@
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="47"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="4" t="s">
         <v>15</v>
       </c>
@@ -3705,30 +3762,30 @@
     </row>
     <row r="19" spans="2:8">
       <c r="E19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="41" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="56" t="s">
+      <c r="G20" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="57"/>
+      <c r="H20" s="43"/>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>60</v>
@@ -3742,7 +3799,7 @@
       <c r="G21" s="40">
         <v>1</v>
       </c>
-      <c r="H21" s="58"/>
+      <c r="H21" s="44"/>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="5">
@@ -3760,7 +3817,7 @@
       <c r="G22" s="40">
         <v>1.8</v>
       </c>
-      <c r="H22" s="59"/>
+      <c r="H22" s="45"/>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="5">
@@ -3778,7 +3835,7 @@
       <c r="G23" s="40">
         <v>3.3</v>
       </c>
-      <c r="H23" s="59"/>
+      <c r="H23" s="45"/>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="5">
@@ -3796,7 +3853,7 @@
       <c r="G24" s="40">
         <v>5</v>
       </c>
-      <c r="H24" s="59"/>
+      <c r="H24" s="45"/>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="5">
@@ -3808,12 +3865,12 @@
     </row>
     <row r="27" spans="2:8" s="3" customFormat="1">
       <c r="B27" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3825,7 +3882,7 @@
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="32" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
@@ -3833,7 +3890,7 @@
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="32" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
@@ -3841,7 +3898,7 @@
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="32" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
@@ -3849,7 +3906,7 @@
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="32" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
@@ -3857,7 +3914,7 @@
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="32" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
@@ -3865,7 +3922,7 @@
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="32" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
@@ -3873,7 +3930,7 @@
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="32" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
@@ -3881,7 +3938,7 @@
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="37" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C38" s="36"/>
       <c r="D38" s="36"/>
@@ -3917,23 +3974,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5AC036-5AF3-43C9-8DCB-8CAD147E7305}">
   <dimension ref="B1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="3.19921875" customWidth="1"/>
+    <col min="18" max="18" width="9.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1">
       <c r="B1" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
@@ -3946,21 +4004,21 @@
       <c r="B4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="45"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="56"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="50" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -3969,9 +4027,9 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="47"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -3980,14 +4038,14 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="50" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -3995,12 +4053,12 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="48"/>
-      <c r="C8" s="46" t="s">
+      <c r="B8" s="51"/>
+      <c r="C8" s="50" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -4008,8 +4066,8 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="48"/>
-      <c r="C9" s="47"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="8" t="s">
         <v>23</v>
       </c>
@@ -4019,12 +4077,12 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8" s="1" customFormat="1">
-      <c r="B10" s="48"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="30" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
@@ -4032,7 +4090,7 @@
       <c r="H10" s="34"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="47"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="4" t="s">
         <v>61</v>
       </c>
@@ -4049,7 +4107,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4058,14 +4116,14 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="50" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -4073,7 +4131,7 @@
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="47"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="4" t="s">
         <v>15</v>
       </c>
@@ -4085,19 +4143,19 @@
     </row>
     <row r="16" spans="2:8" s="3" customFormat="1">
       <c r="B16" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="2:5" s="1" customFormat="1"/>
     <row r="18" spans="2:5" s="1" customFormat="1">
       <c r="B18" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="2:5" s="1" customFormat="1"/>
     <row r="20" spans="2:5" s="1" customFormat="1">
       <c r="B20" s="32" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
@@ -4105,7 +4163,7 @@
     </row>
     <row r="21" spans="2:5" s="1" customFormat="1">
       <c r="B21" s="17" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>

--- a/Design/맵기믹 기획.xlsx
+++ b/Design/맵기믹 기획.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\PLUM\2022 8월 게임 프로젝트\PlumTowerDefecne\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECB64C0-52EC-47B3-8F67-41F668B0E817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7719069D-94A8-453D-BAD7-F268BDD58246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{6ED0029A-6F1E-4A92-AB37-7B6700187FC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6ED0029A-6F1E-4A92-AB37-7B6700187FC9}"/>
   </bookViews>
   <sheets>
     <sheet name="VerCon" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="222">
   <si>
     <t>맵 기믹 기획서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -414,14 +414,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그라운드당 평지의 약 1/7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그라운드당 평지의 약 1/10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>중분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -903,6 +895,30 @@
   </si>
   <si>
     <t>공격로버프의 타워별버프 시간 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그라운드 생성 시 전체 맵에 0~4개가 각 25%의 확률로 생성됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ver1.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그라운드당 생성 개수는 2~5개이고 각각은 25%의 확률을 가짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보물상자 생성확률 수정(알고리즘 수정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그라운드 내에 있는 자원이 다 채굴되지 않으면 그 그라운드에서는 자원이 생성되지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자원 생성규칙, 생성확률 수정(알고리즘 수정)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1143,7 +1159,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1288,12 +1304,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1301,30 +1356,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1871,10 +1902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9685DD35-646D-4F18-B38B-7C194FF0E322}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1883,18 +1914,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="35" t="s">
@@ -1978,113 +2009,131 @@
         <v>220823</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="31"/>
       <c r="B12" s="31"/>
       <c r="C12" s="31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="31"/>
       <c r="B13" s="31"/>
       <c r="C13" s="31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="31"/>
       <c r="B14" s="31"/>
       <c r="C14" s="31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="31"/>
       <c r="B15" s="31"/>
       <c r="C15" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="31"/>
       <c r="B16" s="31"/>
       <c r="C16" s="35" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="31"/>
       <c r="B17" s="31"/>
       <c r="C17" s="35" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="31"/>
       <c r="B18" s="31"/>
       <c r="C18" s="35" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B19" s="39">
         <v>220825</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="39"/>
       <c r="B20" s="39"/>
       <c r="C20" s="41" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="39"/>
       <c r="B21" s="39"/>
       <c r="C21" s="41" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="46"/>
       <c r="B22" s="46"/>
       <c r="C22" s="47" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="46" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B23" s="46">
         <v>220827</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="46"/>
       <c r="B24" s="46"/>
       <c r="C24" s="47" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="46"/>
       <c r="B25" s="46"/>
       <c r="C25" s="47" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="49" t="s">
         <v>217</v>
+      </c>
+      <c r="B26" s="49">
+        <v>220828</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2116,21 +2165,21 @@
   <sheetData>
     <row r="2" spans="2:12">
       <c r="B2" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="46" t="s">
         <v>200</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="46" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D3" s="46" t="s">
         <v>60</v>
@@ -2141,10 +2190,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="2:12">
@@ -2152,7 +2201,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D5" s="46" t="s">
         <v>1</v>
@@ -2163,7 +2212,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>11</v>
@@ -2174,7 +2223,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D7" s="46" t="s">
         <v>64</v>
@@ -2182,17 +2231,17 @@
     </row>
     <row r="9" spans="2:12" s="3" customFormat="1">
       <c r="B9" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="2:12" s="1" customFormat="1"/>
     <row r="11" spans="2:12">
       <c r="B11" s="32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
@@ -2205,7 +2254,7 @@
     </row>
     <row r="12" spans="2:12">
       <c r="D12" s="32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
@@ -2229,11 +2278,11 @@
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
@@ -2248,7 +2297,7 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
@@ -2261,7 +2310,7 @@
     </row>
     <row r="16" spans="2:12" s="1" customFormat="1">
       <c r="D16" s="32" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
@@ -2276,7 +2325,7 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="32" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
@@ -2289,7 +2338,7 @@
     </row>
     <row r="18" spans="2:12">
       <c r="D18" s="32" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E18" s="33"/>
       <c r="F18" s="33"/>
@@ -2302,7 +2351,7 @@
     </row>
     <row r="19" spans="2:12">
       <c r="D19" s="32" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
@@ -2315,7 +2364,7 @@
     </row>
     <row r="20" spans="2:12">
       <c r="D20" s="32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
@@ -2328,7 +2377,7 @@
     </row>
     <row r="21" spans="2:12">
       <c r="D21" s="32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E21" s="33"/>
       <c r="F21" s="33"/>
@@ -2341,7 +2390,7 @@
     </row>
     <row r="22" spans="2:12">
       <c r="D22" s="32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E22" s="33"/>
       <c r="F22" s="33"/>
@@ -2354,7 +2403,7 @@
     </row>
     <row r="23" spans="2:12">
       <c r="D23" s="32" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E23" s="33"/>
       <c r="F23" s="33"/>
@@ -2392,29 +2441,29 @@
   <sheetData>
     <row r="1" spans="2:16" s="3" customFormat="1">
       <c r="B1" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="2:16">
       <c r="B3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="2:16">
       <c r="B4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="61"/>
     </row>
     <row r="5" spans="2:16">
       <c r="B5" s="14" t="s">
@@ -2433,7 +2482,7 @@
       <c r="K5" s="9"/>
     </row>
     <row r="6" spans="2:16">
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="63" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="32" t="s">
@@ -2451,7 +2500,7 @@
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="2:16">
-      <c r="B7" s="51"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="14" t="s">
         <v>7</v>
       </c>
@@ -2471,7 +2520,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="8"/>
@@ -2499,7 +2548,7 @@
       <c r="K9" s="9"/>
     </row>
     <row r="10" spans="2:16">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="63" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -2517,8 +2566,8 @@
       <c r="K10" s="9"/>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="51"/>
-      <c r="C11" s="50" t="s">
+      <c r="B11" s="64"/>
+      <c r="C11" s="63" t="s">
         <v>63</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -2533,8 +2582,8 @@
       <c r="K11" s="9"/>
     </row>
     <row r="12" spans="2:16" s="1" customFormat="1">
-      <c r="B12" s="51"/>
-      <c r="C12" s="52"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="8" t="s">
         <v>83</v>
       </c>
@@ -2547,7 +2596,7 @@
       <c r="K12" s="9"/>
     </row>
     <row r="13" spans="2:16">
-      <c r="B13" s="52"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
@@ -2567,53 +2616,53 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
       <c r="E16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" s="54"/>
+      <c r="F16" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="56"/>
       <c r="H16" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I16" s="21" t="s">
         <v>41</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="K16" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="L16" s="54"/>
+      <c r="L16" s="56"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
       <c r="E17" s="4">
         <v>10</v>
       </c>
-      <c r="F17" s="53" t="s">
+      <c r="F17" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="53"/>
+      <c r="G17" s="55"/>
       <c r="H17" s="4">
         <v>11</v>
       </c>
@@ -2621,10 +2670,10 @@
       <c r="J17" s="20">
         <v>10</v>
       </c>
-      <c r="K17" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="L17" s="53"/>
+      <c r="K17" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="L17" s="55"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
@@ -2633,10 +2682,10 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="53"/>
+      <c r="G18" s="55"/>
       <c r="H18" s="4">
         <v>21</v>
       </c>
@@ -2644,10 +2693,10 @@
       <c r="J18" s="20">
         <v>10</v>
       </c>
-      <c r="K18" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="L18" s="53"/>
+      <c r="K18" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="L18" s="55"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
@@ -2657,7 +2706,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="39">
@@ -2667,10 +2716,10 @@
       <c r="J19" s="39">
         <v>10</v>
       </c>
-      <c r="K19" s="53" t="s">
-        <v>168</v>
-      </c>
-      <c r="L19" s="53"/>
+      <c r="K19" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="L19" s="55"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
@@ -2680,7 +2729,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="39">
@@ -2690,10 +2739,10 @@
       <c r="J20" s="39">
         <v>10</v>
       </c>
-      <c r="K20" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="L20" s="57"/>
+      <c r="K20" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="L20" s="62"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
@@ -2703,7 +2752,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="39">
@@ -2713,10 +2762,10 @@
       <c r="J21" s="39">
         <v>10</v>
       </c>
-      <c r="K21" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="L21" s="57"/>
+      <c r="K21" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="L21" s="62"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
@@ -2726,7 +2775,7 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="39">
@@ -2736,19 +2785,19 @@
       <c r="J22" s="39">
         <v>10</v>
       </c>
-      <c r="K22" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="L22" s="57"/>
+      <c r="K22" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="L22" s="62"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="20">
         <v>20</v>
       </c>
@@ -2760,15 +2809,15 @@
         <v>11</v>
       </c>
       <c r="I23" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J23" s="20">
         <v>11</v>
       </c>
-      <c r="K23" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="L23" s="53"/>
+      <c r="K23" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="L23" s="55"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
@@ -2778,15 +2827,15 @@
       <c r="D24" s="6"/>
       <c r="E24" s="28"/>
       <c r="I24" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J24" s="20">
         <v>21</v>
       </c>
-      <c r="K24" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="L24" s="53"/>
+      <c r="K24" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="L24" s="55"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
@@ -2796,15 +2845,15 @@
       <c r="D25" s="6"/>
       <c r="E25" s="28"/>
       <c r="I25" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J25" s="20">
         <v>31</v>
       </c>
-      <c r="K25" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="L25" s="53"/>
+      <c r="K25" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="L25" s="55"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
@@ -2814,15 +2863,15 @@
       <c r="D26" s="6"/>
       <c r="E26" s="28"/>
       <c r="I26" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J26" s="20">
         <v>41</v>
       </c>
-      <c r="K26" s="53" t="s">
-        <v>174</v>
-      </c>
-      <c r="L26" s="53"/>
+      <c r="K26" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="L26" s="55"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
@@ -2837,15 +2886,15 @@
         <v>21</v>
       </c>
       <c r="I27" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J27" s="20">
         <v>11</v>
       </c>
-      <c r="K27" s="53" t="s">
-        <v>175</v>
-      </c>
-      <c r="L27" s="53"/>
+      <c r="K27" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="L27" s="55"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
@@ -2855,15 +2904,15 @@
       <c r="D28" s="6"/>
       <c r="E28" s="28"/>
       <c r="I28" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J28" s="20">
         <v>21</v>
       </c>
-      <c r="K28" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="L28" s="53"/>
+      <c r="K28" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="L28" s="55"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
@@ -2873,15 +2922,15 @@
       <c r="D29" s="6"/>
       <c r="E29" s="28"/>
       <c r="I29" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J29" s="20">
         <v>31</v>
       </c>
-      <c r="K29" s="53" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="53"/>
+      <c r="K29" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="55"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
@@ -2894,15 +2943,15 @@
       <c r="G30" s="26"/>
       <c r="H30" s="6"/>
       <c r="I30" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J30" s="20">
         <v>41</v>
       </c>
-      <c r="K30" s="53" t="s">
-        <v>178</v>
-      </c>
-      <c r="L30" s="53"/>
+      <c r="K30" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="L30" s="55"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
@@ -2912,22 +2961,22 @@
       <c r="D31" s="6"/>
       <c r="E31" s="28"/>
       <c r="F31" s="27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G31" s="18"/>
       <c r="H31" s="22">
         <v>31</v>
       </c>
       <c r="I31" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J31" s="20">
         <v>11</v>
       </c>
-      <c r="K31" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="L31" s="53"/>
+      <c r="K31" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="L31" s="55"/>
     </row>
     <row r="32" spans="2:16">
       <c r="B32" s="15"/>
@@ -2935,15 +2984,15 @@
       <c r="D32" s="6"/>
       <c r="E32" s="28"/>
       <c r="I32" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J32" s="20">
         <v>21</v>
       </c>
-      <c r="K32" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="L32" s="53"/>
+      <c r="K32" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="L32" s="55"/>
     </row>
     <row r="33" spans="2:12">
       <c r="B33" s="15"/>
@@ -2951,15 +3000,15 @@
       <c r="D33" s="6"/>
       <c r="E33" s="28"/>
       <c r="I33" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J33" s="20">
         <v>31</v>
       </c>
-      <c r="K33" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="L33" s="53"/>
+      <c r="K33" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="L33" s="55"/>
     </row>
     <row r="34" spans="2:12" s="1" customFormat="1">
       <c r="B34" s="15"/>
@@ -2970,15 +3019,15 @@
       <c r="G34" s="26"/>
       <c r="H34" s="6"/>
       <c r="I34" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J34" s="20">
         <v>41</v>
       </c>
-      <c r="K34" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="L34" s="53"/>
+      <c r="K34" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="L34" s="55"/>
     </row>
     <row r="35" spans="2:12">
       <c r="B35" s="15"/>
@@ -2986,22 +3035,22 @@
       <c r="D35" s="6"/>
       <c r="E35" s="28"/>
       <c r="F35" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G35" s="18"/>
       <c r="H35" s="22">
         <v>41</v>
       </c>
       <c r="I35" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J35" s="20">
         <v>11</v>
       </c>
-      <c r="K35" s="53" t="s">
-        <v>183</v>
-      </c>
-      <c r="L35" s="53"/>
+      <c r="K35" s="55" t="s">
+        <v>181</v>
+      </c>
+      <c r="L35" s="55"/>
     </row>
     <row r="36" spans="2:12">
       <c r="B36" s="15"/>
@@ -3012,15 +3061,15 @@
       <c r="G36" s="26"/>
       <c r="H36" s="6"/>
       <c r="I36" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J36" s="20">
         <v>21</v>
       </c>
-      <c r="K36" s="53" t="s">
-        <v>184</v>
-      </c>
-      <c r="L36" s="53"/>
+      <c r="K36" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="L36" s="55"/>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="15"/>
@@ -3031,15 +3080,15 @@
       <c r="G37" s="26"/>
       <c r="H37" s="6"/>
       <c r="I37" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J37" s="20">
         <v>31</v>
       </c>
-      <c r="K37" s="53" t="s">
-        <v>185</v>
-      </c>
-      <c r="L37" s="53"/>
+      <c r="K37" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="L37" s="55"/>
     </row>
     <row r="38" spans="2:12">
       <c r="B38" s="15"/>
@@ -3050,22 +3099,22 @@
       <c r="G38" s="26"/>
       <c r="H38" s="6"/>
       <c r="I38" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J38" s="20">
         <v>41</v>
       </c>
-      <c r="K38" s="53" t="s">
-        <v>186</v>
-      </c>
-      <c r="L38" s="53"/>
+      <c r="K38" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="L38" s="55"/>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="58" t="s">
+      <c r="B39" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="59"/>
-      <c r="D39" s="60"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="59"/>
       <c r="E39" s="19">
         <v>30</v>
       </c>
@@ -3075,94 +3124,108 @@
         <v>10</v>
       </c>
       <c r="I39" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J39" s="20">
         <v>11</v>
       </c>
-      <c r="K39" s="53" t="s">
-        <v>209</v>
-      </c>
-      <c r="L39" s="53"/>
+      <c r="K39" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="L39" s="55"/>
     </row>
     <row r="40" spans="2:12">
       <c r="I40" s="41" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J40" s="41">
         <v>21</v>
       </c>
-      <c r="K40" s="53" t="s">
-        <v>191</v>
-      </c>
-      <c r="L40" s="53"/>
+      <c r="K40" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="L40" s="55"/>
     </row>
     <row r="41" spans="2:12">
       <c r="I41" s="41" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J41" s="41">
         <v>31</v>
       </c>
-      <c r="K41" s="53" t="s">
-        <v>210</v>
-      </c>
-      <c r="L41" s="53"/>
+      <c r="K41" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="L41" s="55"/>
     </row>
     <row r="42" spans="2:12">
       <c r="I42" s="41" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J42" s="41">
         <v>41</v>
       </c>
-      <c r="K42" s="53" t="s">
-        <v>211</v>
-      </c>
-      <c r="L42" s="53"/>
+      <c r="K42" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="L42" s="55"/>
     </row>
     <row r="43" spans="2:12">
       <c r="I43" s="41" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J43" s="41">
         <v>51</v>
       </c>
-      <c r="K43" s="53" t="s">
-        <v>212</v>
-      </c>
-      <c r="L43" s="53"/>
+      <c r="K43" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="L43" s="55"/>
     </row>
     <row r="44" spans="2:12">
       <c r="I44" s="41" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J44" s="41">
         <v>61</v>
       </c>
-      <c r="K44" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="L44" s="53"/>
+      <c r="K44" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="L44" s="55"/>
     </row>
     <row r="46" spans="2:12" s="3" customFormat="1">
       <c r="B46" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="2:12" s="1" customFormat="1"/>
     <row r="48" spans="2:12" s="1" customFormat="1">
       <c r="B48" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
     <mergeCell ref="K38:L38"/>
     <mergeCell ref="K39:L39"/>
     <mergeCell ref="B16:D16"/>
@@ -3179,25 +3242,11 @@
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="K34:L34"/>
     <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:L44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3208,7 +3257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB72675-8795-4DA3-A916-AE0915099200}">
   <dimension ref="B1:H32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -3243,17 +3292,17 @@
       <c r="B4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="56"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="61"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="63" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -3266,7 +3315,7 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="2:8" s="1" customFormat="1">
-      <c r="B6" s="52"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="8" t="s">
         <v>38</v>
       </c>
@@ -3277,7 +3326,7 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="63" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -3292,12 +3341,12 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="51"/>
-      <c r="C8" s="50" t="s">
+      <c r="B8" s="64"/>
+      <c r="C8" s="63" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -3305,10 +3354,10 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8" s="1" customFormat="1">
-      <c r="B9" s="51"/>
-      <c r="C9" s="52"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -3316,7 +3365,7 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="52"/>
+      <c r="B10" s="65"/>
       <c r="C10" s="4" t="s">
         <v>61</v>
       </c>
@@ -3332,17 +3381,17 @@
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="63" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -3357,7 +3406,7 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="52"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
@@ -3393,7 +3442,7 @@
         <v>67</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="2:8">
@@ -3489,17 +3538,17 @@
     </row>
     <row r="26" spans="2:8" s="3" customFormat="1">
       <c r="B26" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="32" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
@@ -3507,20 +3556,20 @@
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="32" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="34"/>
       <c r="F31" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G31" s="33"/>
       <c r="H31" s="34"/>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
@@ -3550,10 +3599,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B521D6-2D85-4E20-A231-43C3768C3612}">
-  <dimension ref="B1:H39"/>
+  <dimension ref="B1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -3582,17 +3631,17 @@
       <c r="B4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="56"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="61"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="63" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -3605,7 +3654,7 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="2:8" s="1" customFormat="1">
-      <c r="B6" s="51"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="8" t="s">
         <v>22</v>
       </c>
@@ -3616,9 +3665,9 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="52"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -3627,7 +3676,7 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="63" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -3642,8 +3691,8 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="51"/>
-      <c r="C9" s="50" t="s">
+      <c r="B9" s="64"/>
+      <c r="C9" s="63" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -3655,8 +3704,8 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="51"/>
-      <c r="C10" s="52"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="8" t="s">
         <v>23</v>
       </c>
@@ -3666,231 +3715,234 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="2:8" s="1" customFormat="1">
-      <c r="B11" s="51"/>
-      <c r="C11" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="34"/>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="52"/>
-      <c r="C12" s="4" t="s">
+      <c r="B11" s="64"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="52"/>
+    </row>
+    <row r="12" spans="2:8" s="1" customFormat="1">
+      <c r="B12" s="64"/>
+      <c r="C12" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="65"/>
+      <c r="C13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D13" s="10">
         <v>2</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="2:8" s="1" customFormat="1">
-      <c r="B13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="53"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:8" s="1" customFormat="1">
       <c r="B14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="B15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="2:8" s="1" customFormat="1">
-      <c r="B16" s="51"/>
-      <c r="C16" s="52"/>
+    <row r="16" spans="2:8">
+      <c r="B16" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>13</v>
+      </c>
       <c r="D16" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="52"/>
-      <c r="C17" s="4" t="s">
+    <row r="17" spans="2:8" s="1" customFormat="1">
+      <c r="B17" s="64"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="65"/>
+      <c r="C18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D18" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E18" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F18" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="E19" t="s">
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="E20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="41" t="s">
+    <row r="21" spans="2:8">
+      <c r="B21" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C21" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="42" t="s">
+      <c r="G21" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="43"/>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="H21" s="43"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F22" s="13">
         <v>0.4</v>
       </c>
-      <c r="G21" s="40">
+      <c r="G22" s="40">
         <v>1</v>
       </c>
-      <c r="H21" s="44"/>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="5">
-        <v>1</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="G22" s="40">
-        <v>1.8</v>
-      </c>
-      <c r="H22" s="45"/>
+      <c r="H22" s="44"/>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="F23" s="13">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G23" s="40">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="H23" s="45"/>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="F24" s="13">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G24" s="40">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="H24" s="45"/>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="5">
+        <v>3</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="G25" s="40">
+        <v>5</v>
+      </c>
+      <c r="H25" s="45"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="5">
         <v>4</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="2:8" s="3" customFormat="1">
-      <c r="B27" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+    <row r="28" spans="2:8" s="3" customFormat="1">
+      <c r="B28" s="3" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
+      <c r="B31" s="1"/>
+      <c r="E31" s="1"/>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="32" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
@@ -3898,7 +3950,7 @@
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="32" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
@@ -3906,7 +3958,7 @@
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="32" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
@@ -3914,7 +3966,7 @@
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
@@ -3922,7 +3974,7 @@
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="32" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
@@ -3930,41 +3982,49 @@
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="32" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="34"/>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="38"/>
+      <c r="B38" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="34"/>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="36"/>
+      <c r="B39" s="37" t="s">
+        <v>144</v>
+      </c>
       <c r="C39" s="36"/>
       <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
+      <c r="E39" s="38"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C9:C11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D17" r:id="rId1" xr:uid="{5EB89E96-56A7-4277-9978-73C0E5C5237C}"/>
-    <hyperlink ref="E17" r:id="rId2" xr:uid="{565B5955-E588-4999-A3E0-B21BFDBE5D8C}"/>
-    <hyperlink ref="F17" r:id="rId3" xr:uid="{9410E9AB-BCFB-41E7-817F-5F134B6E934E}"/>
+    <hyperlink ref="D18" r:id="rId1" xr:uid="{5EB89E96-56A7-4277-9978-73C0E5C5237C}"/>
+    <hyperlink ref="E18" r:id="rId2" xr:uid="{565B5955-E588-4999-A3E0-B21BFDBE5D8C}"/>
+    <hyperlink ref="F18" r:id="rId3" xr:uid="{9410E9AB-BCFB-41E7-817F-5F134B6E934E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3974,8 +4034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5AC036-5AF3-43C9-8DCB-8CAD147E7305}">
   <dimension ref="B1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -4004,17 +4064,17 @@
       <c r="B4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="56"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="61"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="63" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -4027,7 +4087,7 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="52"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="8" t="s">
         <v>88</v>
       </c>
@@ -4038,7 +4098,7 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="63" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -4053,8 +4113,8 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="51"/>
-      <c r="C8" s="50" t="s">
+      <c r="B8" s="64"/>
+      <c r="C8" s="63" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -4066,8 +4126,8 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="51"/>
-      <c r="C9" s="52"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="8" t="s">
         <v>23</v>
       </c>
@@ -4077,12 +4137,12 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8" s="1" customFormat="1">
-      <c r="B10" s="51"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
@@ -4090,7 +4150,7 @@
       <c r="H10" s="34"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="52"/>
+      <c r="B11" s="65"/>
       <c r="C11" s="4" t="s">
         <v>61</v>
       </c>
@@ -4103,11 +4163,11 @@
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="48" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>96</v>
+        <v>216</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4116,7 +4176,7 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="63" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -4131,7 +4191,7 @@
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="52"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="4" t="s">
         <v>15</v>
       </c>
@@ -4143,19 +4203,19 @@
     </row>
     <row r="16" spans="2:8" s="3" customFormat="1">
       <c r="B16" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="2:5" s="1" customFormat="1"/>
     <row r="18" spans="2:5" s="1" customFormat="1">
       <c r="B18" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="2:5" s="1" customFormat="1"/>
     <row r="20" spans="2:5" s="1" customFormat="1">
       <c r="B20" s="32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
@@ -4163,7 +4223,7 @@
     </row>
     <row r="21" spans="2:5" s="1" customFormat="1">
       <c r="B21" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>

--- a/Design/맵기믹 기획.xlsx
+++ b/Design/맵기믹 기획.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\PLUM\2022 8월 게임 프로젝트\PlumTowerDefecne\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7719069D-94A8-453D-BAD7-F268BDD58246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E079D2-012E-4959-9CFF-CF67CCDF5FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6ED0029A-6F1E-4A92-AB37-7B6700187FC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{6ED0029A-6F1E-4A92-AB37-7B6700187FC9}"/>
   </bookViews>
   <sheets>
     <sheet name="VerCon" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="226">
   <si>
     <t>맵 기믹 기획서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -919,6 +919,22 @@
   </si>
   <si>
     <t>자원 생성규칙, 생성확률 수정(알고리즘 수정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ver1.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자원 채굴 규칙 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채굴 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 확장 시(일시정지 했을 때)에는 채굴 정지, 확장 완료 후 플레이되면 체굴 다시 시작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1159,7 +1175,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1319,18 +1335,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1338,24 +1390,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1902,10 +1936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9685DD35-646D-4F18-B38B-7C194FF0E322}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1914,18 +1948,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="35" t="s">
@@ -2134,6 +2168,17 @@
       <c r="B27" s="49"/>
       <c r="C27" s="50" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="B28" s="53">
+        <v>220830</v>
+      </c>
+      <c r="C28" s="57" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2453,17 +2498,17 @@
       <c r="B4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="61"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="67"/>
     </row>
     <row r="5" spans="2:16">
       <c r="B5" s="14" t="s">
@@ -2482,7 +2527,7 @@
       <c r="K5" s="9"/>
     </row>
     <row r="6" spans="2:16">
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="61" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="32" t="s">
@@ -2500,7 +2545,7 @@
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="2:16">
-      <c r="B7" s="64"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="14" t="s">
         <v>7</v>
       </c>
@@ -2548,7 +2593,7 @@
       <c r="K9" s="9"/>
     </row>
     <row r="10" spans="2:16">
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="61" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -2566,8 +2611,8 @@
       <c r="K10" s="9"/>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="64"/>
-      <c r="C11" s="63" t="s">
+      <c r="B11" s="62"/>
+      <c r="C11" s="61" t="s">
         <v>63</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -2582,8 +2627,8 @@
       <c r="K11" s="9"/>
     </row>
     <row r="12" spans="2:16" s="1" customFormat="1">
-      <c r="B12" s="64"/>
-      <c r="C12" s="65"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="63"/>
       <c r="D12" s="8" t="s">
         <v>83</v>
       </c>
@@ -2596,7 +2641,7 @@
       <c r="K12" s="9"/>
     </row>
     <row r="13" spans="2:16">
-      <c r="B13" s="65"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
@@ -2622,18 +2667,18 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
       <c r="E16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="56" t="s">
+      <c r="F16" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="G16" s="56"/>
+      <c r="G16" s="65"/>
       <c r="H16" s="7" t="s">
         <v>96</v>
       </c>
@@ -2643,26 +2688,26 @@
       <c r="J16" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="K16" s="56" t="s">
+      <c r="K16" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="L16" s="56"/>
+      <c r="L16" s="65"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
       <c r="E17" s="4">
         <v>10</v>
       </c>
-      <c r="F17" s="55" t="s">
+      <c r="F17" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="55"/>
+      <c r="G17" s="64"/>
       <c r="H17" s="4">
         <v>11</v>
       </c>
@@ -2670,10 +2715,10 @@
       <c r="J17" s="20">
         <v>10</v>
       </c>
-      <c r="K17" s="55" t="s">
+      <c r="K17" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="L17" s="55"/>
+      <c r="L17" s="64"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
@@ -2682,10 +2727,10 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="55" t="s">
+      <c r="F18" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="55"/>
+      <c r="G18" s="64"/>
       <c r="H18" s="4">
         <v>21</v>
       </c>
@@ -2693,10 +2738,10 @@
       <c r="J18" s="20">
         <v>10</v>
       </c>
-      <c r="K18" s="55" t="s">
+      <c r="K18" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="L18" s="55"/>
+      <c r="L18" s="64"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
@@ -2716,10 +2761,10 @@
       <c r="J19" s="39">
         <v>10</v>
       </c>
-      <c r="K19" s="55" t="s">
+      <c r="K19" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="L19" s="55"/>
+      <c r="L19" s="64"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
@@ -2739,10 +2784,10 @@
       <c r="J20" s="39">
         <v>10</v>
       </c>
-      <c r="K20" s="62" t="s">
+      <c r="K20" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="L20" s="62"/>
+      <c r="L20" s="68"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
@@ -2762,10 +2807,10 @@
       <c r="J21" s="39">
         <v>10</v>
       </c>
-      <c r="K21" s="62" t="s">
+      <c r="K21" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="L21" s="62"/>
+      <c r="L21" s="68"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
@@ -2785,19 +2830,19 @@
       <c r="J22" s="39">
         <v>10</v>
       </c>
-      <c r="K22" s="62" t="s">
+      <c r="K22" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="L22" s="62"/>
+      <c r="L22" s="68"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="20">
         <v>20</v>
       </c>
@@ -2814,10 +2859,10 @@
       <c r="J23" s="20">
         <v>11</v>
       </c>
-      <c r="K23" s="55" t="s">
+      <c r="K23" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="L23" s="55"/>
+      <c r="L23" s="64"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
@@ -2832,10 +2877,10 @@
       <c r="J24" s="20">
         <v>21</v>
       </c>
-      <c r="K24" s="55" t="s">
+      <c r="K24" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="L24" s="55"/>
+      <c r="L24" s="64"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
@@ -2850,10 +2895,10 @@
       <c r="J25" s="20">
         <v>31</v>
       </c>
-      <c r="K25" s="55" t="s">
+      <c r="K25" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="L25" s="55"/>
+      <c r="L25" s="64"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
@@ -2868,10 +2913,10 @@
       <c r="J26" s="20">
         <v>41</v>
       </c>
-      <c r="K26" s="55" t="s">
+      <c r="K26" s="64" t="s">
         <v>172</v>
       </c>
-      <c r="L26" s="55"/>
+      <c r="L26" s="64"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
@@ -2891,10 +2936,10 @@
       <c r="J27" s="20">
         <v>11</v>
       </c>
-      <c r="K27" s="55" t="s">
+      <c r="K27" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="L27" s="55"/>
+      <c r="L27" s="64"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
@@ -2909,10 +2954,10 @@
       <c r="J28" s="20">
         <v>21</v>
       </c>
-      <c r="K28" s="55" t="s">
+      <c r="K28" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="L28" s="55"/>
+      <c r="L28" s="64"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
@@ -2927,10 +2972,10 @@
       <c r="J29" s="20">
         <v>31</v>
       </c>
-      <c r="K29" s="55" t="s">
+      <c r="K29" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="L29" s="55"/>
+      <c r="L29" s="64"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
@@ -2948,10 +2993,10 @@
       <c r="J30" s="20">
         <v>41</v>
       </c>
-      <c r="K30" s="55" t="s">
+      <c r="K30" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="L30" s="55"/>
+      <c r="L30" s="64"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
@@ -2973,10 +3018,10 @@
       <c r="J31" s="20">
         <v>11</v>
       </c>
-      <c r="K31" s="55" t="s">
+      <c r="K31" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="L31" s="55"/>
+      <c r="L31" s="64"/>
     </row>
     <row r="32" spans="2:16">
       <c r="B32" s="15"/>
@@ -2989,10 +3034,10 @@
       <c r="J32" s="20">
         <v>21</v>
       </c>
-      <c r="K32" s="55" t="s">
+      <c r="K32" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="L32" s="55"/>
+      <c r="L32" s="64"/>
     </row>
     <row r="33" spans="2:12">
       <c r="B33" s="15"/>
@@ -3005,10 +3050,10 @@
       <c r="J33" s="20">
         <v>31</v>
       </c>
-      <c r="K33" s="55" t="s">
+      <c r="K33" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="L33" s="55"/>
+      <c r="L33" s="64"/>
     </row>
     <row r="34" spans="2:12" s="1" customFormat="1">
       <c r="B34" s="15"/>
@@ -3024,10 +3069,10 @@
       <c r="J34" s="20">
         <v>41</v>
       </c>
-      <c r="K34" s="55" t="s">
+      <c r="K34" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="L34" s="55"/>
+      <c r="L34" s="64"/>
     </row>
     <row r="35" spans="2:12">
       <c r="B35" s="15"/>
@@ -3047,10 +3092,10 @@
       <c r="J35" s="20">
         <v>11</v>
       </c>
-      <c r="K35" s="55" t="s">
+      <c r="K35" s="64" t="s">
         <v>181</v>
       </c>
-      <c r="L35" s="55"/>
+      <c r="L35" s="64"/>
     </row>
     <row r="36" spans="2:12">
       <c r="B36" s="15"/>
@@ -3066,10 +3111,10 @@
       <c r="J36" s="20">
         <v>21</v>
       </c>
-      <c r="K36" s="55" t="s">
+      <c r="K36" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="L36" s="55"/>
+      <c r="L36" s="64"/>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="15"/>
@@ -3085,10 +3130,10 @@
       <c r="J37" s="20">
         <v>31</v>
       </c>
-      <c r="K37" s="55" t="s">
+      <c r="K37" s="64" t="s">
         <v>183</v>
       </c>
-      <c r="L37" s="55"/>
+      <c r="L37" s="64"/>
     </row>
     <row r="38" spans="2:12">
       <c r="B38" s="15"/>
@@ -3104,17 +3149,17 @@
       <c r="J38" s="20">
         <v>41</v>
       </c>
-      <c r="K38" s="55" t="s">
+      <c r="K38" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="L38" s="55"/>
+      <c r="L38" s="64"/>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="57" t="s">
+      <c r="B39" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="58"/>
-      <c r="D39" s="59"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="71"/>
       <c r="E39" s="19">
         <v>30</v>
       </c>
@@ -3129,10 +3174,10 @@
       <c r="J39" s="20">
         <v>11</v>
       </c>
-      <c r="K39" s="55" t="s">
+      <c r="K39" s="64" t="s">
         <v>207</v>
       </c>
-      <c r="L39" s="55"/>
+      <c r="L39" s="64"/>
     </row>
     <row r="40" spans="2:12">
       <c r="I40" s="41" t="s">
@@ -3141,10 +3186,10 @@
       <c r="J40" s="41">
         <v>21</v>
       </c>
-      <c r="K40" s="55" t="s">
+      <c r="K40" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="L40" s="55"/>
+      <c r="L40" s="64"/>
     </row>
     <row r="41" spans="2:12">
       <c r="I41" s="41" t="s">
@@ -3153,10 +3198,10 @@
       <c r="J41" s="41">
         <v>31</v>
       </c>
-      <c r="K41" s="55" t="s">
+      <c r="K41" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="L41" s="55"/>
+      <c r="L41" s="64"/>
     </row>
     <row r="42" spans="2:12">
       <c r="I42" s="41" t="s">
@@ -3165,10 +3210,10 @@
       <c r="J42" s="41">
         <v>41</v>
       </c>
-      <c r="K42" s="55" t="s">
+      <c r="K42" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="L42" s="55"/>
+      <c r="L42" s="64"/>
     </row>
     <row r="43" spans="2:12">
       <c r="I43" s="41" t="s">
@@ -3177,10 +3222,10 @@
       <c r="J43" s="41">
         <v>51</v>
       </c>
-      <c r="K43" s="55" t="s">
+      <c r="K43" s="64" t="s">
         <v>210</v>
       </c>
-      <c r="L43" s="55"/>
+      <c r="L43" s="64"/>
     </row>
     <row r="44" spans="2:12">
       <c r="I44" s="41" t="s">
@@ -3189,10 +3234,10 @@
       <c r="J44" s="41">
         <v>61</v>
       </c>
-      <c r="K44" s="55" t="s">
+      <c r="K44" s="64" t="s">
         <v>211</v>
       </c>
-      <c r="L44" s="55"/>
+      <c r="L44" s="64"/>
     </row>
     <row r="46" spans="2:12" s="3" customFormat="1">
       <c r="B46" s="3" t="s">
@@ -3207,25 +3252,11 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:L44"/>
     <mergeCell ref="K38:L38"/>
     <mergeCell ref="K39:L39"/>
     <mergeCell ref="B16:D16"/>
@@ -3242,11 +3273,25 @@
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="K34:L34"/>
     <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3292,17 +3337,17 @@
       <c r="B4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="61"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="67"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="61" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -3315,7 +3360,7 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="2:8" s="1" customFormat="1">
-      <c r="B6" s="65"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="8" t="s">
         <v>38</v>
       </c>
@@ -3326,7 +3371,7 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="61" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -3341,8 +3386,8 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="64"/>
-      <c r="C8" s="63" t="s">
+      <c r="B8" s="62"/>
+      <c r="C8" s="61" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -3354,8 +3399,8 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8" s="1" customFormat="1">
-      <c r="B9" s="64"/>
-      <c r="C9" s="65"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="8" t="s">
         <v>195</v>
       </c>
@@ -3365,7 +3410,7 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="65"/>
+      <c r="B10" s="63"/>
       <c r="C10" s="4" t="s">
         <v>61</v>
       </c>
@@ -3381,17 +3426,17 @@
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="61" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -3406,7 +3451,7 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="65"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
@@ -3599,10 +3644,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B521D6-2D85-4E20-A231-43C3768C3612}">
-  <dimension ref="B1:H40"/>
+  <dimension ref="B1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -3631,17 +3676,17 @@
       <c r="B4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="61"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="67"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="61" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -3654,7 +3699,7 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="2:8" s="1" customFormat="1">
-      <c r="B6" s="64"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="8" t="s">
         <v>22</v>
       </c>
@@ -3665,7 +3710,7 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="65"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="8" t="s">
         <v>114</v>
       </c>
@@ -3676,7 +3721,7 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="61" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -3691,8 +3736,8 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="64"/>
-      <c r="C9" s="63" t="s">
+      <c r="B9" s="62"/>
+      <c r="C9" s="61" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -3704,8 +3749,8 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="8" t="s">
         <v>23</v>
       </c>
@@ -3715,8 +3760,8 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="2:8" s="1" customFormat="1">
-      <c r="B11" s="64"/>
-      <c r="C11" s="65"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="51" t="s">
         <v>220</v>
       </c>
@@ -3726,7 +3771,7 @@
       <c r="H11" s="52"/>
     </row>
     <row r="12" spans="2:8" s="1" customFormat="1">
-      <c r="B12" s="64"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="30" t="s">
         <v>113</v>
       </c>
@@ -3739,7 +3784,7 @@
       <c r="H12" s="34"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="65"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="4" t="s">
         <v>61</v>
       </c>
@@ -3752,205 +3797,210 @@
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="2:8" s="1" customFormat="1">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="56"/>
+    </row>
+    <row r="15" spans="2:8" s="1" customFormat="1">
+      <c r="B15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C15" s="69" t="s">
         <v>218</v>
       </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="B16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="2:8" s="1" customFormat="1">
-      <c r="B17" s="64"/>
-      <c r="C17" s="65"/>
+    <row r="17" spans="2:8">
+      <c r="B17" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="61" t="s">
+        <v>13</v>
+      </c>
       <c r="D17" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="65"/>
-      <c r="C18" s="4" t="s">
+    <row r="18" spans="2:8" s="1" customFormat="1">
+      <c r="B18" s="62"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="63"/>
+      <c r="C19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D19" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E19" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F19" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="E20" t="s">
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="E21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="41" t="s">
+    <row r="22" spans="2:8">
+      <c r="B22" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C22" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F22" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G21" s="42" t="s">
+      <c r="G22" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="43"/>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="4" t="s">
+      <c r="H22" s="43"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F23" s="13">
         <v>0.4</v>
       </c>
-      <c r="G22" s="40">
+      <c r="G23" s="40">
         <v>1</v>
       </c>
-      <c r="H22" s="44"/>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="5">
-        <v>1</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="G23" s="40">
-        <v>1.8</v>
-      </c>
-      <c r="H23" s="45"/>
+      <c r="H23" s="44"/>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="F24" s="13">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G24" s="40">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="H24" s="45"/>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="F25" s="13">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G25" s="40">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="H25" s="45"/>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="5">
+        <v>3</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="G26" s="40">
+        <v>5</v>
+      </c>
+      <c r="H26" s="45"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="5">
         <v>4</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:8" s="3" customFormat="1">
-      <c r="B28" s="3" t="s">
+    <row r="29" spans="2:8" s="3" customFormat="1">
+      <c r="B29" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="1" t="s">
+    <row r="31" spans="2:8">
+      <c r="B31" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="34"/>
+      <c r="B32" s="1"/>
+      <c r="E32" s="1"/>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
@@ -3958,7 +4008,7 @@
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
@@ -3966,7 +4016,7 @@
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="32" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
@@ -3974,7 +4024,7 @@
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="32" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
@@ -3982,7 +4032,7 @@
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="32" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
@@ -3990,41 +4040,49 @@
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="32" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="34"/>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="34"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="38"/>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="B40" s="36"/>
       <c r="C40" s="36"/>
       <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
+      <c r="E40" s="38"/>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C15:F15"/>
     <mergeCell ref="C9:C11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D18" r:id="rId1" xr:uid="{5EB89E96-56A7-4277-9978-73C0E5C5237C}"/>
-    <hyperlink ref="E18" r:id="rId2" xr:uid="{565B5955-E588-4999-A3E0-B21BFDBE5D8C}"/>
-    <hyperlink ref="F18" r:id="rId3" xr:uid="{9410E9AB-BCFB-41E7-817F-5F134B6E934E}"/>
+    <hyperlink ref="D19" r:id="rId1" xr:uid="{5EB89E96-56A7-4277-9978-73C0E5C5237C}"/>
+    <hyperlink ref="E19" r:id="rId2" xr:uid="{565B5955-E588-4999-A3E0-B21BFDBE5D8C}"/>
+    <hyperlink ref="F19" r:id="rId3" xr:uid="{9410E9AB-BCFB-41E7-817F-5F134B6E934E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4064,17 +4122,17 @@
       <c r="B4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="61"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="67"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="61" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -4087,7 +4145,7 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="65"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="8" t="s">
         <v>88</v>
       </c>
@@ -4098,7 +4156,7 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="61" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -4113,8 +4171,8 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="64"/>
-      <c r="C8" s="63" t="s">
+      <c r="B8" s="62"/>
+      <c r="C8" s="61" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -4126,8 +4184,8 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="64"/>
-      <c r="C9" s="65"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="8" t="s">
         <v>23</v>
       </c>
@@ -4137,7 +4195,7 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8" s="1" customFormat="1">
-      <c r="B10" s="64"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="30" t="s">
         <v>113</v>
       </c>
@@ -4150,7 +4208,7 @@
       <c r="H10" s="34"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="65"/>
+      <c r="B11" s="63"/>
       <c r="C11" s="4" t="s">
         <v>61</v>
       </c>
@@ -4176,7 +4234,7 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="61" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -4191,7 +4249,7 @@
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="65"/>
+      <c r="B14" s="63"/>
       <c r="C14" s="4" t="s">
         <v>15</v>
       </c>

--- a/Design/맵기믹 기획.xlsx
+++ b/Design/맵기믹 기획.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\PLUM\2022 8월 게임 프로젝트\PlumTowerDefecne\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E079D2-012E-4959-9CFF-CF67CCDF5FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2A496D-84B9-461F-A52F-9DB42077ABB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{6ED0029A-6F1E-4A92-AB37-7B6700187FC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6ED0029A-6F1E-4A92-AB37-7B6700187FC9}"/>
   </bookViews>
   <sheets>
     <sheet name="VerCon" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="236">
   <si>
     <t>맵 기믹 기획서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -650,10 +650,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>더블 클릭-&gt;돈 지급-&gt;즉시 소멸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>버프존, 디버프존 생성 알고리즘은 다음과 같다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -822,10 +818,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>각 자원은 2~9번 채굴할 수 있고 각각은 12.5%의 확률을 가짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -898,18 +890,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그라운드 생성 시 전체 맵에 0~4개가 각 25%의 확률로 생성됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ver1.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그라운드당 생성 개수는 2~5개이고 각각은 25%의 확률을 가짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>보물상자 생성확률 수정(알고리즘 수정)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -935,6 +919,62 @@
   </si>
   <si>
     <t>맵 확장 시(일시정지 했을 때)에는 채굴 정지, 확장 완료 후 플레이되면 체굴 다시 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(스테이지 수)*(자철석 채굴 시 획득하는 비용)*0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타워 중 가격이 가장 낮은 타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타워 중 가격이 두번째로 낮은 타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그라운드 생성 시 전체 맵에 0~4개가 각 동일한 확률로 생성됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그라운드당 생성 개수는 2~5개이고 각 동일한 확률을 가짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 자원은 2~9번 채굴할 수 있고 각 동일한 확률을 가짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭-&gt;돈 지급-&gt;즉시 소멸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭-&gt;제거 비용, 제거할 건지 표시-&gt;제거 선택-&gt;돈 내고 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ver1.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보물상자 보상 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확률 문구 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장애물 채굴방식 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1175,7 +1215,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1353,12 +1393,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1368,31 +1447,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1419,13 +1477,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>225695</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1441,7 +1499,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3916680" y="3375660"/>
+          <a:off x="3916680" y="3596640"/>
           <a:ext cx="3227975" cy="2065020"/>
           <a:chOff x="2484120" y="3169920"/>
           <a:chExt cx="3113675" cy="2065020"/>
@@ -1585,13 +1643,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>18506</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>79465</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>52357</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1636,7 +1694,444 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>83640</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>17460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>93840</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>121860</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="5" name="잉크 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3A576D5-9A5E-54A1-CB43-82D9F8DC53C0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6332040" y="2006280"/>
+            <a:ext cx="680760" cy="104400"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="잉크 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3A576D5-9A5E-54A1-CB43-82D9F8DC53C0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6314040" y="1988640"/>
+              <a:ext cx="716400" cy="140040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>618960</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>157560</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>192420</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="7" name="잉크 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{550B7577-37D8-A69B-F843-D9BFCE694B00}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6867360" y="1948320"/>
+            <a:ext cx="209160" cy="232920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="7" name="잉크 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{550B7577-37D8-A69B-F843-D9BFCE694B00}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6849720" y="1930320"/>
+              <a:ext cx="244800" cy="268560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419280</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>29340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476280</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>137400</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="40" name="잉크 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{807432A8-0552-B25A-D4D4-543A58E5945A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7338240" y="2018160"/>
+            <a:ext cx="727560" cy="329040"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="40" name="잉크 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{807432A8-0552-B25A-D4D4-543A58E5945A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7329240" y="2009520"/>
+              <a:ext cx="745200" cy="346680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504120</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>118620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>99120</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>135300</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="77" name="잉크 76">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1E1365C-897F-AF50-AB51-B32044414582}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6752520" y="781560"/>
+            <a:ext cx="1606680" cy="1784520"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="77" name="잉크 76">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1E1365C-897F-AF50-AB51-B32044414582}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6743520" y="772920"/>
+              <a:ext cx="1624320" cy="1802160"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-09-01T16:18:54.781"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">90 289 184 0 0,'-9'-2'2095'0'0,"-1"1"-1"0"0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-10 2 1 0 0,-1 0 4094 0 0,180-11-2520 0 0,80-27-3022 0 0,-81 11-334 0 0,858-118-160 0 0,-968 137-261 0 0,40-5-926 0 0,94-27 0 0 0,-204 30-7896 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-09-01T16:18:58.580"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3 0 5489 0 0,'-2'9'8239'0'0,"13"1"-4510"0"0,17 5-1386 0 0,-6-8-1782 0 0,1-2 0 0 0,-1 0 0 0 0,1-2 0 0 0,31 1 0 0 0,18 3 14 0 0,-11 3-480 0 0,1 3 0 0 0,72 24 0 0 0,-111-32-207 0 0,-19-5 103 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,3 4 0 0 0,-8-2 67 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-2 0 1 0 0,1 1 0 0 0,-4 2-1 0 0,3-2 35 0 0,-74 84 357 0 0,-97 144 1 0 0,127-157-4951 0 0,5 1-4436 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-09-01T16:19:44.805"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 509 8 0 0,'6'-4'10143'0'0,"8"-3"-6006"0"0,47-24-3568 0 0,65-49 135 0 0,-126 80-704 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 18 598 0 0,-12 19 617 0 0,-52 110 963 0 0,14-40-1945 0 0,44-96-427 0 0,-5 15-364 0 0,2-9-2653 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="363.58">159 524 5977 0 0,'-1'4'11861'0'0,"9"4"-9007"0"0,9 6-2892 0 0,-12-12-19 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,11-2-1 0 0,23-9-4802 0 0,-4-5-7271 0 0,-28 11 9153 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="796.4">340 173 7290 0 0,'4'21'8023'0'0,"8"15"-4286"0"0,-3-12-2471 0 0,6 38-80 0 0,-8-30-923 0 0,13 34 1 0 0,-16-57-1312 0 0,0 1 1 0 0,0-1 0 0 0,1-1-1 0 0,8 13 1 0 0,-3-12-4104 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="797.4">395 368 8 0 0,'1'-4'13256'0'0,"9"-4"-9479"0"0,11-6-2761 0 0,-1 5-931 0 0,30-13-707 0 0,-33 19-3435 0 0,-1 3-3614 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1339.51">382 704 8 0 0,'-2'2'748'0'0,"-1"-1"1"0"0,1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-2 3-1 0 0,1-1-96 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0 9 0 0 0,1-7-379 0 0,-1 0 1 0 0,1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,5 6 0 0 0,-5-8-223 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,6-2 0 0 0,-3 0-146 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,3-7-1 0 0,-4 7-123 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,-1-10 0 0 0,0 12 235 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-8-4 0 0 0,6 4 119 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-2 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,0 1 1 0 0,-8 1 0 0 0,5 0-22 0 0,1 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-9 10 0 0 0,10-10-746 0 0,-23 24 1363 0 0,19-12-3607 0 0,10-16 2462 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1-1-1 0 0,0 2 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1761.84">737 389 2032 0 0,'-1'7'1828'0'0,"0"0"0"0"0,0 0 0 0 0,1 0-1 0 0,2 14 1 0 0,-1-14-1036 0 0,0 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,4 9-1 0 0,-5-14-734 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,6-3 0 0 0,-4 2-99 0 0,-1-1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0-7 0 0 0,-1 6 8 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,-5-6 0 0 0,6 8 40 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-4 3-1 0 0,0 0-262 0 0,1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-5 11 0 0 0,6-12-501 0 0,-4 11-3038 0 0,7-7-4200 0 0,1-6 6560 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2128.36">978 223 6313 0 0,'1'11'10498'0'0,"9"16"-7778"0"0,-9-24-1667 0 0,11 30 753 0 0,9 46 0 0 0,-19-68-2130 0 0,0-1 0 0 0,0 1 0 0 0,-2 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,-4 18 0 0 0,1-22-3280 0 0,1-28-11914 0 0,3 15 13370 0 0,0-1 2705 0 0,1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,2 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,2-1 1 0 0,3-5-1 0 0,7-6 2312 0 0,0 1 0 0 0,18-18 0 0 0,-20 22-2708 0 0,-6 7-1244 0 0,16-19-8424 0 0,-16 17 4082 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2470.01">1076 1 920 0 0,'-1'8'9647'0'0,"7"15"-6281"0"0,-5-20-2357 0 0,50 165 5921 0 0,9 37-5252 0 0,-52-174-1687 0 0,42 163 558 0 0,-7-68-2964 0 0,-34-105-898 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2864.05">1294 57 3465 0 0,'0'6'1600'0'0,"1"0"-1"0"0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,5 11 1 0 0,13 23-349 0 0,3-7-3747 0 0,-13-22-1645 0 0,1-2-5128 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2865.05">1344 29 7618 0 0,'9'-3'10101'0'0,"6"-3"-6742"0"0,-8 2-3468 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,14-2 1 0 0,-19 5 109 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,5 3 0 0 0,-6-4 7 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0 1 0 0 0,-1 4 4 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,-7 7 1 0 0,-14 5 81 0 0,78-61 180 0 0,-15 24-3139 0 0,-23 15-988 0 0,0 2-3359 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3271.92">1213 496 16804 0 0,'17'-8'4880'0'0,"14"-18"-4358"0"0,-22 18-145 0 0,120-108-272 0 0,-32 27-2380 0 0,3 5-4675 0 0,-95 79 6423 0 0,14-10-2544 0 0,1 0 0 0 0,41-17 10286 0 0,-60 44-2812 0 0,-4 19-3717 0 0,2-22 100 0 0,-1 49-668 0 0,1-19-3226 0 0,-3 0-9244 0 0,3-31 7818 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3655.63">1469 484 13051 0 0,'6'-14'7414'0'0,"18"-8"-5213"0"0,-10 9-1267 0 0,6-8-478 0 0,0 0 0 0 0,27-20 1 0 0,-35 32-493 0 0,0 0 1 0 0,0 1 0 0 0,0 1-1 0 0,1 0 1 0 0,0 1 0 0 0,18-7-1 0 0,-31 13-8 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,-1 0-70 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-2 3-1 0 0,-23 52-3262 0 0,24-54 3012 0 0,-30 46-5436 0 0,5-19-1950 0 0,17-19 3319 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3656.63">1515 567 9338 0 0,'32'-29'8422'0'0,"1"2"-3433"0"0,9-4-2543 0 0,24-13-3482 0 0,13-11-2552 0 0,-62 44-248 0 0,2-2-6195 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4085.92">1562 551 10890 0 0,'-1'1'465'0'0,"0"0"-1"0"0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 2 1 0 0,1 0-123 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0-1 0 0,0 0 1 0 0,3 5 0 0 0,1 0-319 0 0,0 0 0 0 0,1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,13 9-1 0 0,-13-11-223 0 0,0-1 0 0 0,0 0 0 0 0,1-1-1 0 0,0 1 1 0 0,13 2 0 0 0,-10-3 481 0 0,1-1 0 0 0,0-1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 0 0 0,15-6 1 0 0,-3 1-1329 0 0,0-2 1 0 0,30-16-1 0 0,-7-1-5335 0 0,-5 0-4653 0 0,-33 21 3558 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-09-01T16:19:40.152"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1540 4921 8 0 0,'-7'-2'515'0'0,"1"-1"0"0"0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-3-8 0 0 0,-10-25 876 0 0,1-1 0 0 0,2 0 1 0 0,-14-75-1 0 0,17 52-633 0 0,-3-123 1 0 0,47-317-991 0 0,-32 492 284 0 0,70-515-126 0 0,-54 431 11 0 0,39-132 0 0 0,-36 168 30 0 0,2 1-1 0 0,2 1 1 0 0,42-70 0 0 0,-45 95 55 0 0,2 1 0 0 0,1 0 1 0 0,2 2-1 0 0,1 1 0 0 0,1 1 0 0 0,1 2 0 0 0,1 0 0 0 0,2 2 1 0 0,0 2-1 0 0,2 1 0 0 0,0 1 0 0 0,1 2 0 0 0,1 1 0 0 0,63-19 1 0 0,-43 19 69 0 0,1 3 1 0 0,0 3-1 0 0,1 2 1 0 0,1 2-1 0 0,-1 3 1 0 0,1 3-1 0 0,-1 2 1 0 0,1 2-1 0 0,73 15 1 0 0,-59-3 52 0 0,86 27 1 0 0,-119-28 93 0 0,0 2 0 0 0,-2 2 0 0 0,60 35 0 0 0,-14 1 134 0 0,-2 3 0 0 0,86 79 1 0 0,-119-88-313 0 0,-3 2 1 0 0,-1 3 0 0 0,-3 1-1 0 0,65 111 1 0 0,-61-71 154 0 0,62 181 1 0 0,-96-240-193 0 0,68 176 110 0 0,63 201 123 0 0,-86-214-84 0 0,61 258 38 0 0,-116-445-355 0 0,8 49 261 0 0,-10-56-273 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-3 4 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="737.59">1495 4957 1984 0 0,'-11'-6'8863'0'0,"31"6"-3928"0"0,98-22-512 0 0,58-27-2448 0 0,17-4-1073 0 0,-6 19-480 0 0,2 8-1 0 0,309-3 1 0 0,-381 27-388 0 0,800-41-557 0 0,-810 31 199 0 0,156-16 693 0 0,-90 4-4046 0 0,-172 24 3529 0 0,7-2-1448 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16217.02">4 754 8 0 0,'-1'3'650'0'0,"0"0"-1"0"0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 6 1 0 0,-1-7-331 0 0,40 263 4244 0 0,-14-120-3945 0 0,107 598 401 0 0,-120-690-1228 0 0,7 31-528 0 0,-15-29-4757 0 0,-11-66-1730 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17391.46">4 654 8 0 0,'1'-1'314'0'0,"0"0"0"0"0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,3-1 0 0 0,33-12 5134 0 0,160-41-3482 0 0,14-3-979 0 0,900-153 2223 0 0,-506 137-2226 0 0,-216 32-658 0 0,-179 15-297 0 0,539-79-217 0 0,-656 87-348 0 0,-9 1 32 0 0,98-7 1 0 0,-142 22-284 0 0,-38 22 1866 0 0,0 1 0 0 0,10 38 0 0 0,2 9-821 0 0,97 816 2323 0 0,-80-623-2503 0 0,-19-85-1002 0 0,-4-94-875 0 0,-2-33-2285 0 0,-3 1-9305 0 0,-3-44 11657 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18101.26">272 2233 4289 0 0,'69'-6'8309'0'0,"2"-8"-4031"0"0,71-28-2319 0 0,-26 6-508 0 0,231-47-223 0 0,61-18-45 0 0,-297 69-789 0 0,520-140 452 0 0,9 43-486 0 0,250 33 268 0 0,-849 95-630 0 0,0-2-1 0 0,0-2 0 0 0,-1-2 1 0 0,1-1-1 0 0,-1-2 0 0 0,43-17 1 0 0,-78 25-149 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,4-5 0 0 0,-7 7-64 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-2 0 0 0,0 0-416 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-2-1 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20931.07">231 944 984 0 0,'-24'1'13496'0'0,"30"-6"-11429"0"0,2-1-2652 0 0,16-13 792 0 0,2 1 0 0 0,0 1 0 0 0,1 1 0 0 0,34-15 0 0 0,-60 30-211 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,2 0 0 0 0,-2 0 35 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 2 0 0 0,0 8 286 0 0,-2 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-6 12 0 0 0,5-11-218 0 0,-3 8 155 0 0,-9 23-190 0 0,2 0 0 0 0,2 0-1 0 0,-9 64 1 0 0,21-98-2073 0 0,18-31-15726 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21328.93">391 981 8 0 0,'4'4'14458'0'0,"14"15"-12158"0"0,-2-3-2080 0 0,-11-11-448 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,8 5 1 0 0,0-4-4831 0 0,2-4-4263 0 0,-13-2 7861 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21329.93">472 1015 8 0 0,'-4'-8'13931'0'0,"5"7"-13522"0"0,7-12 3782 0 0,18-12-5444 0 0,-23 22 2404 0 0,70-64-2233 0 0,-49 44-3593 0 0,-1 0-5236 0 0,-19 16 7150 0 0,-4 5 2761 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21748.81">591 822 8 0 0,'-13'-1'1326'0'0,"5"2"3894"0"0,10 16-1262 0 0,0-12-3828 0 0,10 66 1069 0 0,3 11-1734 0 0,2-31-5307 0 0,-10-40 1029 0 0,-5-7 4170 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21749.81">648 746 4809 0 0,'-5'3'10891'0'0,"5"-2"-10690"0"0,2 14 2958 0 0,6 15-2543 0 0,15 25 109 0 0,62 168-1641 0 0,-78-207-1013 0 0,-1-10-1535 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22159.75">715 800 8018 0 0,'12'-12'5614'0'0,"19"-11"-4454"0"0,-29 22-1161 0 0,7-4 109 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,19-5 0 0 0,-28 9-47 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,3 1 1 0 0,-2 0 38 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 4 0 0 0,0 10 133 0 0,0-1-1 0 0,-1 1 1 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,-5 17 1 0 0,-6 21-8252 0 0,8-33 1155 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22160.75">889 866 6369 0 0,'4'-6'9381'0'0,"12"-18"-6994"0"0,46-32-4130 0 0,-40 38-2461 0 0,1 2-3694 0 0,-15 10 3614 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22528.81">996 634 3201 0 0,'-6'7'11600'0'0,"6"-6"-11259"0"0,1 16 3416 0 0,9 21-4308 0 0,-8-33 1683 0 0,22 91 75 0 0,-15-55-2443 0 0,29 77 0 0 0,-29-100-2519 0 0,0-9-4066 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22873.79">1123 660 7074 0 0,'-1'1'295'0'0,"0"0"0"0"0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 2 0 0 0,1 28 2888 0 0,0-25-2467 0 0,-1 4-361 0 0,9 79 2016 0 0,2-46-3663 0 0,-9-38 492 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,7 8-1 0 0,2-5-8779 0 0,-6-6 5950 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23273.79">1223 630 7242 0 0,'13'10'9054'0'0,"8"20"-7895"0"0,-16-22-519 0 0,0 0-539 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-2-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-2 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,-10 13 0 0 0,14-21-98 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,-1-1 0 0 0,1 0-18 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-2 0 0 0,-1 0-30 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,2-4 0 0 0,0 1-38 0 0,1 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,7-5 0 0 0,24-15-4205 0 0,3 9-9036 0 0,-33 13 12071 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23274.79">1376 552 7378 0 0,'0'1'269'0'0,"-1"-1"1"0"0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-4 3 2969 0 0,4-3-2969 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 18 3081 0 0,7 23-2276 0 0,-5-37-510 0 0,43 189 335 0 0,-41-181-1548 0 0,15 41 61 0 0,-3-30-3666 0 0,-14-23 3442 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,1 1 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23629.95">1535 533 4441 0 0,'-1'0'386'0'0,"0"1"0"0"0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 2 0 0 0,0 0-84 0 0,1-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1-1 0 0,1 2 1 0 0,-2-3-268 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,3 0 0 0 0,2-2-127 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-2-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-11 0 0 0,-1 16 120 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-2 1-1 0 0,-1 0 110 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-2 3 1 0 0,0 4 121 0 0,0 0 1 0 0,0 1 0 0 0,2-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 14-1 0 0,0 68 525 0 0,3-76-681 0 0,1-11-19 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,3 8 0 0 0,-4-12-272 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,3 2 1 0 0,-3-2-478 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,2-1 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23994.43">1665 546 6105 0 0,'-2'2'748'0'0,"-1"-1"0"0"0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,-1 4 1 0 0,1-3-169 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 6 0 0 0,2 3-512 0 0,0 1 1 0 0,1-1-1 0 0,1 1 0 0 0,5 15 0 0 0,-5-17-1581 0 0,0-1-1 0 0,0 1 0 0 0,0 17 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24334.03">1451 857 9770 0 0,'0'0'1950'0'0,"10"-3"3751"0"0,13-6-2670 0 0,28-14-1603 0 0,97-42 546 0 0,-115 53-5672 0 0,36-8 0 0 0,-68 20 3466 0 0,20-4-6151 0 0,-8 5-2957 0 0,-10 0 8845 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24769.83">1604 944 8106 0 0,'-2'1'391'0'0,"1"0"0"0"0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,2 2 0 0 0,-1-3-320 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,3 1-1 0 0,4-2-292 0 0,-1 0 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,11-8 1 0 0,-14 9-54 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-7 0 0 0,-2 10 272 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,-2-2 0 0 0,1 2 61 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-6-1-1 0 0,1 1 77 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 0 0 0 0,-11 4-1 0 0,12-2-162 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-6 8-1 0 0,0 4-4785 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24770.83">2051 528 15155 0 0,'-1'0'116'0'0,"0"-1"-1"0"0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-2 2 0 0 0,5 9-2729 0 0,10 2-5886 0 0,-3-6 893 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25159.28">2097 701 7194 0 0,'-2'2'620'0'0,"1"1"0"0"0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0 3-1 0 0,5 24 268 0 0,6-9-7430 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25577.33">2289 626 8058 0 0,'-2'1'1732'0'0,"8"0"-333"0"0,12-1 754 0 0,30-13 162 0 0,61-24 0 0 0,-16 4-1858 0 0,113-19-138 0 0,-160 41-295 0 0,-19 5-565 0 0,135-36-10379 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28348.51">356 1545 3513 0 0,'-1'1'799'0'0,"0"-1"-533"0"0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 1 0 0,4 19 2430 0 0,11 14-1765 0 0,-16-32-822 0 0,18 39 332 0 0,-1 1-1 0 0,-2 0 1 0 0,16 75 0 0 0,-7-21 618 0 0,-16-78-749 0 0,-7-16-304 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,1-1 21 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,3-3 1 0 0,11-15 2 0 0,-11 18-32 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,10-1-1 0 0,9 0 133 0 0,38-2 0 0 0,-3 1 123 0 0,34-14-169 0 0,0-5 0 0 0,88-33-1 0 0,32-10-490 0 0,-151 50 217 0 0,374-105-801 0 0,-419 116 989 0 0,-1-1 0 0 0,18-9 0 0 0,-28 12 37 0 0,-1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,5-8-1 0 0,-8 11-3 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1-2 0 0 0,-24-36 169 0 0,14 21-186 0 0,-105-211-1091 0 0,117 228 1061 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,-1 0-1 0 0,0 1-83 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,-1 2 0 0 0,2-1 35 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,-3 2 0 0 0,-20 4-49 0 0,-1-1 1 0 0,-35 5-1 0 0,-5 0-54 0 0,-222 45 311 0 0,-13 3 1170 0 0,-30 34 788 0 0,62-16-929 0 0,232-71-371 0 0,24-6-2971 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28976.75">591 1522 3385 0 0,'3'-1'9002'0'0,"4"-2"-4332"0"0,36-11-3130 0 0,-23 9-1648 0 0,16-5-1864 0 0,-11 7-9128 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="29475.9">613 1643 5305 0 0,'3'-7'8080'0'0,"12"-7"-5661"0"0,22-13-1546 0 0,-35 26-820 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,2 2 0 0 0,-3-1-5 0 0,0 0 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,-1 4-1 0 0,1 0-403 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-5 13 0 0 0,8-30-5671 0 0,-1-15 3384 0 0,-1 2 1608 0 0,1-1 685 0 0,1-14 1614 0 0,4 17 3126 0 0,-4 20-4002 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,2 0 0 0 0,28-4-508 0 0,-18 2-1729 0 0,-12 3 1397 0 0,19-3-10099 0 0,-15 3 6050 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="29868.02">704 1807 4657 0 0,'-4'-6'8675'0'0,"4"6"-8494"0"0,7-14 2220 0 0,13-12-1813 0 0,-13 18-425 0 0,0-1-29 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,14-6 0 0 0,-23 12-115 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 1 0 0 0,0 0 13 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,0 4 1 0 0,2 4-91 0 0,0 1 0 0 0,-1 0 1 0 0,2 14-1 0 0,-4-18-867 0 0,3 23-145 0 0,-2-23-3144 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="29868.09">928 1426 9682 0 0,'-2'6'7564'0'0,"5"6"-5235"0"0,10 18-3344 0 0,-11-25 1740 0 0,96 236 230 0 0,-90-228-2996 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30228.93">1177 1352 12731 0 0,'-1'0'484'0'0,"-1"1"0"0"0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 2 0 0 0,-4 22 2308 0 0,6 31-2612 0 0,1-35 378 0 0,-3 17-398 0 0,0 5-1018 0 0,4-16-3898 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30576.9">1206 1408 11666 0 0,'0'0'228'0'0,"0"1"0"0"0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,15 0 2138 0 0,18-11-2796 0 0,-30 9 682 0 0,37-16-3460 0 0,-15 4-5496 0 0,-18 10 4307 0 0,-2 0 20 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30577.9">1313 1413 6225 0 0,'-1'0'403'0'0,"0"1"0"0"0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 1-1 0 0,-2 21 3346 0 0,13 25-2690 0 0,-7-35-1553 0 0,2 20-3941 0 0,-2-11-4148 0 0,-3-12 3828 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30958.78">1135 1719 10970 0 0,'2'0'4323'0'0,"9"-2"220"0"0,21-4-1916 0 0,76-50 220 0 0,-68 33-2901 0 0,0 2-3283 0 0,16-3-9189 0 0,-44 20 4405 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31749.52">2124 1130 4841 0 0,'-1'1'383'0'0,"0"-1"0"0"0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 2 0 0 0,1 29 3150 0 0,-1-29-3136 0 0,3 29 736 0 0,1 1-1 0 0,2 0 1 0 0,13 42-1 0 0,-18-72-1128 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,4 2-1 0 0,-1-2-3 0 0,-1 0 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,10-3 0 0 0,48-16 152 0 0,112-20 0 0 0,68 5-42 0 0,-220 33-86 0 0,167-19 64 0 0,169-26 178 0 0,-296 35-220 0 0,-1-2 1 0 0,-1-3-1 0 0,97-41 1 0 0,-145 53-39 0 0,-1-1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1-1 1 0 0,0-1-1 0 0,0 1 0 0 0,9-16 0 0 0,-13 18 5 0 0,0-1-1 0 0,-1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-2 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,-1-20 0 0 0,0 26-44 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-6-1 0 0 0,-11 1-209 0 0,1 1-1 0 0,-1 0 1 0 0,0 2-1 0 0,1 0 1 0 0,-22 7 0 0 0,12-3 268 0 0,-194 30-1494 0 0,-12 2 784 0 0,233-39 684 0 0,-695 179 747 0 0,394-67-792 0 0,282-106-38 0 0,13-4-2726 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32183.83">2416 1229 2873 0 0,'0'-1'119'0'0,"0"0"1"0"0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,1-2 0 0 0,18-22 1112 0 0,-12 15-751 0 0,2-2-225 0 0,47-58 101 0 0,-52 65-304 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,10-3 1 0 0,-16 7 26 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 2 0 0 0,-2 31 1739 0 0,1-31-1629 0 0,-24 141 2273 0 0,17-113-6384 0 0,-1 0-4302 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32602.49">2602 1152 7114 0 0,'0'3'10415'0'0,"3"3"-6251"0"0,13 15-5474 0 0,-15-20 2082 0 0,14 10-4407 0 0,-3-8-6233 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32964.64">2644 1184 11122 0 0,'1'-8'7896'0'0,"11"-6"-5603"0"0,21-17-3907 0 0,-25 24 2241 0 0,20-15-1407 0 0,-22 19 392 0 0,-1 0 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,1-7 1664 0 0,-5 12-1189 0 0,-4 14 1144 0 0,5 10-1069 0 0,1 0 0 0 0,1 0 0 0 0,6 26 0 0 0,-2-25-4153 0 0,1-2-3813 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32965.64">2884 992 6649 0 0,'-6'5'9395'0'0,"4"7"-5415"0"0,2 15-2933 0 0,1-21-24 0 0,1 23-588 0 0,1 1-1 0 0,15 55 1 0 0,-16-75-464 0 0,2 10-766 0 0,7 23-2353 0 0,-6-30-1856 0 0,2-2-3571 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33418.26">2988 1059 11458 0 0,'12'-9'7488'0'0,"32"-16"-7025"0"0,-35 20 0 0 0,-2 1-318 0 0,34-17 239 0 0,-40 20-303 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,3 2 0 0 0,-4-1-5 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,0 3 1 0 0,-1 27 374 0 0,0-23-323 0 0,-3 27-597 0 0,-1-1 0 0 0,-11 41 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33419.26">3158 1043 7866 0 0,'5'-2'8613'0'0,"3"-3"-3570"0"0,5-4-2582 0 0,10-7-3241 0 0,14-11-532 0 0,0 1-1861 0 0,-22 13-2246 0 0,-1 2-5158 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33806.23">3295 876 5225 0 0,'-6'6'9664'0'0,"2"9"-5528"0"0,1 16-2570 0 0,3-29-1230 0 0,-1 32 609 0 0,4 58-1 0 0,4-50-2834 0 0,3-3-3733 0 0,-4-25-2801 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34211.78">2601 1185 4713 0 0,'-10'8'14395'0'0,"18"11"-10912"0"0,20 13-3386 0 0,-23-28-111 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1 0 0 0,1-2-1 0 0,7 2 1 0 0,4-2-4189 0 0,-1-5-4030 0 0</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1936,10 +2431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9685DD35-646D-4F18-B38B-7C194FF0E322}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C31" sqref="A29:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1948,18 +2443,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="35" t="s">
@@ -2097,88 +2592,113 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B19" s="39">
         <v>220825</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="39"/>
       <c r="B20" s="39"/>
       <c r="C20" s="41" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="39"/>
       <c r="B21" s="39"/>
       <c r="C21" s="41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="46"/>
       <c r="B22" s="46"/>
       <c r="C22" s="47" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="46" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B23" s="46">
         <v>220827</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="46"/>
       <c r="B24" s="46"/>
       <c r="C24" s="47" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="46"/>
       <c r="B25" s="46"/>
       <c r="C25" s="47" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="49" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B26" s="49">
         <v>220828</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="49"/>
       <c r="B27" s="49"/>
       <c r="C27" s="50" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="53" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B28" s="53">
         <v>220830</v>
       </c>
       <c r="C28" s="57" t="s">
-        <v>223</v>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="B29" s="60">
+        <v>220901</v>
+      </c>
+      <c r="C29" s="61" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="60"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="61" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="60"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="61" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2210,21 +2730,21 @@
   <sheetData>
     <row r="2" spans="2:12">
       <c r="B2" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" s="46" t="s">
         <v>198</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="46" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D3" s="46" t="s">
         <v>60</v>
@@ -2235,10 +2755,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="2:12">
@@ -2246,7 +2766,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D5" s="46" t="s">
         <v>1</v>
@@ -2257,7 +2777,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>11</v>
@@ -2268,7 +2788,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D7" s="46" t="s">
         <v>64</v>
@@ -2355,7 +2875,7 @@
     </row>
     <row r="16" spans="2:12" s="1" customFormat="1">
       <c r="D16" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
@@ -2486,29 +3006,29 @@
   <sheetData>
     <row r="1" spans="2:16" s="3" customFormat="1">
       <c r="B1" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="2:16">
       <c r="B3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="2:16">
       <c r="B4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="67"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="72"/>
     </row>
     <row r="5" spans="2:16">
       <c r="B5" s="14" t="s">
@@ -2527,7 +3047,7 @@
       <c r="K5" s="9"/>
     </row>
     <row r="6" spans="2:16">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="74" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="32" t="s">
@@ -2545,7 +3065,7 @@
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="2:16">
-      <c r="B7" s="62"/>
+      <c r="B7" s="75"/>
       <c r="C7" s="14" t="s">
         <v>7</v>
       </c>
@@ -2593,7 +3113,7 @@
       <c r="K9" s="9"/>
     </row>
     <row r="10" spans="2:16">
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="74" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -2611,8 +3131,8 @@
       <c r="K10" s="9"/>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="62"/>
-      <c r="C11" s="61" t="s">
+      <c r="B11" s="75"/>
+      <c r="C11" s="74" t="s">
         <v>63</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -2627,8 +3147,8 @@
       <c r="K11" s="9"/>
     </row>
     <row r="12" spans="2:16" s="1" customFormat="1">
-      <c r="B12" s="62"/>
-      <c r="C12" s="63"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="76"/>
       <c r="D12" s="8" t="s">
         <v>83</v>
       </c>
@@ -2641,7 +3161,7 @@
       <c r="K12" s="9"/>
     </row>
     <row r="13" spans="2:16">
-      <c r="B13" s="63"/>
+      <c r="B13" s="76"/>
       <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
@@ -2667,18 +3187,18 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
       <c r="E16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="65" t="s">
+      <c r="F16" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="G16" s="65"/>
+      <c r="G16" s="67"/>
       <c r="H16" s="7" t="s">
         <v>96</v>
       </c>
@@ -2688,26 +3208,26 @@
       <c r="J16" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="K16" s="65" t="s">
+      <c r="K16" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="L16" s="65"/>
+      <c r="L16" s="67"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
       <c r="E17" s="4">
         <v>10</v>
       </c>
-      <c r="F17" s="64" t="s">
+      <c r="F17" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="64"/>
+      <c r="G17" s="66"/>
       <c r="H17" s="4">
         <v>11</v>
       </c>
@@ -2715,10 +3235,10 @@
       <c r="J17" s="20">
         <v>10</v>
       </c>
-      <c r="K17" s="64" t="s">
-        <v>165</v>
-      </c>
-      <c r="L17" s="64"/>
+      <c r="K17" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="L17" s="66"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
@@ -2727,10 +3247,10 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="64" t="s">
+      <c r="F18" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="64"/>
+      <c r="G18" s="66"/>
       <c r="H18" s="4">
         <v>21</v>
       </c>
@@ -2738,10 +3258,10 @@
       <c r="J18" s="20">
         <v>10</v>
       </c>
-      <c r="K18" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="L18" s="64"/>
+      <c r="K18" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="L18" s="66"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
@@ -2761,10 +3281,10 @@
       <c r="J19" s="39">
         <v>10</v>
       </c>
-      <c r="K19" s="64" t="s">
-        <v>166</v>
-      </c>
-      <c r="L19" s="64"/>
+      <c r="K19" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="L19" s="66"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
@@ -2784,10 +3304,10 @@
       <c r="J20" s="39">
         <v>10</v>
       </c>
-      <c r="K20" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="L20" s="68"/>
+      <c r="K20" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="L20" s="73"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
@@ -2807,10 +3327,10 @@
       <c r="J21" s="39">
         <v>10</v>
       </c>
-      <c r="K21" s="68" t="s">
+      <c r="K21" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="L21" s="68"/>
+      <c r="L21" s="73"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
@@ -2830,19 +3350,19 @@
       <c r="J22" s="39">
         <v>10</v>
       </c>
-      <c r="K22" s="68" t="s">
+      <c r="K22" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="L22" s="68"/>
+      <c r="L22" s="73"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
       <c r="E23" s="20">
         <v>20</v>
       </c>
@@ -2859,10 +3379,10 @@
       <c r="J23" s="20">
         <v>11</v>
       </c>
-      <c r="K23" s="64" t="s">
-        <v>169</v>
-      </c>
-      <c r="L23" s="64"/>
+      <c r="K23" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="L23" s="66"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
@@ -2877,10 +3397,10 @@
       <c r="J24" s="20">
         <v>21</v>
       </c>
-      <c r="K24" s="64" t="s">
-        <v>170</v>
-      </c>
-      <c r="L24" s="64"/>
+      <c r="K24" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="L24" s="66"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
@@ -2895,10 +3415,10 @@
       <c r="J25" s="20">
         <v>31</v>
       </c>
-      <c r="K25" s="64" t="s">
-        <v>171</v>
-      </c>
-      <c r="L25" s="64"/>
+      <c r="K25" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="L25" s="66"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
@@ -2913,10 +3433,10 @@
       <c r="J26" s="20">
         <v>41</v>
       </c>
-      <c r="K26" s="64" t="s">
-        <v>172</v>
-      </c>
-      <c r="L26" s="64"/>
+      <c r="K26" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="L26" s="66"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
@@ -2936,10 +3456,10 @@
       <c r="J27" s="20">
         <v>11</v>
       </c>
-      <c r="K27" s="64" t="s">
-        <v>173</v>
-      </c>
-      <c r="L27" s="64"/>
+      <c r="K27" s="66" t="s">
+        <v>172</v>
+      </c>
+      <c r="L27" s="66"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
@@ -2954,10 +3474,10 @@
       <c r="J28" s="20">
         <v>21</v>
       </c>
-      <c r="K28" s="64" t="s">
-        <v>174</v>
-      </c>
-      <c r="L28" s="64"/>
+      <c r="K28" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="L28" s="66"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
@@ -2972,10 +3492,10 @@
       <c r="J29" s="20">
         <v>31</v>
       </c>
-      <c r="K29" s="64" t="s">
-        <v>175</v>
-      </c>
-      <c r="L29" s="64"/>
+      <c r="K29" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="L29" s="66"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
@@ -2993,10 +3513,10 @@
       <c r="J30" s="20">
         <v>41</v>
       </c>
-      <c r="K30" s="64" t="s">
-        <v>176</v>
-      </c>
-      <c r="L30" s="64"/>
+      <c r="K30" s="66" t="s">
+        <v>175</v>
+      </c>
+      <c r="L30" s="66"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
@@ -3018,10 +3538,10 @@
       <c r="J31" s="20">
         <v>11</v>
       </c>
-      <c r="K31" s="64" t="s">
-        <v>177</v>
-      </c>
-      <c r="L31" s="64"/>
+      <c r="K31" s="66" t="s">
+        <v>176</v>
+      </c>
+      <c r="L31" s="66"/>
     </row>
     <row r="32" spans="2:16">
       <c r="B32" s="15"/>
@@ -3034,10 +3554,10 @@
       <c r="J32" s="20">
         <v>21</v>
       </c>
-      <c r="K32" s="64" t="s">
-        <v>178</v>
-      </c>
-      <c r="L32" s="64"/>
+      <c r="K32" s="66" t="s">
+        <v>177</v>
+      </c>
+      <c r="L32" s="66"/>
     </row>
     <row r="33" spans="2:12">
       <c r="B33" s="15"/>
@@ -3050,10 +3570,10 @@
       <c r="J33" s="20">
         <v>31</v>
       </c>
-      <c r="K33" s="64" t="s">
-        <v>179</v>
-      </c>
-      <c r="L33" s="64"/>
+      <c r="K33" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="L33" s="66"/>
     </row>
     <row r="34" spans="2:12" s="1" customFormat="1">
       <c r="B34" s="15"/>
@@ -3069,10 +3589,10 @@
       <c r="J34" s="20">
         <v>41</v>
       </c>
-      <c r="K34" s="64" t="s">
-        <v>180</v>
-      </c>
-      <c r="L34" s="64"/>
+      <c r="K34" s="66" t="s">
+        <v>179</v>
+      </c>
+      <c r="L34" s="66"/>
     </row>
     <row r="35" spans="2:12">
       <c r="B35" s="15"/>
@@ -3092,10 +3612,10 @@
       <c r="J35" s="20">
         <v>11</v>
       </c>
-      <c r="K35" s="64" t="s">
-        <v>181</v>
-      </c>
-      <c r="L35" s="64"/>
+      <c r="K35" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="L35" s="66"/>
     </row>
     <row r="36" spans="2:12">
       <c r="B36" s="15"/>
@@ -3111,10 +3631,10 @@
       <c r="J36" s="20">
         <v>21</v>
       </c>
-      <c r="K36" s="64" t="s">
-        <v>182</v>
-      </c>
-      <c r="L36" s="64"/>
+      <c r="K36" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="L36" s="66"/>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="15"/>
@@ -3130,10 +3650,10 @@
       <c r="J37" s="20">
         <v>31</v>
       </c>
-      <c r="K37" s="64" t="s">
-        <v>183</v>
-      </c>
-      <c r="L37" s="64"/>
+      <c r="K37" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="L37" s="66"/>
     </row>
     <row r="38" spans="2:12">
       <c r="B38" s="15"/>
@@ -3149,17 +3669,17 @@
       <c r="J38" s="20">
         <v>41</v>
       </c>
-      <c r="K38" s="64" t="s">
-        <v>184</v>
-      </c>
-      <c r="L38" s="64"/>
+      <c r="K38" s="66" t="s">
+        <v>183</v>
+      </c>
+      <c r="L38" s="66"/>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="69" t="s">
+      <c r="B39" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="70"/>
-      <c r="D39" s="71"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="70"/>
       <c r="E39" s="19">
         <v>30</v>
       </c>
@@ -3169,94 +3689,108 @@
         <v>10</v>
       </c>
       <c r="I39" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J39" s="20">
         <v>11</v>
       </c>
-      <c r="K39" s="64" t="s">
-        <v>207</v>
-      </c>
-      <c r="L39" s="64"/>
+      <c r="K39" s="66" t="s">
+        <v>205</v>
+      </c>
+      <c r="L39" s="66"/>
     </row>
     <row r="40" spans="2:12">
       <c r="I40" s="41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J40" s="41">
         <v>21</v>
       </c>
-      <c r="K40" s="64" t="s">
-        <v>189</v>
-      </c>
-      <c r="L40" s="64"/>
+      <c r="K40" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="L40" s="66"/>
     </row>
     <row r="41" spans="2:12">
       <c r="I41" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J41" s="41">
         <v>31</v>
       </c>
-      <c r="K41" s="64" t="s">
-        <v>208</v>
-      </c>
-      <c r="L41" s="64"/>
+      <c r="K41" s="66" t="s">
+        <v>206</v>
+      </c>
+      <c r="L41" s="66"/>
     </row>
     <row r="42" spans="2:12">
       <c r="I42" s="41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J42" s="41">
         <v>41</v>
       </c>
-      <c r="K42" s="64" t="s">
-        <v>209</v>
-      </c>
-      <c r="L42" s="64"/>
+      <c r="K42" s="66" t="s">
+        <v>207</v>
+      </c>
+      <c r="L42" s="66"/>
     </row>
     <row r="43" spans="2:12">
       <c r="I43" s="41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J43" s="41">
         <v>51</v>
       </c>
-      <c r="K43" s="64" t="s">
-        <v>210</v>
-      </c>
-      <c r="L43" s="64"/>
+      <c r="K43" s="66" t="s">
+        <v>208</v>
+      </c>
+      <c r="L43" s="66"/>
     </row>
     <row r="44" spans="2:12">
       <c r="I44" s="41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J44" s="41">
         <v>61</v>
       </c>
-      <c r="K44" s="64" t="s">
-        <v>211</v>
-      </c>
-      <c r="L44" s="64"/>
+      <c r="K44" s="66" t="s">
+        <v>209</v>
+      </c>
+      <c r="L44" s="66"/>
     </row>
     <row r="46" spans="2:12" s="3" customFormat="1">
       <c r="B46" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="2:12" s="1" customFormat="1"/>
     <row r="48" spans="2:12" s="1" customFormat="1">
       <c r="B48" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
     <mergeCell ref="K38:L38"/>
     <mergeCell ref="K39:L39"/>
     <mergeCell ref="B16:D16"/>
@@ -3273,25 +3807,11 @@
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="K34:L34"/>
     <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:L44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3300,10 +3820,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB72675-8795-4DA3-A916-AE0915099200}">
-  <dimension ref="B1:H32"/>
+  <dimension ref="B1:H33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -3337,17 +3857,17 @@
       <c r="B4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="67"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="72"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="74" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -3360,7 +3880,7 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="2:8" s="1" customFormat="1">
-      <c r="B6" s="63"/>
+      <c r="B6" s="76"/>
       <c r="C6" s="8" t="s">
         <v>38</v>
       </c>
@@ -3371,7 +3891,7 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="74" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -3386,12 +3906,12 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="62"/>
-      <c r="C8" s="61" t="s">
+      <c r="B8" s="75"/>
+      <c r="C8" s="74" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -3399,125 +3919,127 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8" s="1" customFormat="1">
-      <c r="B9" s="62"/>
-      <c r="C9" s="63"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="63"/>
-      <c r="C10" s="4" t="s">
+    <row r="10" spans="2:8" s="1" customFormat="1">
+      <c r="B10" s="75"/>
+      <c r="C10" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="63"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="76"/>
+      <c r="C11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D11" s="10">
         <v>1</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="72" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="8"/>
+      <c r="B12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="63"/>
+      <c r="B13" s="74" t="s">
+        <v>4</v>
+      </c>
       <c r="C13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="76"/>
+      <c r="C14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H14" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
-      <c r="B15" t="s">
+    <row r="16" spans="2:8">
+      <c r="B16" t="s">
         <v>10</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
-      <c r="B16" s="7" t="s">
+    <row r="17" spans="2:8">
+      <c r="B17" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="5">
-        <v>1</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="20">
-        <v>1</v>
+      <c r="D17" s="21" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="D18" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19" s="20">
         <v>2</v>
@@ -3525,32 +4047,32 @@
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="39">
+      <c r="D21" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="39">
         <v>3</v>
@@ -3558,7 +4080,7 @@
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>71</v>
@@ -3569,73 +4091,84 @@
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="5">
+        <v>7</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="5">
         <v>8</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D25" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
-      <c r="D25" s="29"/>
-    </row>
-    <row r="26" spans="2:8" s="3" customFormat="1">
-      <c r="B26" s="3" t="s">
+    <row r="26" spans="2:8">
+      <c r="D26" s="29"/>
+    </row>
+    <row r="27" spans="2:8" s="3" customFormat="1">
+      <c r="B27" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
-      <c r="B28" t="s">
+    <row r="29" spans="2:8">
+      <c r="B29" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="34"/>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="34"/>
-      <c r="F31" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="G31" s="33"/>
-      <c r="H31" s="34"/>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="34"/>
+      <c r="F32" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="G32" s="33"/>
+      <c r="H32" s="34"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F13" r:id="rId1" xr:uid="{6F2AFA65-A69E-4DFD-A13E-CDE2AF84329A}"/>
-    <hyperlink ref="G13" r:id="rId2" xr:uid="{B5EC0E98-8E7E-4510-8978-6ED0FB2AB496}"/>
-    <hyperlink ref="E13" r:id="rId3" xr:uid="{4CAE3C62-36CE-4B81-86E5-9E2BF98B5ED3}"/>
-    <hyperlink ref="D13" r:id="rId4" xr:uid="{0AB1D16E-F40F-4F71-9D27-AE0B95980F30}"/>
-    <hyperlink ref="H13" r:id="rId5" xr:uid="{CD8AD6CD-A438-4DE2-846E-4BA216F88EAE}"/>
+    <hyperlink ref="F14" r:id="rId1" xr:uid="{6F2AFA65-A69E-4DFD-A13E-CDE2AF84329A}"/>
+    <hyperlink ref="G14" r:id="rId2" xr:uid="{B5EC0E98-8E7E-4510-8978-6ED0FB2AB496}"/>
+    <hyperlink ref="E14" r:id="rId3" xr:uid="{4CAE3C62-36CE-4B81-86E5-9E2BF98B5ED3}"/>
+    <hyperlink ref="D14" r:id="rId4" xr:uid="{0AB1D16E-F40F-4F71-9D27-AE0B95980F30}"/>
+    <hyperlink ref="H14" r:id="rId5" xr:uid="{CD8AD6CD-A438-4DE2-846E-4BA216F88EAE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId6"/>
@@ -3646,8 +4179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B521D6-2D85-4E20-A231-43C3768C3612}">
   <dimension ref="B1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -3676,17 +4209,17 @@
       <c r="B4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="67"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="72"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="74" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -3699,7 +4232,7 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="2:8" s="1" customFormat="1">
-      <c r="B6" s="62"/>
+      <c r="B6" s="75"/>
       <c r="C6" s="8" t="s">
         <v>22</v>
       </c>
@@ -3710,7 +4243,7 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="63"/>
+      <c r="B7" s="76"/>
       <c r="C7" s="8" t="s">
         <v>114</v>
       </c>
@@ -3721,7 +4254,7 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="74" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -3736,8 +4269,8 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="62"/>
-      <c r="C9" s="61" t="s">
+      <c r="B9" s="75"/>
+      <c r="C9" s="74" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -3749,8 +4282,8 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
       <c r="D10" s="8" t="s">
         <v>23</v>
       </c>
@@ -3760,10 +4293,10 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="2:8" s="1" customFormat="1">
-      <c r="B11" s="62"/>
-      <c r="C11" s="63"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="76"/>
       <c r="D11" s="51" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E11" s="51"/>
       <c r="F11" s="51"/>
@@ -3771,12 +4304,12 @@
       <c r="H11" s="52"/>
     </row>
     <row r="12" spans="2:8" s="1" customFormat="1">
-      <c r="B12" s="62"/>
+      <c r="B12" s="75"/>
       <c r="C12" s="30" t="s">
         <v>113</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
@@ -3784,7 +4317,7 @@
       <c r="H12" s="34"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="63"/>
+      <c r="B13" s="76"/>
       <c r="C13" s="4" t="s">
         <v>61</v>
       </c>
@@ -3798,10 +4331,10 @@
     </row>
     <row r="14" spans="2:8" s="1" customFormat="1">
       <c r="B14" s="58" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C14" s="54" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="55"/>
@@ -3813,12 +4346,12 @@
       <c r="B15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="69" t="s">
-        <v>218</v>
-      </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
+      <c r="C15" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
     </row>
@@ -3836,10 +4369,10 @@
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="74" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -3851,8 +4384,8 @@
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="2:8" s="1" customFormat="1">
-      <c r="B18" s="62"/>
-      <c r="C18" s="63"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="76"/>
       <c r="D18" s="8" t="s">
         <v>26</v>
       </c>
@@ -3862,7 +4395,7 @@
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="63"/>
+      <c r="B19" s="76"/>
       <c r="C19" s="4" t="s">
         <v>15</v>
       </c>
@@ -3903,7 +4436,7 @@
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>60</v>
@@ -4090,15 +4623,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5AC036-5AF3-43C9-8DCB-8CAD147E7305}">
-  <dimension ref="B1:H22"/>
+  <dimension ref="B1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="3.19921875" customWidth="1"/>
+    <col min="6" max="6" width="15.296875" customWidth="1"/>
+    <col min="7" max="7" width="8.796875" customWidth="1"/>
     <col min="18" max="18" width="9.296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4122,17 +4657,17 @@
       <c r="B4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="67"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="72"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="74" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -4145,7 +4680,7 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="63"/>
+      <c r="B6" s="76"/>
       <c r="C6" s="8" t="s">
         <v>88</v>
       </c>
@@ -4156,7 +4691,7 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="74" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -4171,8 +4706,8 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="62"/>
-      <c r="C8" s="61" t="s">
+      <c r="B8" s="75"/>
+      <c r="C8" s="74" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -4184,8 +4719,8 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="62"/>
-      <c r="C9" s="63"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="8" t="s">
         <v>23</v>
       </c>
@@ -4195,12 +4730,12 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8" s="1" customFormat="1">
-      <c r="B10" s="62"/>
+      <c r="B10" s="75"/>
       <c r="C10" s="30" t="s">
         <v>113</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>154</v>
+        <v>230</v>
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
@@ -4208,7 +4743,7 @@
       <c r="H10" s="34"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="63"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="4" t="s">
         <v>61</v>
       </c>
@@ -4225,7 +4760,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4233,68 +4768,112 @@
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="61" t="s">
+    <row r="13" spans="2:8" s="1" customFormat="1">
+      <c r="B13" s="74" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="66" t="s">
+        <v>224</v>
+      </c>
+      <c r="H13" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" s="1" customFormat="1">
+      <c r="B14" s="75"/>
+      <c r="C14" s="60" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="78">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" s="1" customFormat="1">
+      <c r="B15" s="76"/>
+      <c r="C15" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="78">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D16" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="63"/>
-      <c r="C14" s="4" t="s">
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="76"/>
+      <c r="C17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="16" spans="2:8" s="3" customFormat="1">
-      <c r="B16" s="3" t="s">
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="19" spans="2:8" s="3" customFormat="1">
+      <c r="B19" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="2:5" s="1" customFormat="1"/>
-    <row r="18" spans="2:5" s="1" customFormat="1">
-      <c r="B18" s="1" t="s">
+    <row r="20" spans="2:8" s="1" customFormat="1"/>
+    <row r="21" spans="2:8" s="1" customFormat="1">
+      <c r="B21" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="2:5" s="1" customFormat="1"/>
-    <row r="20" spans="2:5" s="1" customFormat="1">
-      <c r="B20" s="32" t="s">
+    <row r="22" spans="2:8" s="1" customFormat="1"/>
+    <row r="23" spans="2:8" s="1" customFormat="1">
+      <c r="B23" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
-    </row>
-    <row r="21" spans="2:5" s="1" customFormat="1">
-      <c r="B21" s="17" t="s">
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
+    </row>
+    <row r="24" spans="2:8" s="1" customFormat="1">
+      <c r="B24" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
-    </row>
-    <row r="22" spans="2:5" s="1" customFormat="1"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
+    </row>
+    <row r="25" spans="2:8" s="1" customFormat="1"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B11"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="G13:G15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/맵기믹 기획.xlsx
+++ b/Design/맵기믹 기획.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\PLUM\2022 8월 게임 프로젝트\PlumTowerDefecne\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2A496D-84B9-461F-A52F-9DB42077ABB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DF3116-F391-4FEC-AFC3-67B00BE74635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6ED0029A-6F1E-4A92-AB37-7B6700187FC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{6ED0029A-6F1E-4A92-AB37-7B6700187FC9}"/>
   </bookViews>
   <sheets>
     <sheet name="VerCon" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="239">
   <si>
     <t>맵 기믹 기획서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -975,6 +975,18 @@
   </si>
   <si>
     <t>장애물 채굴방식 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ver1.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장애물 ID 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장애물 검사 알고리즘 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1215,7 +1227,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1408,18 +1420,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1429,28 +1468,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1589,7 +1607,7 @@
           <a:p>
             <a:r>
               <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-              <a:t> 0                        1           </a:t>
+              <a:t> 1                        2           </a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -1605,11 +1623,8 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-              <a:t> 2                        7</a:t>
+              <a:t> 3                        8</a:t>
             </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
           </a:p>
           <a:p>
             <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
@@ -1626,7 +1641,7 @@
           <a:p>
             <a:r>
               <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-              <a:t>       3	4                      5	                     6</a:t>
+              <a:t>       4	5                      6	                     7</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
@@ -1642,13 +1657,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>16468</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>18506</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>79465</xdr:colOff>
+      <xdr:colOff>78236</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>52357</xdr:rowOff>
     </xdr:to>
@@ -1673,14 +1688,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3352800" y="6868886"/>
-          <a:ext cx="7783285" cy="6221291"/>
+          <a:off x="3910288" y="7089866"/>
+          <a:ext cx="7780828" cy="6221291"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1707,8 +1721,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>121860</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="5" name="잉크 4">
@@ -1727,7 +1741,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="5" name="잉크 4">
@@ -1772,8 +1786,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>192420</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="7" name="잉크 6">
@@ -1792,7 +1806,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="7" name="잉크 6">
@@ -1837,8 +1851,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>137400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="40" name="잉크 39">
@@ -1857,7 +1871,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="40" name="잉크 39">
@@ -1902,8 +1916,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>135300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="77" name="잉크 76">
@@ -1922,7 +1936,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="77" name="잉크 76">
@@ -2127,9 +2141,9 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32602.49">2602 1152 7114 0 0,'0'3'10415'0'0,"3"3"-6251"0"0,13 15-5474 0 0,-15-20 2082 0 0,14 10-4407 0 0,-3-8-6233 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32964.64">2644 1184 11122 0 0,'1'-8'7896'0'0,"11"-6"-5603"0"0,21-17-3907 0 0,-25 24 2241 0 0,20-15-1407 0 0,-22 19 392 0 0,-1 0 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,1-7 1664 0 0,-5 12-1189 0 0,-4 14 1144 0 0,5 10-1069 0 0,1 0 0 0 0,1 0 0 0 0,6 26 0 0 0,-2-25-4153 0 0,1-2-3813 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32965.64">2884 992 6649 0 0,'-6'5'9395'0'0,"4"7"-5415"0"0,2 15-2933 0 0,1-21-24 0 0,1 23-588 0 0,1 1-1 0 0,15 55 1 0 0,-16-75-464 0 0,2 10-766 0 0,7 23-2353 0 0,-6-30-1856 0 0,2-2-3571 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33418.26">2988 1059 11458 0 0,'12'-9'7488'0'0,"32"-16"-7025"0"0,-35 20 0 0 0,-2 1-318 0 0,34-17 239 0 0,-40 20-303 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,3 2 0 0 0,-4-1-5 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,0 3 1 0 0,-1 27 374 0 0,0-23-323 0 0,-3 27-597 0 0,-1-1 0 0 0,-11 41 0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33419.26">3158 1043 7866 0 0,'5'-2'8613'0'0,"3"-3"-3570"0"0,5-4-2582 0 0,10-7-3241 0 0,14-11-532 0 0,0 1-1861 0 0,-22 13-2246 0 0,-1 2-5158 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33806.23">3295 876 5225 0 0,'-6'6'9664'0'0,"2"9"-5528"0"0,1 16-2570 0 0,3-29-1230 0 0,-1 32 609 0 0,4 58-1 0 0,4-50-2834 0 0,3-3-3733 0 0,-4-25-2801 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33418.25">2988 1059 11458 0 0,'12'-9'7488'0'0,"32"-16"-7025"0"0,-35 20 0 0 0,-2 1-318 0 0,34-17 239 0 0,-40 20-303 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,3 2 0 0 0,-4-1-5 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,0 3 1 0 0,-1 27 374 0 0,0-23-323 0 0,-3 27-597 0 0,-1-1 0 0 0,-11 41 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33419.25">3158 1043 7866 0 0,'5'-2'8613'0'0,"3"-3"-3570"0"0,5-4-2582 0 0,10-7-3241 0 0,14-11-532 0 0,0 1-1861 0 0,-22 13-2246 0 0,-1 2-5158 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33806.22">3295 876 5225 0 0,'-6'6'9664'0'0,"2"9"-5528"0"0,1 16-2570 0 0,3-29-1230 0 0,-1 32 609 0 0,4 58-1 0 0,4-50-2834 0 0,3-3-3733 0 0,-4-25-2801 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34211.78">2601 1185 4713 0 0,'-10'8'14395'0'0,"18"11"-10912"0"0,20 13-3386 0 0,-23-28-111 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1 0 0 0,1-2-1 0 0,7 2 1 0 0,4-2-4189 0 0,-1-5-4030 0 0</inkml:trace>
 </inkml:ink>
 </file>
@@ -2431,10 +2445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9685DD35-646D-4F18-B38B-7C194FF0E322}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C31" sqref="A29:C31"/>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2443,18 +2457,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="35" t="s">
@@ -2699,6 +2713,24 @@
       <c r="B31" s="60"/>
       <c r="C31" s="61" t="s">
         <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="64" t="s">
+        <v>236</v>
+      </c>
+      <c r="B32" s="64">
+        <v>220903</v>
+      </c>
+      <c r="C32" s="65" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="64"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="65" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -3018,17 +3050,17 @@
       <c r="B4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="72"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="75"/>
     </row>
     <row r="5" spans="2:16">
       <c r="B5" s="14" t="s">
@@ -3047,7 +3079,7 @@
       <c r="K5" s="9"/>
     </row>
     <row r="6" spans="2:16">
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="69" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="32" t="s">
@@ -3065,7 +3097,7 @@
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="2:16">
-      <c r="B7" s="75"/>
+      <c r="B7" s="70"/>
       <c r="C7" s="14" t="s">
         <v>7</v>
       </c>
@@ -3113,7 +3145,7 @@
       <c r="K9" s="9"/>
     </row>
     <row r="10" spans="2:16">
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="69" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -3131,8 +3163,8 @@
       <c r="K10" s="9"/>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="75"/>
-      <c r="C11" s="74" t="s">
+      <c r="B11" s="70"/>
+      <c r="C11" s="69" t="s">
         <v>63</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -3147,8 +3179,8 @@
       <c r="K11" s="9"/>
     </row>
     <row r="12" spans="2:16" s="1" customFormat="1">
-      <c r="B12" s="75"/>
-      <c r="C12" s="76"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="8" t="s">
         <v>83</v>
       </c>
@@ -3161,7 +3193,7 @@
       <c r="K12" s="9"/>
     </row>
     <row r="13" spans="2:16">
-      <c r="B13" s="76"/>
+      <c r="B13" s="71"/>
       <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
@@ -3187,18 +3219,18 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
       <c r="E16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="67" t="s">
+      <c r="F16" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="G16" s="67"/>
+      <c r="G16" s="73"/>
       <c r="H16" s="7" t="s">
         <v>96</v>
       </c>
@@ -3208,26 +3240,26 @@
       <c r="J16" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="K16" s="67" t="s">
+      <c r="K16" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="L16" s="67"/>
+      <c r="L16" s="73"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
       <c r="E17" s="4">
         <v>10</v>
       </c>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="66"/>
+      <c r="G17" s="72"/>
       <c r="H17" s="4">
         <v>11</v>
       </c>
@@ -3235,10 +3267,10 @@
       <c r="J17" s="20">
         <v>10</v>
       </c>
-      <c r="K17" s="66" t="s">
+      <c r="K17" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="L17" s="66"/>
+      <c r="L17" s="72"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
@@ -3247,10 +3279,10 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="66" t="s">
+      <c r="F18" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="66"/>
+      <c r="G18" s="72"/>
       <c r="H18" s="4">
         <v>21</v>
       </c>
@@ -3258,10 +3290,10 @@
       <c r="J18" s="20">
         <v>10</v>
       </c>
-      <c r="K18" s="66" t="s">
+      <c r="K18" s="72" t="s">
         <v>167</v>
       </c>
-      <c r="L18" s="66"/>
+      <c r="L18" s="72"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
@@ -3281,10 +3313,10 @@
       <c r="J19" s="39">
         <v>10</v>
       </c>
-      <c r="K19" s="66" t="s">
+      <c r="K19" s="72" t="s">
         <v>165</v>
       </c>
-      <c r="L19" s="66"/>
+      <c r="L19" s="72"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
@@ -3304,10 +3336,10 @@
       <c r="J20" s="39">
         <v>10</v>
       </c>
-      <c r="K20" s="73" t="s">
+      <c r="K20" s="76" t="s">
         <v>166</v>
       </c>
-      <c r="L20" s="73"/>
+      <c r="L20" s="76"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
@@ -3327,10 +3359,10 @@
       <c r="J21" s="39">
         <v>10</v>
       </c>
-      <c r="K21" s="73" t="s">
+      <c r="K21" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="L21" s="73"/>
+      <c r="L21" s="76"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
@@ -3350,19 +3382,19 @@
       <c r="J22" s="39">
         <v>10</v>
       </c>
-      <c r="K22" s="73" t="s">
+      <c r="K22" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="L22" s="73"/>
+      <c r="L22" s="76"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
       <c r="E23" s="20">
         <v>20</v>
       </c>
@@ -3379,10 +3411,10 @@
       <c r="J23" s="20">
         <v>11</v>
       </c>
-      <c r="K23" s="66" t="s">
+      <c r="K23" s="72" t="s">
         <v>168</v>
       </c>
-      <c r="L23" s="66"/>
+      <c r="L23" s="72"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
@@ -3397,10 +3429,10 @@
       <c r="J24" s="20">
         <v>21</v>
       </c>
-      <c r="K24" s="66" t="s">
+      <c r="K24" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="L24" s="66"/>
+      <c r="L24" s="72"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
@@ -3415,10 +3447,10 @@
       <c r="J25" s="20">
         <v>31</v>
       </c>
-      <c r="K25" s="66" t="s">
+      <c r="K25" s="72" t="s">
         <v>170</v>
       </c>
-      <c r="L25" s="66"/>
+      <c r="L25" s="72"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
@@ -3433,10 +3465,10 @@
       <c r="J26" s="20">
         <v>41</v>
       </c>
-      <c r="K26" s="66" t="s">
+      <c r="K26" s="72" t="s">
         <v>171</v>
       </c>
-      <c r="L26" s="66"/>
+      <c r="L26" s="72"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
@@ -3456,10 +3488,10 @@
       <c r="J27" s="20">
         <v>11</v>
       </c>
-      <c r="K27" s="66" t="s">
+      <c r="K27" s="72" t="s">
         <v>172</v>
       </c>
-      <c r="L27" s="66"/>
+      <c r="L27" s="72"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
@@ -3474,10 +3506,10 @@
       <c r="J28" s="20">
         <v>21</v>
       </c>
-      <c r="K28" s="66" t="s">
+      <c r="K28" s="72" t="s">
         <v>173</v>
       </c>
-      <c r="L28" s="66"/>
+      <c r="L28" s="72"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
@@ -3492,10 +3524,10 @@
       <c r="J29" s="20">
         <v>31</v>
       </c>
-      <c r="K29" s="66" t="s">
+      <c r="K29" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="L29" s="66"/>
+      <c r="L29" s="72"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
@@ -3513,10 +3545,10 @@
       <c r="J30" s="20">
         <v>41</v>
       </c>
-      <c r="K30" s="66" t="s">
+      <c r="K30" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="L30" s="66"/>
+      <c r="L30" s="72"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
@@ -3538,10 +3570,10 @@
       <c r="J31" s="20">
         <v>11</v>
       </c>
-      <c r="K31" s="66" t="s">
+      <c r="K31" s="72" t="s">
         <v>176</v>
       </c>
-      <c r="L31" s="66"/>
+      <c r="L31" s="72"/>
     </row>
     <row r="32" spans="2:16">
       <c r="B32" s="15"/>
@@ -3554,10 +3586,10 @@
       <c r="J32" s="20">
         <v>21</v>
       </c>
-      <c r="K32" s="66" t="s">
+      <c r="K32" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="L32" s="66"/>
+      <c r="L32" s="72"/>
     </row>
     <row r="33" spans="2:12">
       <c r="B33" s="15"/>
@@ -3570,10 +3602,10 @@
       <c r="J33" s="20">
         <v>31</v>
       </c>
-      <c r="K33" s="66" t="s">
+      <c r="K33" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="L33" s="66"/>
+      <c r="L33" s="72"/>
     </row>
     <row r="34" spans="2:12" s="1" customFormat="1">
       <c r="B34" s="15"/>
@@ -3589,10 +3621,10 @@
       <c r="J34" s="20">
         <v>41</v>
       </c>
-      <c r="K34" s="66" t="s">
+      <c r="K34" s="72" t="s">
         <v>179</v>
       </c>
-      <c r="L34" s="66"/>
+      <c r="L34" s="72"/>
     </row>
     <row r="35" spans="2:12">
       <c r="B35" s="15"/>
@@ -3612,10 +3644,10 @@
       <c r="J35" s="20">
         <v>11</v>
       </c>
-      <c r="K35" s="66" t="s">
+      <c r="K35" s="72" t="s">
         <v>180</v>
       </c>
-      <c r="L35" s="66"/>
+      <c r="L35" s="72"/>
     </row>
     <row r="36" spans="2:12">
       <c r="B36" s="15"/>
@@ -3631,10 +3663,10 @@
       <c r="J36" s="20">
         <v>21</v>
       </c>
-      <c r="K36" s="66" t="s">
+      <c r="K36" s="72" t="s">
         <v>181</v>
       </c>
-      <c r="L36" s="66"/>
+      <c r="L36" s="72"/>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="15"/>
@@ -3650,10 +3682,10 @@
       <c r="J37" s="20">
         <v>31</v>
       </c>
-      <c r="K37" s="66" t="s">
+      <c r="K37" s="72" t="s">
         <v>182</v>
       </c>
-      <c r="L37" s="66"/>
+      <c r="L37" s="72"/>
     </row>
     <row r="38" spans="2:12">
       <c r="B38" s="15"/>
@@ -3669,17 +3701,17 @@
       <c r="J38" s="20">
         <v>41</v>
       </c>
-      <c r="K38" s="66" t="s">
+      <c r="K38" s="72" t="s">
         <v>183</v>
       </c>
-      <c r="L38" s="66"/>
+      <c r="L38" s="72"/>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="68" t="s">
+      <c r="B39" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="69"/>
-      <c r="D39" s="70"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="79"/>
       <c r="E39" s="19">
         <v>30</v>
       </c>
@@ -3694,10 +3726,10 @@
       <c r="J39" s="20">
         <v>11</v>
       </c>
-      <c r="K39" s="66" t="s">
+      <c r="K39" s="72" t="s">
         <v>205</v>
       </c>
-      <c r="L39" s="66"/>
+      <c r="L39" s="72"/>
     </row>
     <row r="40" spans="2:12">
       <c r="I40" s="41" t="s">
@@ -3706,10 +3738,10 @@
       <c r="J40" s="41">
         <v>21</v>
       </c>
-      <c r="K40" s="66" t="s">
+      <c r="K40" s="72" t="s">
         <v>188</v>
       </c>
-      <c r="L40" s="66"/>
+      <c r="L40" s="72"/>
     </row>
     <row r="41" spans="2:12">
       <c r="I41" s="41" t="s">
@@ -3718,10 +3750,10 @@
       <c r="J41" s="41">
         <v>31</v>
       </c>
-      <c r="K41" s="66" t="s">
+      <c r="K41" s="72" t="s">
         <v>206</v>
       </c>
-      <c r="L41" s="66"/>
+      <c r="L41" s="72"/>
     </row>
     <row r="42" spans="2:12">
       <c r="I42" s="41" t="s">
@@ -3730,10 +3762,10 @@
       <c r="J42" s="41">
         <v>41</v>
       </c>
-      <c r="K42" s="66" t="s">
+      <c r="K42" s="72" t="s">
         <v>207</v>
       </c>
-      <c r="L42" s="66"/>
+      <c r="L42" s="72"/>
     </row>
     <row r="43" spans="2:12">
       <c r="I43" s="41" t="s">
@@ -3742,10 +3774,10 @@
       <c r="J43" s="41">
         <v>51</v>
       </c>
-      <c r="K43" s="66" t="s">
+      <c r="K43" s="72" t="s">
         <v>208</v>
       </c>
-      <c r="L43" s="66"/>
+      <c r="L43" s="72"/>
     </row>
     <row r="44" spans="2:12">
       <c r="I44" s="41" t="s">
@@ -3754,10 +3786,10 @@
       <c r="J44" s="41">
         <v>61</v>
       </c>
-      <c r="K44" s="66" t="s">
+      <c r="K44" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="L44" s="66"/>
+      <c r="L44" s="72"/>
     </row>
     <row r="46" spans="2:12" s="3" customFormat="1">
       <c r="B46" s="3" t="s">
@@ -3772,25 +3804,11 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:L44"/>
     <mergeCell ref="K38:L38"/>
     <mergeCell ref="K39:L39"/>
     <mergeCell ref="B16:D16"/>
@@ -3807,11 +3825,25 @@
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="K34:L34"/>
     <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3823,7 +3855,7 @@
   <dimension ref="B1:H33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="T52" sqref="T52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -3857,17 +3889,17 @@
       <c r="B4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="75"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="69" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -3880,7 +3912,7 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="2:8" s="1" customFormat="1">
-      <c r="B6" s="76"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="8" t="s">
         <v>38</v>
       </c>
@@ -3891,7 +3923,7 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="69" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -3906,8 +3938,8 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="75"/>
-      <c r="C8" s="74" t="s">
+      <c r="B8" s="70"/>
+      <c r="C8" s="69" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -3919,8 +3951,8 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8" s="1" customFormat="1">
-      <c r="B9" s="75"/>
-      <c r="C9" s="76"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="71"/>
       <c r="D9" s="8" t="s">
         <v>194</v>
       </c>
@@ -3930,7 +3962,7 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8" s="1" customFormat="1">
-      <c r="B10" s="75"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="59" t="s">
         <v>113</v>
       </c>
@@ -3943,7 +3975,7 @@
       <c r="H10" s="63"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="76"/>
+      <c r="B11" s="71"/>
       <c r="C11" s="4" t="s">
         <v>61</v>
       </c>
@@ -3959,17 +3991,17 @@
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="77" t="s">
+      <c r="C12" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="69" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -3984,7 +4016,7 @@
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="76"/>
+      <c r="B14" s="71"/>
       <c r="C14" s="4" t="s">
         <v>15</v>
       </c>
@@ -4209,17 +4241,17 @@
       <c r="B4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="75"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="69" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -4232,7 +4264,7 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="2:8" s="1" customFormat="1">
-      <c r="B6" s="75"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="8" t="s">
         <v>22</v>
       </c>
@@ -4243,7 +4275,7 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="76"/>
+      <c r="B7" s="71"/>
       <c r="C7" s="8" t="s">
         <v>114</v>
       </c>
@@ -4254,7 +4286,7 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="69" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -4269,8 +4301,8 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="75"/>
-      <c r="C9" s="74" t="s">
+      <c r="B9" s="70"/>
+      <c r="C9" s="69" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -4282,8 +4314,8 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
       <c r="D10" s="8" t="s">
         <v>23</v>
       </c>
@@ -4293,8 +4325,8 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="2:8" s="1" customFormat="1">
-      <c r="B11" s="75"/>
-      <c r="C11" s="76"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="71"/>
       <c r="D11" s="51" t="s">
         <v>216</v>
       </c>
@@ -4304,7 +4336,7 @@
       <c r="H11" s="52"/>
     </row>
     <row r="12" spans="2:8" s="1" customFormat="1">
-      <c r="B12" s="75"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="30" t="s">
         <v>113</v>
       </c>
@@ -4317,7 +4349,7 @@
       <c r="H12" s="34"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="76"/>
+      <c r="B13" s="71"/>
       <c r="C13" s="4" t="s">
         <v>61</v>
       </c>
@@ -4346,12 +4378,12 @@
       <c r="B15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="77" t="s">
         <v>228</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
     </row>
@@ -4369,10 +4401,10 @@
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="69" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -4384,8 +4416,8 @@
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="2:8" s="1" customFormat="1">
-      <c r="B18" s="75"/>
-      <c r="C18" s="76"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="71"/>
       <c r="D18" s="8" t="s">
         <v>26</v>
       </c>
@@ -4395,7 +4427,7 @@
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="76"/>
+      <c r="B19" s="71"/>
       <c r="C19" s="4" t="s">
         <v>15</v>
       </c>
@@ -4625,8 +4657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5AC036-5AF3-43C9-8DCB-8CAD147E7305}">
   <dimension ref="B1:H25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -4657,17 +4689,17 @@
       <c r="B4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="75"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="69" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -4680,7 +4712,7 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="76"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="8" t="s">
         <v>88</v>
       </c>
@@ -4691,7 +4723,7 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="69" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -4706,8 +4738,8 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="75"/>
-      <c r="C8" s="74" t="s">
+      <c r="B8" s="70"/>
+      <c r="C8" s="69" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -4719,8 +4751,8 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="75"/>
-      <c r="C9" s="76"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="71"/>
       <c r="D9" s="8" t="s">
         <v>23</v>
       </c>
@@ -4730,7 +4762,7 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8" s="1" customFormat="1">
-      <c r="B10" s="75"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="30" t="s">
         <v>113</v>
       </c>
@@ -4743,7 +4775,7 @@
       <c r="H10" s="34"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="76"/>
+      <c r="B11" s="71"/>
       <c r="C11" s="4" t="s">
         <v>61</v>
       </c>
@@ -4769,7 +4801,7 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="2:8" s="1" customFormat="1">
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="69" t="s">
         <v>222</v>
       </c>
       <c r="C13" s="60" t="s">
@@ -4778,40 +4810,40 @@
       <c r="D13" s="62"/>
       <c r="E13" s="62"/>
       <c r="F13" s="62"/>
-      <c r="G13" s="66" t="s">
+      <c r="G13" s="72" t="s">
         <v>224</v>
       </c>
-      <c r="H13" s="78">
+      <c r="H13" s="66">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:8" s="1" customFormat="1">
-      <c r="B14" s="75"/>
+      <c r="B14" s="70"/>
       <c r="C14" s="60" t="s">
         <v>225</v>
       </c>
       <c r="D14" s="62"/>
       <c r="E14" s="62"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="78">
+      <c r="G14" s="72"/>
+      <c r="H14" s="66">
         <v>0.3</v>
       </c>
     </row>
     <row r="15" spans="2:8" s="1" customFormat="1">
-      <c r="B15" s="76"/>
+      <c r="B15" s="71"/>
       <c r="C15" s="60" t="s">
         <v>226</v>
       </c>
       <c r="D15" s="62"/>
       <c r="E15" s="62"/>
       <c r="F15" s="62"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="78">
+      <c r="G15" s="72"/>
+      <c r="H15" s="66">
         <v>0.1</v>
       </c>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="69" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -4826,7 +4858,7 @@
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="76"/>
+      <c r="B17" s="71"/>
       <c r="C17" s="4" t="s">
         <v>15</v>
       </c>

--- a/Design/맵기믹 기획.xlsx
+++ b/Design/맵기믹 기획.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\PLUM\2022 8월 게임 프로젝트\PlumTowerDefecne\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\PLUM\2022 8월 게임 프로젝트\Copy\PlumTowerDefecne\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DF3116-F391-4FEC-AFC3-67B00BE74635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C2D378-CC3A-47F3-A96C-A6E32DAF7CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{6ED0029A-6F1E-4A92-AB37-7B6700187FC9}"/>
+    <workbookView xWindow="5280" yWindow="828" windowWidth="17280" windowHeight="8880" xr2:uid="{6ED0029A-6F1E-4A92-AB37-7B6700187FC9}"/>
   </bookViews>
   <sheets>
     <sheet name="VerCon" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="254">
   <si>
     <t>맵 기믹 기획서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -987,6 +987,63 @@
   </si>
   <si>
     <t>장애물 검사 알고리즘 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곡괭이의 레벨에 따라 채굴 속도가 달라짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곡괭이별 채굴속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액(비율)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채굴속도(개/s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>색상코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FFFFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3968FF</t>
+  </si>
+  <si>
+    <t>FF1917</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>ver2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자원 탭에 곡괭이 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -994,8 +1051,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ ?/10"/>
+    <numFmt numFmtId="181" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="182" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -1227,7 +1286,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1429,6 +1488,21 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1469,6 +1543,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1971,6 +2054,336 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>868380</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>36300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3060</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>13380</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="9" name="잉크 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDE7158D-1591-DD67-4B57-4FD91BE37E6D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7398720" y="2467080"/>
+            <a:ext cx="1451160" cy="419040"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="9" name="잉크 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDE7158D-1591-DD67-4B57-4FD91BE37E6D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7389720" y="2458440"/>
+              <a:ext cx="1468800" cy="436680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>115260</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>67200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>623220</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>90360</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="17" name="잉크 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E40F2EF-5D58-DBF1-1181-0651A3D138C0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8291520" y="2277000"/>
+            <a:ext cx="507960" cy="465120"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="17" name="잉크 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E40F2EF-5D58-DBF1-1181-0651A3D138C0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8282880" y="2268360"/>
+              <a:ext cx="525600" cy="482760"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209940</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>183120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504420</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>207660</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="23" name="잉크 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B43647D-BF4F-BC47-6ACF-19A0750934F3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8386200" y="2392920"/>
+            <a:ext cx="294480" cy="245520"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="23" name="잉크 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B43647D-BF4F-BC47-6ACF-19A0750934F3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8377560" y="2383920"/>
+              <a:ext cx="312120" cy="263160"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>436620</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>128640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>521340</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>154620</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="52" name="잉크 51">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7988D41A-13C8-7C76-D181-CD44C67CDED3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7942320" y="1896480"/>
+            <a:ext cx="755280" cy="246960"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="52" name="잉크 51">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7988D41A-13C8-7C76-D181-CD44C67CDED3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7933680" y="1887480"/>
+              <a:ext cx="772920" cy="264600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>362820</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>24600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>148980</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="83" name="잉크 82">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87C22048-9E55-EA8E-FCE7-7CBF16932B81}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7868520" y="1792440"/>
+            <a:ext cx="3014640" cy="787320"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="83" name="잉크 82">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87C22048-9E55-EA8E-FCE7-7CBF16932B81}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7859520" y="1783796"/>
+              <a:ext cx="3032280" cy="804968"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -2143,8 +2556,235 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32965.64">2884 992 6649 0 0,'-6'5'9395'0'0,"4"7"-5415"0"0,2 15-2933 0 0,1-21-24 0 0,1 23-588 0 0,1 1-1 0 0,15 55 1 0 0,-16-75-464 0 0,2 10-766 0 0,7 23-2353 0 0,-6-30-1856 0 0,2-2-3571 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33418.25">2988 1059 11458 0 0,'12'-9'7488'0'0,"32"-16"-7025"0"0,-35 20 0 0 0,-2 1-318 0 0,34-17 239 0 0,-40 20-303 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,3 2 0 0 0,-4-1-5 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,0 3 1 0 0,-1 27 374 0 0,0-23-323 0 0,-3 27-597 0 0,-1-1 0 0 0,-11 41 0 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33419.25">3158 1043 7866 0 0,'5'-2'8613'0'0,"3"-3"-3570"0"0,5-4-2582 0 0,10-7-3241 0 0,14-11-532 0 0,0 1-1861 0 0,-22 13-2246 0 0,-1 2-5158 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33806.22">3295 876 5225 0 0,'-6'6'9664'0'0,"2"9"-5528"0"0,1 16-2570 0 0,3-29-1230 0 0,-1 32 609 0 0,4 58-1 0 0,4-50-2834 0 0,3-3-3733 0 0,-4-25-2801 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33806.21">3295 876 5225 0 0,'-6'6'9664'0'0,"2"9"-5528"0"0,1 16-2570 0 0,3-29-1230 0 0,-1 32 609 0 0,4 58-1 0 0,4-50-2834 0 0,3-3-3733 0 0,-4-25-2801 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34211.78">2601 1185 4713 0 0,'-10'8'14395'0'0,"18"11"-10912"0"0,20 13-3386 0 0,-23-28-111 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1 0 0 0,1-2-1 0 0,7 2 1 0 0,4-2-4189 0 0,-1-5-4030 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-09-04T12:52:27.333"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">499 730 8 0 0,'-16'2'0'0'0,"-4"0"0"0"0,-4 0 0 0 0,3 2 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="419.05">4 854 10466 0 0,'-4'-1'5071'0'0,"5"3"-3632"0"0,10 4-681 0 0,8-5-91 0 0,1-1 0 0 0,-1-2-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 1 0 0,32-11 0 0 0,1 0-4 0 0,848-230 1385 0 0,-802 211-1993 0 0,-2-4 0 0 0,-2-4 0 0 0,-1-4 0 0 0,-3-4 0 0 0,109-79-1 0 0,-193 124-61 0 0,33-28 38 0 0,-38 31-36 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-3 0 0 0,0 4-102 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,-16 2-4303 0 0,4 1-4467 0 0,5-1 739 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1188.53">1256 208 16323 0 0,'-7'2'3155'0'0,"7"2"-1412"0"0,1-4-1630 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 0 0 0,19-3 312 0 0,-1-2-1 0 0,0 1 0 0 0,0-2 1 0 0,-1-1-1 0 0,33-15 0 0 0,-1 0-149 0 0,225-72 232 0 0,-211 77-501 0 0,0 3-1 0 0,92-9 0 0 0,-150 23-21 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,12 4-1 0 0,-18-4 16 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-2 3 0 0 0,-56 184 829 0 0,-31 116-351 0 0,75-251-1160 0 0,6-24 173 0 0,-7 41 0 0 0,13-37-4110 0 0,5-2-4039 0 0,-1-20-602 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4977.96">2844 186 2505 0 0,'-14'9'5388'0'0,"-4"19"-2389"0"0,12-18-2023 0 0,5-8-852 0 0,-236 338 8342 0 0,136-202-7311 0 0,-156 191-718 0 0,264-347-10017 0 0,2 1 2783 0 0,-2 0 1132 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5411.18">2718 308 7522 0 0,'-1'-4'7320'0'0,"1"4"-7213"0"0,14-4 2150 0 0,16 0-1296 0 0,529-61 2130 0 0,41-61-3765 0 0,-575 119 698 0 0,-12 3 117 0 0,0 0 0 0 0,1 1 0 0 0,0 0 0 0 0,17 0 0 0 0,-59 37 3479 0 0,-2 14-3377 0 0,-33 66 1 0 0,6-8-5 0 0,-239 335 124 0 0,184-282-294 0 0,13-24-1163 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5783.77">2219 1164 3673 0 0,'-9'0'1755'0'0,"-3"-1"4706"0"0,27-6-1942 0 0,15-2-3204 0 0,1 0 1 0 0,0 2-1 0 0,0 2 1 0 0,34-3-1 0 0,130 3 22 0 0,-112 4-874 0 0,455-27-96 0 0,-438 19-327 0 0,-47 5-689 0 0,96-19 0 0 0,-148 23 855 0 0,9-3-3480 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-09-04T12:52:38.412"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">291 1291 1840 0 0,'-1'0'620'0'0,"-1"-1"-1"0"0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-3-3 1 0 0,-11-19 2477 0 0,-3-36-2494 0 0,11 33 222 0 0,-64-278 775 0 0,27 97-1252 0 0,-56-111 629 0 0,97 309-866 0 0,0 4-33 0 0,2 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1-7-1 0 0,2 12-68 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,2 0 0 0 0,90-14 1084 0 0,164-48 1 0 0,-190 44-1070 0 0,326-105 40 0 0,-351 109-64 0 0,-17 6 3 0 0,75-21 26 0 0,-99 29-30 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,1 1 1 0 0,12 31 118 0 0,-7-18-123 0 0,101 224 228 0 0,40 19 185 0 0,-35-91-173 0 0,-111-164-194 0 0,0-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-2 3-1 0 0,-9 6 163 0 0,-1 1 0 0 0,1-1 0 0 0,-24 12-1 0 0,25-16-177 0 0,-314 155 129 0 0,-124 25-30 0 0,420-173-40 0 0,7-4 23 0 0,1 0 0 0 0,-1-1 0 0 0,-1-2 0 0 0,-37 7 0 0 0,61-13-117 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,16-10-1098 0 0,8-2-2490 0 0,-3 2-4382 0 0,-5 2-2890 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-09-04T12:52:50.152"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">16 432 7418 0 0,'-2'-4'525'0'0,"0"0"1"0"0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,1-5 0 0 0,1 2-251 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,2 1 1 0 0,-1 0-1 0 0,9-13 0 0 0,-4 8-278 0 0,1 1 0 0 0,0 0-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0 0 0 0,1 1-1 0 0,0 1 1 0 0,1 0 0 0 0,15-9-1 0 0,-26 17-6 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 2 1 0 0,-2-1 19 0 0,1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 3 1 0 0,-2 10 107 0 0,-1 1 0 0 0,-7 23 1 0 0,9-36-132 0 0,-16 65 118 0 0,9-34-384 0 0,-23 59-1 0 0,30-86-2274 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="395.02">170 348 8538 0 0,'7'9'12255'0'0,"9"1"-9775"0"0,16 5-4059 0 0,-4-8-3285 0 0,-9-7-7440 0 0,-13-1 7786 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="396.02">318 0 8058 0 0,'0'11'7588'0'0,"6"18"-5804"0"0,-5-27-1145 0 0,18 111 3239 0 0,-1 60-2199 0 0,-1-8-1339 0 0,-12-127-417 0 0,-4-18-358 0 0,1 0 1 0 0,2-1-1 0 0,0 1 0 0 0,0-1 0 0 0,10 21 1 0 0,-6-28-3445 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="765.04">418 372 1880 0 0,'-1'-1'627'0'0,"0"0"-1"0"0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1-2 0 0 0,18-8 3974 0 0,-8 6-5512 0 0,34-21-2802 0 0,-1-6-8943 0 0,-33 23 10941 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1144.27">590 87 5609 0 0,'-2'0'594'0'0,"0"0"1"0"0,1 0-1 0 0,-1-1 0 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-2 2 0 0 0,1 0-151 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-3 6 0 0 0,4-7-388 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,4 3 0 0 0,-4-5-62 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-2 0 0 0,5-3-418 0 0,-1 0 0 0 0,0-1 0 0 0,10-12 0 0 0,-11 12-69 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,3-10 0 0 0,-6 17 423 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-1-1 0 0 0,0 1-85 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-4 4-1 0 0,-32 45-773 0 0,29-38 800 0 0,-12 15 190 0 0,10-14 182 0 0,0 0 0 0 0,1 0 1 0 0,0 1-1 0 0,1 1 0 0 0,1 0 1 0 0,1 0-1 0 0,-8 24 0 0 0,15-41-145 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,3 0 294 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,5-5 0 0 0,-8 6-384 0 0,14-14 407 0 0,1 0 0 0 0,25-21-1 0 0,-36 33-461 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,2 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,6 1 0 0 0,-9 0 41 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 2 0 0 0,1 0 16 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,-2 4 1 0 0,-2 5 47 0 0,-1 1 0 0 0,0-1 0 0 0,-11 15 0 0 0,17-27-58 0 0,-9 14 5 0 0,-14 20-771 0 0,45-85-1385 0 0,26-33 3048 0 0,44-68-892 0 0,-92 150-22 0 0,2-2 19 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,2-7 220 0 0,-8 44-148 0 0,11 203-54 0 0,-3-183-4241 0 0,0 0-4371 0 0,-3-38 2522 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1655.69">561 417 15779 0 0,'-2'1'225'0'0,"1"-1"0"0"0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 2 0 0 0,1-2-156 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,3 0-1 0 0,8 0-223 0 0,0 1 0 0 0,1-2 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1-1 0 0 0,0 0 0 0 0,23-8-1 0 0,10-6-4496 0 0,-4-5-5059 0 0,-28 13 2593 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-09-04T12:53:17.142"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 136 8 0 0,'0'-1'112'0'0,"0"0"-1"0"0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,3 14 5315 0 0,-4 28 2628 0 0,-2 3-6535 0 0,6 63 0 0 0,-1-62-1008 0 0,-3 58 0 0 0,-2 83 919 0 0,3-101-2391 0 0,-3-75-253 0 0,1-6-2332 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1209.49">33 158 8 0 0,'12'-6'15755'0'0,"-5"9"-12903"0"0,-2 0-2709 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,9-2 1 0 0,8-1 329 0 0,41-13 1 0 0,-6 2-91 0 0,-35 12-299 0 0,0 1-1 0 0,0 0 1 0 0,0 2 0 0 0,27 4 0 0 0,-30-2-37 0 0,0-2 1 0 0,0 1-1 0 0,1-2 0 0 0,-1-1 1 0 0,0 0-1 0 0,22-5 1 0 0,-4-1 39 0 0,0 1 1 0 0,70-1-1 0 0,28-3 63 0 0,-91 0-117 0 0,-33 7-20 0 0,0 0-1 0 0,0 1 1 0 0,23-2 0 0 0,-11 3-891 0 0,-23 1 870 0 0,-1 1 67 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 3-1 0 0,0 130 657 0 0,3 166 393 0 0,0-279-1038 0 0,0 0 0 0 0,1-1 0 0 0,10 34 0 0 0,-13-53-155 0 0,0 5-1685 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1939.62">58 740 8 0 0,'8'11'10193'0'0,"5"-6"-2077"0"0,-5-4-5927 0 0,16 2-1455 0 0,0-1 0 0 0,1-1 1 0 0,43-4-1 0 0,74-17-47 0 0,-129 17-645 0 0,104-13 277 0 0,221-3 1 0 0,-326 20-300 0 0,0-2 0 0 0,0 1 1 0 0,0-2-1 0 0,0 1 0 0 0,0-2 0 0 0,0 0 1 0 0,-1 0-1 0 0,13-5 0 0 0,-15 3-153 0 0,0 2-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,15-1 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2469.6">315 311 760 0 0,'-15'3'8612'0'0,"3"5"-4594"0"0,11-7-3923 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,1 2-1 0 0,-1-3-54 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,3-1 0 0 0,2-3 68 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,4-8 0 0 0,-9 12-85 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 2 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,-27 1-1250 0 0,6 6-3422 0 0,12 1-2026 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2873.12">100 529 10466 0 0,'6'0'7797'0'0,"5"1"-5289"0"0,9 0-720 0 0,89-12 1860 0 0,-1-4-3465 0 0,-21 3-1104 0 0,-38 8-2236 0 0,-32 3-2460 0 0,-1 1-6768 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2874.12">407 505 8 0 0,'-2'2'1099'0'0,"0"0"1"0"0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-2 5 1 0 0,-6 35 5235 0 0,8-21-5408 0 0,2 0 0 0 0,2 23-1 0 0,-2-32-621 0 0,5 8-1873 0 0,1-17-3404 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3321.19">538 308 11274 0 0,'-12'2'6754'0'0,"18"1"-3143"0"0,20 1-2637 0 0,-12-6-1082 0 0,-1 1 0 0 0,1-2 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,21-15 0 0 0,-49 32 263 0 0,-50 42 617 0 0,60-48-640 0 0,-1 0 0 0 0,1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-5 12 0 0 0,8-19-126 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,13-2 75 0 0,13-8-51 0 0,33-26 92 0 0,-14 8-4495 0 0,-15 12-8143 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3737.87">488 618 14451 0 0,'7'0'4651'0'0,"10"0"-2767"0"0,66-18 1525 0 0,-1 0-3117 0 0,-20 14-2289 0 0,-42 5-2622 0 0,2 1-5166 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4156.33">1294 170 8 0 0,'-12'7'13442'0'0,"11"-6"-12802"0"0,-7 20 4239 0 0,5 29-5282 0 0,3-37 1964 0 0,-3 115 569 0 0,-1 40-1178 0 0,2-95-1119 0 0,2-47-3177 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4629.97">1304 165 4945 0 0,'-15'-5'9871'0'0,"24"6"-4544"0"0,25 3-3711 0 0,188-34-2 0 0,-23 1-1481 0 0,75 2 2 0 0,-268 26-94 0 0,-1 1 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 2 1 0 0,0-1 0 0 0,1 0 0 0 0,9 4 0 0 0,-14-4-12 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 2 1 0 0,-6 41 373 0 0,3 1 0 0 0,1 56 1 0 0,12 91 281 0 0,-6-148-573 0 0,-1-20-118 0 0,0 17-3135 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5033.8">1387 689 14491 0 0,'-5'0'871'0'0,"-8"0"2533"0"0,17 0-767 0 0,51-1 181 0 0,575-84-897 0 0,-613 83-2324 0 0,-9 0-3223 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5519.44">1483 262 4089 0 0,'1'7'13716'0'0,"5"24"-11635"0"0,-8-15-2148 0 0,-1 37 561 0 0,4-50-1346 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,2 2-1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5883.97">1598 168 6825 0 0,'3'4'8859'0'0,"10"17"-6200"0"0,-6-1-2298 0 0,0 0 0 0 0,-1 0 0 0 0,5 36 1 0 0,-9-47-292 0 0,-1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-6 12 0 0 0,7-18-35 0 0,0-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-2-1 0 0,0 2-21 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-3-5-1 0 0,6 6-13 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,3-1 0 0 0,27-14-76 0 0,-23 12-42 0 0,32-15-1555 0 0,-26 13-2578 0 0,1 0-5455 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5884.97">1396 598 10610 0 0,'8'-4'10118'0'0,"12"-11"-8048"0"0,-5 4-1282 0 0,40-26-2 0 0,-21 13-28 0 0,48-24 0 0 0,-41 31-4067 0 0,3 4-3639 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6273.48">1506 601 15219 0 0,'7'-10'3875'0'0,"16"-6"-3019"0"0,-22 15-607 0 0,10-6-12 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,16-4 0 0 0,-22 8-230 0 0,0 0-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,7 2 0 0 0,-12-1 11 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,-9 28 805 0 0,-2-9-25 0 0,-7 18 372 0 0,18-37-1112 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,2 2 0 0 0,-2-4-53 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,14-7 16 0 0,9-14-255 0 0,47-59-2931 0 0,-48 52-1530 0 0,-1-1-4877 0 0,-13 16 1443 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6618.24">1745 240 8578 0 0,'4'-4'6846'0'0,"14"-13"-4462"0"0,28 0-1477 0 0,-44 17-876 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,2 2 1 0 0,-3-1 8 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 3-1 0 0,-23 39 534 0 0,18-34-359 0 0,-4 8 119 0 0,5-10-62 0 0,0 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-4 15 1 0 0,8-22-260 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,9-5 244 0 0,12-12-216 0 0,-21 16-18 0 0,56-48-1833 0 0,-38 32-2212 0 0,-1-1-4816 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6619.24">1698 492 14955 0 0,'-1'1'6948'0'0,"11"-3"-4524"0"0,16-7-1523 0 0,6-6-1577 0 0,114-47 1824 0 0,-97 42-6920 0 0,0 1-7164 0 0,-39 15 5952 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7014.4">1945 373 5473 0 0,'-2'2'1013'0'0,"0"-1"-1"0"0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 4 1 0 0,-13 29 4048 0 0,12-19-4045 0 0,1 0 0 0 0,-2 25 0 0 0,4-25-706 0 0,0 1 0 0 0,3 24 0 0 0,7-4-1519 0 0,-8-34 670 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,3 2 1 0 0,7 0-10123 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-09-04T12:52:56.063"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">21 157 136 0 0,'0'0'231'0'0,"-1"-1"-1"0"0,1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-7 13 3056 0 0,5 23-1027 0 0,2-34-1816 0 0,8 332 3291 0 0,0 0-3353 0 0,-8-312-653 0 0,0 35-530 0 0,8-24-2996 0 0,-5-28 429 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="778.19">57 192 8 0 0,'0'0'81'0'0,"0"0"-1"0"0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,39 7 7861 0 0,-24-4-6151 0 0,154-2 2385 0 0,84-24-2745 0 0,27-2-1392 0 0,-38 19 38 0 0,229-13 162 0 0,-269 4-145 0 0,324-16 70 0 0,32 12-243 0 0,-554 20 80 0 0,808-21-155 0 0,-546 31 164 0 0,0-1-84 0 0,-238-10-1042 0 0,41-6-1 0 0,-37 1-4443 0 0,-1 0-7175 0 0,-28 6 12611 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1312.7">4347 1 8 0 0,'5'0'2537'0'0,"-6"8"3074"0"0,-3 10 2843 0 0,-4 10-6750 0 0,-9 49 0 0 0,1 86-898 0 0,12-104-507 0 0,-11 270 813 0 0,8-112-1045 0 0,8-202-606 0 0,1 12-894 0 0,-5-16-6930 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2224.41">30 1111 8 0 0,'2'2'13902'0'0,"22"1"-10295"0"0,37 3-2399 0 0,147-5 1056 0 0,231-30-1 0 0,-150 6-1942 0 0,562-15 559 0 0,-611 33-454 0 0,569 4 72 0 0,-314-4-37 0 0,-181 3-241 0 0,104-8 104 0 0,-345 4-284 0 0,-33 3 29 0 0,79-15 0 0 0,-104 15-146 0 0,0 1 0 0 0,0 0 0 0 0,22 0 0 0 0,-67-1-9773 0 0,16 3 1970 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33769.19">2464 356 8 0 0,'-8'4'2094'0'0,"0"11"5905"0"0,4 5 83 0 0,3-8-5842 0 0,-8 139 1355 0 0,-11 93-2129 0 0,19-227-1401 0 0,6-12-26 0 0,17-20-37 0 0,-19 13-15 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,6-1-1 0 0,11 0-26 0 0,0 1 0 0 0,38 2 0 0 0,21-3 106 0 0,55-7-51 0 0,236 10 0 0 0,-255-6 9 0 0,-125-37 256 0 0,9 37-287 0 0,-5-35-222 0 0,1-79 0 0 0,16-19-326 0 0,0-1-208 0 0,-11 136 777 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-2-4 1 0 0,1 5-11 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-4 0 0 0 0,-32 1-3 0 0,0 3 0 0 0,-71 14 1 0 0,-78 31 225 0 0,113-28 30 0 0,19-4-116 0 0,-68 29-1 0 0,125-46-185 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34240.63">2597 482 6505 0 0,'-8'-6'10270'0'0,"17"5"-6835"0"0,5-1-3601 0 0,-9 0 202 0 0,1 2 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,9 3 0 0 0,-14-3-16 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 2 0 0 0,-36 45 1269 0 0,31-42-1063 0 0,0-1 0 0 0,1 2 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-3 10 0 0 0,5-18-214 0 0,1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 0 0 0,19-4-51 0 0,30-26-2396 0 0,-41 24 980 0 0,14-12-4130 0 0,-8 5-4119 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34599.72">2689 547 8482 0 0,'17'-3'8414'0'0,"6"-4"-4715"0"0,33-16-6296 0 0,-3 2-6462 0 0,-43 18 4770 0 0,-1-1-353 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34600.72">2831 406 440 0 0,'-1'1'841'0'0,"-1"0"1"0"0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,-1 1 0 0 0,-5 26 3802 0 0,4 33-3365 0 0,3-52-538 0 0,-2 39-437 0 0,-1-12 217 0 0,3-13-2909 0 0,2-4-2563 0 0,1-1-3633 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34981.9">2937 405 6105 0 0,'-19'38'9565'0'0,"7"9"-5851"0"0,2 44-1764 0 0,9-80-2502 0 0,0 30 1149 0 0,5-21-4296 0 0,5-6-6599 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="35436.99">2959 455 15707 0 0,'13'-6'7568'0'0,"54"-13"-7918"0"0,-50 14-40 0 0,-4 3 21 0 0,-30 14 709 0 0,-48 38 359 0 0,60-46-615 0 0,0 1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-4 8 0 0 0,7-13-80 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,2 1 0 0 0,-1-2-11 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,2-1 0 0 0,8 0-845 0 0,0-2 0 0 0,-1 1 0 0 0,14-6-1 0 0,-23 7 384 0 0,22-9-8484 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="35437.99">2891 714 14979 0 0,'-7'12'6739'0'0,"13"-7"-3185"0"0,24-4-2404 0 0,70-13-1473 0 0,-65 6-2849 0 0,-1 2-4533 0 0,-23 3 709 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36138.02">3411 293 11418 0 0,'-7'3'10040'0'0,"7"-3"-9817"0"0,-7 18 2068 0 0,-2 20-2185 0 0,-12 105 1221 0 0,-5 30-641 0 0,23-158-665 0 0,-9 70 225 0 0,11-79-232 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,2 0-1 0 0,2 7 1 0 0,-4-11-18 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-2 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,3-1 0 0 0,39-16-149 0 0,-30 12 127 0 0,13-4 1 0 0,1 2 0 0 0,0 0 0 0 0,0 2 1 0 0,0 1-1 0 0,31-1 0 0 0,141 8 65 0 0,-34 1-61 0 0,-125-4 16 0 0,49-3 25 0 0,-79 2-17 0 0,0 0-1 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-2 1 0 0,11-4-1 0 0,-20 7 2 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1-2 0 0 0,-14-48 1 0 0,7 26-97 0 0,3-6-293 0 0,2-1 1 0 0,2 0-1 0 0,1 1 1 0 0,1-1-1 0 0,8-46 1 0 0,2-25 58 0 0,-11 101 374 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-4-4 1 0 0,1 3-12 0 0,1-1 0 0 0,-1 1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,-7-2 0 0 0,-9 0-35 0 0,1 0 0 0 0,-1 1-1 0 0,-40 0 1 0 0,51 3-9 0 0,-59 0-374 0 0,-134 18 0 0 0,-65 32 259 0 0,245-43 569 0 0,13 0-3543 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36568.73">3508 431 5617 0 0,'-16'26'8478'0'0,"1"3"-4460"0"0,0 8-3402 0 0,-4 17-4002 0 0,18-53 2766 0 0,0 5-2124 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36919.15">3608 370 16404 0 0,'1'11'7625'0'0,"-2"22"-7174"0"0,1-16-42 0 0,0-3-341 0 0,-1 1-1 0 0,0-1 1 0 0,-2 0-1 0 0,1 1 1 0 0,-10 25-1 0 0,11-35-48 0 0,0-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-8 1 0 0 0,11-3-16 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-3 1 0 0,-1 2-16 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,3-2 0 0 0,7 0-835 0 0,24-5-1845 0 0,-24 7-2582 0 0,2 1-4421 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36920.15">3374 758 17868 0 0,'40'-7'8210'0'0,"26"-17"-7308"0"0,-5 2-903 0 0,-44 17-435 0 0,45-12-1140 0 0,-21 8-7938 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="37309.35">3517 764 15363 0 0,'6'-3'5239'0'0,"18"-6"-3191"0"0,-9 4-1112 0 0,43-10 373 0 0,-54 15-1289 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,6 3 0 0 0,-9-4-20 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-7 25 30 0 0,-20 22-12 0 0,26-48-22 0 0,-14 31 33 0 0,15-31-29 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 1 0 0,0 1-4 0 0,0-1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,2-1 0 0 0,9-6-961 0 0,-1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,-1 0 1 0 0,0-1 0 0 0,11-13-1 0 0,7-7-7502 0 0,-11 15 402 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="37965.13">3770 430 12619 0 0,'-1'-1'889'0'0,"1"1"-808"0"0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,1-2 1618 0 0,0 2-1617 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,15-5 1723 0 0,18-2-1174 0 0,24 5-532 0 0,-53 2-153 0 0,-1 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,2 2-1 0 0,-4-3 49 0 0,0 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-2 1 1 0 0,-33 32 226 0 0,35-33-227 0 0,0 0 13 0 0,-22 18 212 0 0,0-1-1 0 0,-1-1 1 0 0,-1 0 0 0 0,-39 18 0 0 0,81-44-531 0 0,0-1 1 0 0,28-20 0 0 0,-21 13-80 0 0,33-18 0 0 0,-105 91 3211 0 0,33-41-2397 0 0,8-9-204 0 0,0 0 0 0 0,0 1-1 0 0,0 0 1 0 0,1 1 0 0 0,0-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-5 11 1 0 0,10-19-213 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,12-3 46 0 0,13-10-165 0 0,-26 11 108 0 0,22-11-622 0 0,-1-2-1 0 0,0 0 1 0 0,-1-1 0 0 0,-1-1-1 0 0,0-1 1 0 0,-1-1 0 0 0,17-22-1 0 0,-22 23 773 0 0,-1-1-1 0 0,16-30 919 0 0,-47 81 1929 0 0,14-24-2758 0 0,-2 1-123 0 0,0 1 0 0 0,1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,0 1 0 0 0,-4 16 0 0 0,9-27-109 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,16-5 26 0 0,12-15 11 0 0,-20 11-31 0 0,0 0-1 0 0,0-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-2-1-1 0 0,1 0 0 0 0,6-18 1 0 0,-8 19-3 0 0,0 21 40 0 0,1 24 1666 0 0,-3 1-3507 0 0,-3-11-3571 0 0,-4-5-4978 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="38362.16">3858 734 17516 0 0,'-3'-4'6992'0'0,"3"4"-6889"0"0,12-11 1722 0 0,16-7-1631 0 0,-11 10-116 0 0,1 1-1 0 0,0 1 1 0 0,20-5 0 0 0,-33 9-79 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,7 4 1 0 0,-10-3 30 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,-1 7-1 0 0,-13 36-2772 0 0,5-27-2090 0 0,0-4-3331 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="39299.74">3896 1033 8554 0 0,'-5'6'1682'0'0,"1"0"1"0"0,0 0 0 0 0,0 1-1 0 0,-4 10 1 0 0,-9 32 1871 0 0,1 55-2310 0 0,11-69-11 0 0,0 9-878 0 0,1-1-1 0 0,2 1 1 0 0,2-1-1 0 0,9 69 1 0 0,-6-93-362 0 0,1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,1 1 0 0 0,1-1 0 0 0,0-1 0 0 0,1 1 0 0 0,1-2 0 0 0,1 1 0 0 0,0-1 0 0 0,2 0 0 0 0,24 27 0 0 0,-30-38 13 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,12-1-1 0 0,1 0-203 0 0,1-1 0 0 0,23-4 0 0 0,13-6-3254 0 0,7 0-6123 0 0,-51 9 2619 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="39882.19">3908 1044 8354 0 0,'0'0'257'0'0,"-3"-4"2568"0"0,3 4-2568 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,-12 15 3234 0 0,-9 35-3722 0 0,17-38 1282 0 0,-7 18-1341 0 0,-61 135 1661 0 0,28-87-3793 0 0,-9-6-6034 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="39883.19">3902 1132 15123 0 0,'0'4'6500'0'0,"3"17"-4655"0"0,-2-13-1693 0 0,0 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,0 0 0 0 0,9 11-1 0 0,-7-12-672 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,11 5 0 0 0,17 7-7585 0 0,-16-9-183 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="40278.07">4391 1614 5553 0 0,'-3'10'14137'0'0,"-2"-2"-10892"0"0,-4 7-2732 0 0,-7 14-368 0 0,-36 84 931 0 0,20-45-2226 0 0,-32 95 0 0 0,63-160 421 0 0,-4 21-1549 0 0,4-17-1885 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="40279.07">4319 1744 15283 0 0,'-4'2'9456'0'0,"4"-2"-9310"0"0,2 16 1802 0 0,9 18-2398 0 0,-6-27 217 0 0,-1 0 0 0 0,2 1 0 0 0,-1-2-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,9 7 0 0 0,8 2-3750 0 0,2-3-3757 0 0,-10-7-662 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="40280.07">4395 1804 17604 0 0,'-16'-2'4011'0'0,"19"-3"-1828"0"0,30-7-1186 0 0,-21 8-1116 0 0,82-38-2724 0 0,-36 8-7976 0 0,-43 23 3918 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="40665.99">4669 1487 9890 0 0,'-2'0'171'0'0,"1"0"-1"0"0,-1 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-2 3-1 0 0,1-1 386 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 6-1 0 0,-1 7 1193 0 0,1 1-1 0 0,1-1 1 0 0,2 20 0 0 0,-2-32-1696 0 0,11 87-5612 0 0,-5-50-1075 0 0,1 50 1 0 0,-7-74-58 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="40666.99">4368 1995 19332 0 0,'-3'3'422'0'0,"0"1"-1"0"0,1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,0 9 0 0 0,0-8-253 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,7 6 0 0 0,-4-5-165 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,7 0-1 0 0,-5-2-185 0 0,-1 0-1 0 0,1-1 0 0 0,0 0 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,10-9 0 0 0,30-28-4254 0 0,-8-3-6715 0 0,-27 27 2777 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="41016.78">4717 1671 14395 0 0,'-1'-6'9567'0'0,"1"6"-9408"0"0,19-13 1869 0 0,26-10-2470 0 0,12 2 191 0 0,-10 3-3726 0 0,-16 7-4867 0 0,-20 7 1082 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="41438.05">4709 1750 12051 0 0,'-14'11'7686'0'0,"24"-10"-3856"0"0,29-9-2482 0 0,37-29-1114 0 0,-57 26-387 0 0,2 1-1 0 0,0 0 0 0 0,32-9 1 0 0,-54 24-507 0 0,-10 8 667 0 0,-15 13 402 0 0,-49 51 1115 0 0,68-68-1376 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,1 0 0 0 0,0-1 0 0 0,-3 12-1 0 0,6-19-137 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,1 4 1 0 0,-1-5-13 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,2 1 0 0 0,1-1-34 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,6-3 0 0 0,12-8-115 0 0,0-1 0 0 0,-1-1 1 0 0,-1-1-1 0 0,0 0 1 0 0,-1-2-1 0 0,-1 0 0 0 0,-1-1 1 0 0,-1-1-1 0 0,0 0 1 0 0,-1-1-1 0 0,-2 0 0 0 0,0-1 1 0 0,-1-1-1 0 0,11-31 1 0 0,-22 52 1593 0 0,-2 6-570 0 0,-6 14-308 0 0,-8 29-476 0 0,10-23 20 0 0,4-16-96 0 0,-1 0-1 0 0,1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,2 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,2 13 0 0 0,-3-20-15 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,14-10-80 0 0,9-22-163 0 0,103-200-567 0 0,-105 186 987 0 0,-28 127 382 0 0,-13 57-2260 0 0,8-93-2853 0 0,-2 0-5144 0 0,7-27 1353 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="41873.77">4932 2117 20812 0 0,'0'0'163'0'0,"-1"-1"1"0"0,1 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-2 1 0 0,15-18 1176 0 0,21-11-1019 0 0,-17 17-276 0 0,1 0-1 0 0,0 2 1 0 0,26-12 0 0 0,-39 21-60 0 0,0 0 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,12-1-1 0 0,-16 2-8 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,5 4 1 0 0,-6-4 46 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,-1 7 1 0 0,1-3-629 0 0,-1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,-4 10-1 0 0,-5 3-4710 0 0,-1-4-3672 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="41874.77">5361 1487 17180 0 0,'-6'-3'1450'0'0,"9"1"-587"0"0,21-3-579 0 0,34 1-3276 0 0,-22 2-2318 0 0,-12 2-1987 0 0,-11 0 3127 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="42277.11">5282 1669 17324 0 0,'21'-1'5744'0'0,"48"-4"-3989"0"0,-64 5-1763 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,7 5 0 0 0,-10-6 9 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 2 0 0 0,-22 48 36 0 0,16-39-10 0 0,-15 28 74 0 0,15-30 10 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 1 0 0,1 0-1 0 0,0-1 0 0 0,-3 18 0 0 0,7-28-111 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,16-7-77 0 0,14-21-374 0 0,-18 14 56 0 0,-1-1-1 0 0,-1-1 1 0 0,11-17-1 0 0,-19 26 303 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0-5-1 0 0,0 11 95 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-2-1 0 0 0,1 0 28 0 0,0 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1 0 0 0,-3 1-1 0 0,-4 1-375 0 0,-1 1 0 0 0,1 1 0 0 0,0-1 0 0 0,-10 8 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="42659.79">5670 1567 18308 0 0,'-16'31'5562'0'0,"1"26"-2941"0"0,6-21-2064 0 0,6-25-755 0 0,0 0-1 0 0,1 0 0 0 0,0 15 0 0 0,1-7-4776 0 0,1 1-6857 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="42660.69">5630 1760 14955 0 0,'-1'-1'436'0'0,"0"-1"-1"0"0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,0-1-1 0 0,0 0-190 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,3-1-1 0 0,-2 1-531 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,5 2 1 0 0,-1 3-5585 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="43052.85">5458 2027 16836 0 0,'8'-7'7848'0'0,"3"-1"-7619"0"0,1 2 0 0 0,21-11 0 0 0,-27 15-221 0 0,-1 0-10 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,10 2 0 0 0,-15-1 6 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-2 1 0 0 0,-19 32 273 0 0,6-16 54 0 0,11-13-180 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,-1 10 0 0 0,4-16-144 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,16-6 47 0 0,13-13-162 0 0,59-58-2052 0 0,-39 32-1542 0 0,3 3-4589 0 0,-32 29-38 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="43390.77">6310 1430 11835 0 0,'-3'7'11493'0'0,"-4"10"-7295"0"0,-18 47-4333 0 0,-1 4 332 0 0,-10 29-729 0 0,18-32-3955 0 0,17-54 1157 0 0,2-3-2897 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="43391.77">6288 1564 16195 0 0,'-15'-4'8144'0'0,"21"6"-4554"0"0,35 5-2996 0 0,-22-6-1194 0 0,38 2-1807 0 0,-38 0-1822 0 0,0 1-3343 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="43814.44">6120 1865 15747 0 0,'-12'4'10193'0'0,"27"-7"-7407"0"0,28-7-2590 0 0,86-30-2 0 0,62-19-470 0 0,-64 21-6350 0 0,-125 37 5514 0 0,13-4-2862 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="43815.44">6595 1702 8 0 0,'-4'1'1160'0'0,"1"-1"0"0"0,-1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 2 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-4 3 0 0 0,2 0-329 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-4 8 0 0 0,1 2-335 0 0,0 0-1 0 0,2 1 1 0 0,0 0-1 0 0,0 0 1 0 0,-2 22-1 0 0,5-24-365 0 0,-10 97 677 0 0,12-102-919 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,1-1 0 0 0,7 18 0 0 0,-10-25-142 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,2 2 0 0 0,-2-2-349 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,1-1 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="44209.99">6844 1589 16339 0 0,'-8'0'1598'0'0,"0"1"-1"0"0,0 0 0 0 0,1 0 0 0 0,-12 4 1 0 0,12-3-1049 0 0,-1 0-1 0 0,1 1 1 0 0,0 1 0 0 0,0-1 0 0 0,-6 6 0 0 0,10-8-514 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,3 5 1 0 0,-3-7-39 0 0,1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,2 0 1 0 0,0 0-22 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,6-1-1 0 0,-1 0-79 0 0,-1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,7-8 0 0 0,-9 7 42 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,2-7-1 0 0,-4 12 62 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,-3 2 0 0 0,0-1-3 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,-6 5 1 0 0,-15 14-2092 0 0,25-20 1408 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 2 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="44210.99">7106 1442 19372 0 0,'-6'10'6260'0'0,"4"17"-5127"0"0,2-24-505 0 0,-3 59 282 0 0,6 83 0 0 0,0-58-3406 0 0,-4-30-7919 0 0,1-39 1979 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="44709.91">6917 1805 18140 0 0,'-14'4'761'0'0,"-1"0"0"0"0,1 1-1 0 0,0 1 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 2 0 0 0,2 0-1 0 0,-17 13 1 0 0,24-18-732 0 0,0 2 1 0 0,0-1-1 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,2 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,2 12 0 0 0,-1-17-35 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,2 1 1 0 0,0-2 7 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,4-1-1 0 0,9-5-1 0 0,-1-1-1 0 0,0 0 1 0 0,22-18-1 0 0,7-8-66 0 0,-20 14 104 0 0,1 2 0 0 0,1 1-1 0 0,42-23 1 0 0,-67 40-11 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 2 1 0 0,1 1 34 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 4 0 0 0,-14 59 597 0 0,13-59-586 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,2 0-1 0 0,-1 12 1 0 0,1-19-70 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,1 1 0 0 0,-1-2-13 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,23-16-693 0 0,-1 0-1 0 0,-1-2 0 0 0,0 0 0 0 0,-2-1 1 0 0,36-43-1 0 0,-55 58-977 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="45092.84">7372 1607 14635 0 0,'-18'-1'7600'0'0,"30"0"-4565"0"0,30-2-2043 0 0,9-1-613 0 0,-38 1-301 0 0,0 2 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 1 0 0 0,0 0-1 0 0,15 6 1 0 0,-26-8-65 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 2 1 0 0,-1-1 9 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-2 6 0 0 0,-1 1 17 0 0,-1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-10 9 1 0 0,-3 3-436 0 0,-1-2-1 0 0,-33 27 0 0 0,42-39-961 0 0,38-35-22259 0 0,-18 18 21651 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="45093.84">7588 1715 8 0 0,'10'-22'13308'0'0,"10"4"-5135"0"0,4 2-3939 0 0,0 3-3282 0 0,-8 4-1984 0 0,18-12 294 0 0,-1-2 0 0 0,45-41 0 0 0,-71 58 718 0 0,-7 6 38 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,-2 15 678 0 0,-13 33-183 0 0,7-23-207 0 0,-3 17-725 0 0,1 0 0 0 0,-7 85 0 0 0,21-101-1312 0 0,2-15-1874 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="45451.85">7961 1509 16420 0 0,'-1'9'6348'0'0,"-5"19"-4213"0"0,3-13-1132 0 0,-3 37-422 0 0,2 0 1 0 0,4 79 0 0 0,2-48-4048 0 0,-2-61-1186 0 0,2-8-5243 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="45452.84">8301 1410 20508 0 0,'-2'5'496'0'0,"0"0"-1"0"0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 8-1 0 0,-2 26 718 0 0,-34 118 256 0 0,4-54-4389 0 0,26-87 1895 0 0,-1 7-2488 0 0,3-7-1561 0 0,1 0-4551 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="45787.66">8351 2040 21149 0 0,'2'3'2088'0'0,"-4"2"-1384"0"0,2 2-88 0 0,2-2 40 0 0,-2 0 49 0 0,1-2-89 0 0,0 0-176 0 0,0-1-136 0 0,2 1-96 0 0,0-2-176 0 0,1 0-208 0 0,0 0-368 0 0,0-1-681 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2445,10 +3085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9685DD35-646D-4F18-B38B-7C194FF0E322}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C34" sqref="A34:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2457,18 +3097,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="35" t="s">
@@ -2731,6 +3371,17 @@
       <c r="B33" s="64"/>
       <c r="C33" s="65" t="s">
         <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="69" t="s">
+        <v>252</v>
+      </c>
+      <c r="B34" s="69">
+        <v>220904</v>
+      </c>
+      <c r="C34" s="71" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -3050,17 +3701,17 @@
       <c r="B4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="75"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="2:16">
       <c r="B5" s="14" t="s">
@@ -3079,7 +3730,7 @@
       <c r="K5" s="9"/>
     </row>
     <row r="6" spans="2:16">
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="74" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="32" t="s">
@@ -3097,7 +3748,7 @@
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="2:16">
-      <c r="B7" s="70"/>
+      <c r="B7" s="75"/>
       <c r="C7" s="14" t="s">
         <v>7</v>
       </c>
@@ -3145,7 +3796,7 @@
       <c r="K9" s="9"/>
     </row>
     <row r="10" spans="2:16">
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="74" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -3163,8 +3814,8 @@
       <c r="K10" s="9"/>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="70"/>
-      <c r="C11" s="69" t="s">
+      <c r="B11" s="75"/>
+      <c r="C11" s="74" t="s">
         <v>63</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -3179,8 +3830,8 @@
       <c r="K11" s="9"/>
     </row>
     <row r="12" spans="2:16" s="1" customFormat="1">
-      <c r="B12" s="70"/>
-      <c r="C12" s="71"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="76"/>
       <c r="D12" s="8" t="s">
         <v>83</v>
       </c>
@@ -3193,7 +3844,7 @@
       <c r="K12" s="9"/>
     </row>
     <row r="13" spans="2:16">
-      <c r="B13" s="71"/>
+      <c r="B13" s="76"/>
       <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
@@ -3219,18 +3870,18 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
       <c r="E16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="73" t="s">
+      <c r="F16" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="G16" s="73"/>
+      <c r="G16" s="78"/>
       <c r="H16" s="7" t="s">
         <v>96</v>
       </c>
@@ -3240,26 +3891,26 @@
       <c r="J16" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="K16" s="73" t="s">
+      <c r="K16" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="L16" s="73"/>
+      <c r="L16" s="78"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
       <c r="E17" s="4">
         <v>10</v>
       </c>
-      <c r="F17" s="72" t="s">
+      <c r="F17" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="72"/>
+      <c r="G17" s="77"/>
       <c r="H17" s="4">
         <v>11</v>
       </c>
@@ -3267,10 +3918,10 @@
       <c r="J17" s="20">
         <v>10</v>
       </c>
-      <c r="K17" s="72" t="s">
+      <c r="K17" s="77" t="s">
         <v>164</v>
       </c>
-      <c r="L17" s="72"/>
+      <c r="L17" s="77"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
@@ -3279,10 +3930,10 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="72" t="s">
+      <c r="F18" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="72"/>
+      <c r="G18" s="77"/>
       <c r="H18" s="4">
         <v>21</v>
       </c>
@@ -3290,10 +3941,10 @@
       <c r="J18" s="20">
         <v>10</v>
       </c>
-      <c r="K18" s="72" t="s">
+      <c r="K18" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="L18" s="72"/>
+      <c r="L18" s="77"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
@@ -3313,10 +3964,10 @@
       <c r="J19" s="39">
         <v>10</v>
       </c>
-      <c r="K19" s="72" t="s">
+      <c r="K19" s="77" t="s">
         <v>165</v>
       </c>
-      <c r="L19" s="72"/>
+      <c r="L19" s="77"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
@@ -3336,10 +3987,10 @@
       <c r="J20" s="39">
         <v>10</v>
       </c>
-      <c r="K20" s="76" t="s">
+      <c r="K20" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="L20" s="76"/>
+      <c r="L20" s="81"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
@@ -3359,10 +4010,10 @@
       <c r="J21" s="39">
         <v>10</v>
       </c>
-      <c r="K21" s="76" t="s">
+      <c r="K21" s="81" t="s">
         <v>106</v>
       </c>
-      <c r="L21" s="76"/>
+      <c r="L21" s="81"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
@@ -3382,19 +4033,19 @@
       <c r="J22" s="39">
         <v>10</v>
       </c>
-      <c r="K22" s="76" t="s">
+      <c r="K22" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="L22" s="76"/>
+      <c r="L22" s="81"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
       <c r="E23" s="20">
         <v>20</v>
       </c>
@@ -3411,10 +4062,10 @@
       <c r="J23" s="20">
         <v>11</v>
       </c>
-      <c r="K23" s="72" t="s">
+      <c r="K23" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="L23" s="72"/>
+      <c r="L23" s="77"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
@@ -3429,10 +4080,10 @@
       <c r="J24" s="20">
         <v>21</v>
       </c>
-      <c r="K24" s="72" t="s">
+      <c r="K24" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="L24" s="72"/>
+      <c r="L24" s="77"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
@@ -3447,10 +4098,10 @@
       <c r="J25" s="20">
         <v>31</v>
       </c>
-      <c r="K25" s="72" t="s">
+      <c r="K25" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="L25" s="72"/>
+      <c r="L25" s="77"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
@@ -3465,10 +4116,10 @@
       <c r="J26" s="20">
         <v>41</v>
       </c>
-      <c r="K26" s="72" t="s">
+      <c r="K26" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="L26" s="72"/>
+      <c r="L26" s="77"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
@@ -3488,10 +4139,10 @@
       <c r="J27" s="20">
         <v>11</v>
       </c>
-      <c r="K27" s="72" t="s">
+      <c r="K27" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="L27" s="72"/>
+      <c r="L27" s="77"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
@@ -3506,10 +4157,10 @@
       <c r="J28" s="20">
         <v>21</v>
       </c>
-      <c r="K28" s="72" t="s">
+      <c r="K28" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="L28" s="72"/>
+      <c r="L28" s="77"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
@@ -3524,10 +4175,10 @@
       <c r="J29" s="20">
         <v>31</v>
       </c>
-      <c r="K29" s="72" t="s">
+      <c r="K29" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="L29" s="72"/>
+      <c r="L29" s="77"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
@@ -3545,10 +4196,10 @@
       <c r="J30" s="20">
         <v>41</v>
       </c>
-      <c r="K30" s="72" t="s">
+      <c r="K30" s="77" t="s">
         <v>175</v>
       </c>
-      <c r="L30" s="72"/>
+      <c r="L30" s="77"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
@@ -3570,10 +4221,10 @@
       <c r="J31" s="20">
         <v>11</v>
       </c>
-      <c r="K31" s="72" t="s">
+      <c r="K31" s="77" t="s">
         <v>176</v>
       </c>
-      <c r="L31" s="72"/>
+      <c r="L31" s="77"/>
     </row>
     <row r="32" spans="2:16">
       <c r="B32" s="15"/>
@@ -3586,10 +4237,10 @@
       <c r="J32" s="20">
         <v>21</v>
       </c>
-      <c r="K32" s="72" t="s">
+      <c r="K32" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="L32" s="72"/>
+      <c r="L32" s="77"/>
     </row>
     <row r="33" spans="2:12">
       <c r="B33" s="15"/>
@@ -3602,10 +4253,10 @@
       <c r="J33" s="20">
         <v>31</v>
       </c>
-      <c r="K33" s="72" t="s">
+      <c r="K33" s="77" t="s">
         <v>178</v>
       </c>
-      <c r="L33" s="72"/>
+      <c r="L33" s="77"/>
     </row>
     <row r="34" spans="2:12" s="1" customFormat="1">
       <c r="B34" s="15"/>
@@ -3621,10 +4272,10 @@
       <c r="J34" s="20">
         <v>41</v>
       </c>
-      <c r="K34" s="72" t="s">
+      <c r="K34" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="L34" s="72"/>
+      <c r="L34" s="77"/>
     </row>
     <row r="35" spans="2:12">
       <c r="B35" s="15"/>
@@ -3644,10 +4295,10 @@
       <c r="J35" s="20">
         <v>11</v>
       </c>
-      <c r="K35" s="72" t="s">
+      <c r="K35" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="L35" s="72"/>
+      <c r="L35" s="77"/>
     </row>
     <row r="36" spans="2:12">
       <c r="B36" s="15"/>
@@ -3663,10 +4314,10 @@
       <c r="J36" s="20">
         <v>21</v>
       </c>
-      <c r="K36" s="72" t="s">
+      <c r="K36" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="L36" s="72"/>
+      <c r="L36" s="77"/>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="15"/>
@@ -3682,10 +4333,10 @@
       <c r="J37" s="20">
         <v>31</v>
       </c>
-      <c r="K37" s="72" t="s">
+      <c r="K37" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="L37" s="72"/>
+      <c r="L37" s="77"/>
     </row>
     <row r="38" spans="2:12">
       <c r="B38" s="15"/>
@@ -3701,17 +4352,17 @@
       <c r="J38" s="20">
         <v>41</v>
       </c>
-      <c r="K38" s="72" t="s">
+      <c r="K38" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="L38" s="72"/>
+      <c r="L38" s="77"/>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="77" t="s">
+      <c r="B39" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="78"/>
-      <c r="D39" s="79"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="84"/>
       <c r="E39" s="19">
         <v>30</v>
       </c>
@@ -3726,10 +4377,10 @@
       <c r="J39" s="20">
         <v>11</v>
       </c>
-      <c r="K39" s="72" t="s">
+      <c r="K39" s="77" t="s">
         <v>205</v>
       </c>
-      <c r="L39" s="72"/>
+      <c r="L39" s="77"/>
     </row>
     <row r="40" spans="2:12">
       <c r="I40" s="41" t="s">
@@ -3738,10 +4389,10 @@
       <c r="J40" s="41">
         <v>21</v>
       </c>
-      <c r="K40" s="72" t="s">
+      <c r="K40" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="L40" s="72"/>
+      <c r="L40" s="77"/>
     </row>
     <row r="41" spans="2:12">
       <c r="I41" s="41" t="s">
@@ -3750,10 +4401,10 @@
       <c r="J41" s="41">
         <v>31</v>
       </c>
-      <c r="K41" s="72" t="s">
+      <c r="K41" s="77" t="s">
         <v>206</v>
       </c>
-      <c r="L41" s="72"/>
+      <c r="L41" s="77"/>
     </row>
     <row r="42" spans="2:12">
       <c r="I42" s="41" t="s">
@@ -3762,10 +4413,10 @@
       <c r="J42" s="41">
         <v>41</v>
       </c>
-      <c r="K42" s="72" t="s">
+      <c r="K42" s="77" t="s">
         <v>207</v>
       </c>
-      <c r="L42" s="72"/>
+      <c r="L42" s="77"/>
     </row>
     <row r="43" spans="2:12">
       <c r="I43" s="41" t="s">
@@ -3774,10 +4425,10 @@
       <c r="J43" s="41">
         <v>51</v>
       </c>
-      <c r="K43" s="72" t="s">
+      <c r="K43" s="77" t="s">
         <v>208</v>
       </c>
-      <c r="L43" s="72"/>
+      <c r="L43" s="77"/>
     </row>
     <row r="44" spans="2:12">
       <c r="I44" s="41" t="s">
@@ -3786,10 +4437,10 @@
       <c r="J44" s="41">
         <v>61</v>
       </c>
-      <c r="K44" s="72" t="s">
+      <c r="K44" s="77" t="s">
         <v>209</v>
       </c>
-      <c r="L44" s="72"/>
+      <c r="L44" s="77"/>
     </row>
     <row r="46" spans="2:12" s="3" customFormat="1">
       <c r="B46" s="3" t="s">
@@ -3889,17 +4540,17 @@
       <c r="B4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="75"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="80"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="74" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -3912,7 +4563,7 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="2:8" s="1" customFormat="1">
-      <c r="B6" s="71"/>
+      <c r="B6" s="76"/>
       <c r="C6" s="8" t="s">
         <v>38</v>
       </c>
@@ -3923,7 +4574,7 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="74" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -3938,8 +4589,8 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="70"/>
-      <c r="C8" s="69" t="s">
+      <c r="B8" s="75"/>
+      <c r="C8" s="74" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -3951,8 +4602,8 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8" s="1" customFormat="1">
-      <c r="B9" s="70"/>
-      <c r="C9" s="71"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="8" t="s">
         <v>194</v>
       </c>
@@ -3962,7 +4613,7 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8" s="1" customFormat="1">
-      <c r="B10" s="70"/>
+      <c r="B10" s="75"/>
       <c r="C10" s="59" t="s">
         <v>113</v>
       </c>
@@ -3975,7 +4626,7 @@
       <c r="H10" s="63"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="71"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="4" t="s">
         <v>61</v>
       </c>
@@ -3991,17 +4642,17 @@
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="74" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -4016,7 +4667,7 @@
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="71"/>
+      <c r="B14" s="76"/>
       <c r="C14" s="4" t="s">
         <v>15</v>
       </c>
@@ -4209,10 +4860,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B521D6-2D85-4E20-A231-43C3768C3612}">
-  <dimension ref="B1:H41"/>
+  <dimension ref="B1:L42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView showGridLines="0" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -4225,6 +4876,8 @@
     <col min="6" max="6" width="12.3984375" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
     <col min="8" max="8" width="12.796875" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="14.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1">
@@ -4241,17 +4894,17 @@
       <c r="B4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="75"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="80"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="74" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -4264,7 +4917,7 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="2:8" s="1" customFormat="1">
-      <c r="B6" s="70"/>
+      <c r="B6" s="75"/>
       <c r="C6" s="8" t="s">
         <v>22</v>
       </c>
@@ -4275,7 +4928,7 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="71"/>
+      <c r="B7" s="76"/>
       <c r="C7" s="8" t="s">
         <v>114</v>
       </c>
@@ -4286,7 +4939,7 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="74" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -4301,8 +4954,8 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="70"/>
-      <c r="C9" s="69" t="s">
+      <c r="B9" s="75"/>
+      <c r="C9" s="74" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -4314,8 +4967,8 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
       <c r="D10" s="8" t="s">
         <v>23</v>
       </c>
@@ -4325,8 +4978,8 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="2:8" s="1" customFormat="1">
-      <c r="B11" s="70"/>
-      <c r="C11" s="71"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="76"/>
       <c r="D11" s="51" t="s">
         <v>216</v>
       </c>
@@ -4336,244 +4989,310 @@
       <c r="H11" s="52"/>
     </row>
     <row r="12" spans="2:8" s="1" customFormat="1">
-      <c r="B12" s="70"/>
-      <c r="C12" s="30" t="s">
+      <c r="B12" s="75"/>
+      <c r="C12" s="74" t="s">
         <v>113</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="34"/>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="71"/>
-      <c r="C13" s="4" t="s">
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="68"/>
+    </row>
+    <row r="13" spans="2:8" s="1" customFormat="1">
+      <c r="B13" s="75"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="34"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="76"/>
+      <c r="C14" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D14" s="10">
         <v>2</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="2:8" s="1" customFormat="1">
-      <c r="B14" s="58" t="s">
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="2:8" s="1" customFormat="1">
+      <c r="B15" s="58" t="s">
         <v>220</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C15" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56"/>
-    </row>
-    <row r="15" spans="2:8" s="1" customFormat="1">
-      <c r="B15" s="4" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="56"/>
+    </row>
+    <row r="16" spans="2:8" s="1" customFormat="1">
+      <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="77" t="s">
+      <c r="C16" s="82" t="s">
         <v>228</v>
       </c>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="B16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>24</v>
-      </c>
+    <row r="17" spans="2:12">
+      <c r="B17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="2:8" s="1" customFormat="1">
-      <c r="B18" s="70"/>
-      <c r="C18" s="71"/>
+    <row r="18" spans="2:12">
+      <c r="B18" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="74" t="s">
+        <v>13</v>
+      </c>
       <c r="D18" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="71"/>
-      <c r="C19" s="4" t="s">
+    <row r="19" spans="2:12" s="1" customFormat="1">
+      <c r="B19" s="75"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="76"/>
+      <c r="C20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D20" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E20" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F20" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="E21" t="s">
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="E22" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="41" t="s">
+      <c r="I22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C23" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G22" s="42" t="s">
+      <c r="G23" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="H22" s="43"/>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="4" t="s">
+      <c r="H23" s="43"/>
+      <c r="I23" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="70" t="s">
+        <v>245</v>
+      </c>
+      <c r="K23" s="70" t="s">
+        <v>246</v>
+      </c>
+      <c r="L23" s="70" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F24" s="13">
         <v>0.4</v>
       </c>
-      <c r="G23" s="40">
+      <c r="G24" s="40">
         <v>1</v>
       </c>
-      <c r="H23" s="44"/>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="5">
+      <c r="H24" s="44"/>
+      <c r="I24" s="69" t="s">
+        <v>242</v>
+      </c>
+      <c r="J24" s="69">
         <v>1</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="K24" s="87">
+        <v>0.1</v>
+      </c>
+      <c r="L24" s="69" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="5">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F25" s="13">
         <v>0.3</v>
       </c>
-      <c r="G24" s="40">
+      <c r="G25" s="40">
         <v>1.8</v>
       </c>
-      <c r="H24" s="45"/>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="5">
+      <c r="H25" s="45"/>
+      <c r="I25" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="J25" s="69">
+        <v>3</v>
+      </c>
+      <c r="K25" s="88">
+        <v>0.15</v>
+      </c>
+      <c r="L25" s="69" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="5">
         <v>2</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F26" s="13">
         <v>0.2</v>
       </c>
-      <c r="G25" s="40">
+      <c r="G26" s="40">
         <v>3.3</v>
       </c>
-      <c r="H25" s="45"/>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="5">
+      <c r="H26" s="45"/>
+      <c r="I26" s="69" t="s">
+        <v>244</v>
+      </c>
+      <c r="J26" s="69">
+        <v>7</v>
+      </c>
+      <c r="K26" s="87">
+        <v>0.3</v>
+      </c>
+      <c r="L26" s="69" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" s="5">
         <v>3</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F27" s="13">
         <v>0.1</v>
       </c>
-      <c r="G26" s="40">
+      <c r="G27" s="40">
         <v>5</v>
       </c>
-      <c r="H26" s="45"/>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="5">
+      <c r="H27" s="45"/>
+      <c r="I27" s="69" t="s">
+        <v>241</v>
+      </c>
+      <c r="J27" s="69">
+        <v>13</v>
+      </c>
+      <c r="K27" s="87">
+        <v>0.5</v>
+      </c>
+      <c r="L27" s="86" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="5">
         <v>4</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:8" s="3" customFormat="1">
-      <c r="B29" s="3" t="s">
+    <row r="30" spans="2:12" s="3" customFormat="1">
+      <c r="B30" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="1" t="s">
+    <row r="32" spans="2:12">
+      <c r="B32" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="34"/>
+      <c r="B33" s="1"/>
+      <c r="E33" s="1"/>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
@@ -4581,7 +5300,7 @@
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
@@ -4589,7 +5308,7 @@
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="32" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
@@ -4597,7 +5316,7 @@
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="32" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
@@ -4605,7 +5324,7 @@
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="32" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
@@ -4613,43 +5332,53 @@
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="32" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="34"/>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="37" t="s">
+      <c r="B40" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="34"/>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="38"/>
-    </row>
-    <row r="41" spans="2:5">
-      <c r="B41" s="36"/>
       <c r="C41" s="36"/>
       <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
+      <c r="E41" s="38"/>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C16:F16"/>
     <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D19" r:id="rId1" xr:uid="{5EB89E96-56A7-4277-9978-73C0E5C5237C}"/>
-    <hyperlink ref="E19" r:id="rId2" xr:uid="{565B5955-E588-4999-A3E0-B21BFDBE5D8C}"/>
-    <hyperlink ref="F19" r:id="rId3" xr:uid="{9410E9AB-BCFB-41E7-817F-5F134B6E934E}"/>
+    <hyperlink ref="D20" r:id="rId1" xr:uid="{5EB89E96-56A7-4277-9978-73C0E5C5237C}"/>
+    <hyperlink ref="E20" r:id="rId2" xr:uid="{565B5955-E588-4999-A3E0-B21BFDBE5D8C}"/>
+    <hyperlink ref="F20" r:id="rId3" xr:uid="{9410E9AB-BCFB-41E7-817F-5F134B6E934E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -4657,8 +5386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5AC036-5AF3-43C9-8DCB-8CAD147E7305}">
   <dimension ref="B1:H25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView showGridLines="0" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -4689,17 +5418,17 @@
       <c r="B4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="75"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="80"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="74" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -4712,7 +5441,7 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="71"/>
+      <c r="B6" s="76"/>
       <c r="C6" s="8" t="s">
         <v>88</v>
       </c>
@@ -4723,7 +5452,7 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="74" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -4738,8 +5467,8 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="70"/>
-      <c r="C8" s="69" t="s">
+      <c r="B8" s="75"/>
+      <c r="C8" s="74" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -4751,8 +5480,8 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="70"/>
-      <c r="C9" s="71"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="8" t="s">
         <v>23</v>
       </c>
@@ -4762,7 +5491,7 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8" s="1" customFormat="1">
-      <c r="B10" s="70"/>
+      <c r="B10" s="75"/>
       <c r="C10" s="30" t="s">
         <v>113</v>
       </c>
@@ -4775,7 +5504,7 @@
       <c r="H10" s="34"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="71"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="4" t="s">
         <v>61</v>
       </c>
@@ -4801,7 +5530,7 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="2:8" s="1" customFormat="1">
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="74" t="s">
         <v>222</v>
       </c>
       <c r="C13" s="60" t="s">
@@ -4810,7 +5539,7 @@
       <c r="D13" s="62"/>
       <c r="E13" s="62"/>
       <c r="F13" s="62"/>
-      <c r="G13" s="72" t="s">
+      <c r="G13" s="77" t="s">
         <v>224</v>
       </c>
       <c r="H13" s="66">
@@ -4818,32 +5547,32 @@
       </c>
     </row>
     <row r="14" spans="2:8" s="1" customFormat="1">
-      <c r="B14" s="70"/>
+      <c r="B14" s="75"/>
       <c r="C14" s="60" t="s">
         <v>225</v>
       </c>
       <c r="D14" s="62"/>
       <c r="E14" s="62"/>
-      <c r="G14" s="72"/>
+      <c r="G14" s="77"/>
       <c r="H14" s="66">
         <v>0.3</v>
       </c>
     </row>
     <row r="15" spans="2:8" s="1" customFormat="1">
-      <c r="B15" s="71"/>
+      <c r="B15" s="76"/>
       <c r="C15" s="60" t="s">
         <v>226</v>
       </c>
       <c r="D15" s="62"/>
       <c r="E15" s="62"/>
       <c r="F15" s="62"/>
-      <c r="G15" s="72"/>
+      <c r="G15" s="77"/>
       <c r="H15" s="66">
         <v>0.1</v>
       </c>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="74" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -4858,7 +5587,7 @@
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="71"/>
+      <c r="B17" s="76"/>
       <c r="C17" s="4" t="s">
         <v>15</v>
       </c>

--- a/Design/맵기믹 기획.xlsx
+++ b/Design/맵기믹 기획.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\PLUM\2022 8월 게임 프로젝트\Copy\PlumTowerDefecne\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C2D378-CC3A-47F3-A96C-A6E32DAF7CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F34DCC-2117-44C0-A3E9-73F6E42226E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="828" windowWidth="17280" windowHeight="8880" xr2:uid="{6ED0029A-6F1E-4A92-AB37-7B6700187FC9}"/>
+    <workbookView xWindow="936" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{6ED0029A-6F1E-4A92-AB37-7B6700187FC9}"/>
   </bookViews>
   <sheets>
     <sheet name="VerCon" sheetId="7" r:id="rId1"/>
-    <sheet name="기믹 개요" sheetId="9" r:id="rId2"/>
-    <sheet name="공격로버프" sheetId="11" r:id="rId3"/>
-    <sheet name="장애물" sheetId="8" r:id="rId4"/>
-    <sheet name="자원" sheetId="10" r:id="rId5"/>
-    <sheet name="보물상자" sheetId="6" r:id="rId6"/>
+    <sheet name="개발 체크리스트" sheetId="12" r:id="rId2"/>
+    <sheet name="기믹 개요" sheetId="9" r:id="rId3"/>
+    <sheet name="공격로버프" sheetId="11" r:id="rId4"/>
+    <sheet name="장애물" sheetId="8" r:id="rId5"/>
+    <sheet name="자원" sheetId="10" r:id="rId6"/>
+    <sheet name="보물상자" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="272">
   <si>
     <t>맵 기믹 기획서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1044,6 +1045,68 @@
   </si>
   <si>
     <t>자원 탭에 곡괭이 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[x] 생성(생성될 그라운드에만 생성)</t>
+  </si>
+  <si>
+    <t>[x] 생성(전체 맵, 그라운드 내에 자원이 다 채굴되지 않으면 그 그라운드에서는 자원이 생성되지 않음)</t>
+  </si>
+  <si>
+    <t>[x] 그라운드당 2~5개 생성</t>
+  </si>
+  <si>
+    <t>보물상자</t>
+  </si>
+  <si>
+    <t>[x] 생성(전체맵 랜덤)</t>
+  </si>
+  <si>
+    <t>[x] 클릭→보상 지급→소멸</t>
+  </si>
+  <si>
+    <t>[x] 그라운드당 0~4개</t>
+  </si>
+  <si>
+    <t>[x] 보상 잘 나오는지</t>
+  </si>
+  <si>
+    <t>[x] 에셋 적용 되었는지</t>
+  </si>
+  <si>
+    <t>[ ] 클릭시 어떤 보상이 나왔는지 보물상자 위에 표시한 후 없어지면 좋을 듯</t>
+  </si>
+  <si>
+    <t>[x] 곡괭이의 레벨에 따라 채굴 속도가 달라짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ ] 자원당 2~9번 채굴 가능해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[x] 에셋 잘 들어갔는지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ ] 곡괭이가 안없어짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ ] 타일 수에 비례해서 비용이 드는지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[x] 몇개 생기는지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[x] 클릭→제거 비용,제거 여부 표시→돈 내고 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[x] 에셋 적용 되었는지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1053,8 +1116,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ ?/10"/>
-    <numFmt numFmtId="181" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="182" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -1286,7 +1349,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1503,6 +1566,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1543,15 +1618,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2069,8 +2135,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>13380</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="9" name="잉크 8">
@@ -2089,7 +2155,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="9" name="잉크 8">
@@ -2134,8 +2200,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>90360</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="17" name="잉크 16">
@@ -2154,7 +2220,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="17" name="잉크 16">
@@ -2199,8 +2265,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>207660</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="23" name="잉크 22">
@@ -2219,7 +2285,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="23" name="잉크 22">
@@ -2264,8 +2330,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>154620</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="52" name="잉크 51">
@@ -2284,7 +2350,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="52" name="잉크 51">
@@ -2329,8 +2395,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>148980</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="83" name="잉크 82">
@@ -2349,7 +2415,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="83" name="잉크 82">
@@ -2660,7 +2726,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="396.02">318 0 8058 0 0,'0'11'7588'0'0,"6"18"-5804"0"0,-5-27-1145 0 0,18 111 3239 0 0,-1 60-2199 0 0,-1-8-1339 0 0,-12-127-417 0 0,-4-18-358 0 0,1 0 1 0 0,2-1-1 0 0,0 1 0 0 0,0-1 0 0 0,10 21 1 0 0,-6-28-3445 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="765.04">418 372 1880 0 0,'-1'-1'627'0'0,"0"0"-1"0"0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1-2 0 0 0,18-8 3974 0 0,-8 6-5512 0 0,34-21-2802 0 0,-1-6-8943 0 0,-33 23 10941 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1144.27">590 87 5609 0 0,'-2'0'594'0'0,"0"0"1"0"0,1 0-1 0 0,-1-1 0 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-2 2 0 0 0,1 0-151 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-3 6 0 0 0,4-7-388 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,4 3 0 0 0,-4-5-62 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-2 0 0 0,5-3-418 0 0,-1 0 0 0 0,0-1 0 0 0,10-12 0 0 0,-11 12-69 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,3-10 0 0 0,-6 17 423 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-1-1 0 0 0,0 1-85 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-4 4-1 0 0,-32 45-773 0 0,29-38 800 0 0,-12 15 190 0 0,10-14 182 0 0,0 0 0 0 0,1 0 1 0 0,0 1-1 0 0,1 1 0 0 0,1 0 1 0 0,1 0-1 0 0,-8 24 0 0 0,15-41-145 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,3 0 294 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,5-5 0 0 0,-8 6-384 0 0,14-14 407 0 0,1 0 0 0 0,25-21-1 0 0,-36 33-461 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,2 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,6 1 0 0 0,-9 0 41 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 2 0 0 0,1 0 16 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,-2 4 1 0 0,-2 5 47 0 0,-1 1 0 0 0,0-1 0 0 0,-11 15 0 0 0,17-27-58 0 0,-9 14 5 0 0,-14 20-771 0 0,45-85-1385 0 0,26-33 3048 0 0,44-68-892 0 0,-92 150-22 0 0,2-2 19 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,2-7 220 0 0,-8 44-148 0 0,11 203-54 0 0,-3-183-4241 0 0,0 0-4371 0 0,-3-38 2522 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1655.69">561 417 15779 0 0,'-2'1'225'0'0,"1"-1"0"0"0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 2 0 0 0,1-2-156 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,3 0-1 0 0,8 0-223 0 0,0 1 0 0 0,1-2 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1-1 0 0 0,0 0 0 0 0,23-8-1 0 0,10-6-4496 0 0,-4-5-5059 0 0,-28 13 2593 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1655.67">561 417 15779 0 0,'-2'1'225'0'0,"1"-1"0"0"0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 2 0 0 0,1-2-156 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,3 0-1 0 0,8 0-223 0 0,0 1 0 0 0,1-2 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1-1 0 0 0,0 0 0 0 0,23-8-1 0 0,10-6-4496 0 0,-4-5-5059 0 0,-28 13 2593 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2700,11 +2766,11 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3321.19">538 308 11274 0 0,'-12'2'6754'0'0,"18"1"-3143"0"0,20 1-2637 0 0,-12-6-1082 0 0,-1 1 0 0 0,1-2 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,21-15 0 0 0,-49 32 263 0 0,-50 42 617 0 0,60-48-640 0 0,-1 0 0 0 0,1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-5 12 0 0 0,8-19-126 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,13-2 75 0 0,13-8-51 0 0,33-26 92 0 0,-14 8-4495 0 0,-15 12-8143 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3737.87">488 618 14451 0 0,'7'0'4651'0'0,"10"0"-2767"0"0,66-18 1525 0 0,-1 0-3117 0 0,-20 14-2289 0 0,-42 5-2622 0 0,2 1-5166 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4156.33">1294 170 8 0 0,'-12'7'13442'0'0,"11"-6"-12802"0"0,-7 20 4239 0 0,5 29-5282 0 0,3-37 1964 0 0,-3 115 569 0 0,-1 40-1178 0 0,2-95-1119 0 0,2-47-3177 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4629.97">1304 165 4945 0 0,'-15'-5'9871'0'0,"24"6"-4544"0"0,25 3-3711 0 0,188-34-2 0 0,-23 1-1481 0 0,75 2 2 0 0,-268 26-94 0 0,-1 1 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 2 1 0 0,0-1 0 0 0,1 0 0 0 0,9 4 0 0 0,-14-4-12 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 2 1 0 0,-6 41 373 0 0,3 1 0 0 0,1 56 1 0 0,12 91 281 0 0,-6-148-573 0 0,-1-20-118 0 0,0 17-3135 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4629.96">1304 165 4945 0 0,'-15'-5'9871'0'0,"24"6"-4544"0"0,25 3-3711 0 0,188-34-2 0 0,-23 1-1481 0 0,75 2 2 0 0,-268 26-94 0 0,-1 1 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 2 1 0 0,0-1 0 0 0,1 0 0 0 0,9 4 0 0 0,-14-4-12 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 2 1 0 0,-6 41 373 0 0,3 1 0 0 0,1 56 1 0 0,12 91 281 0 0,-6-148-573 0 0,-1-20-118 0 0,0 17-3135 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5033.8">1387 689 14491 0 0,'-5'0'871'0'0,"-8"0"2533"0"0,17 0-767 0 0,51-1 181 0 0,575-84-897 0 0,-613 83-2324 0 0,-9 0-3223 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5519.44">1483 262 4089 0 0,'1'7'13716'0'0,"5"24"-11635"0"0,-8-15-2148 0 0,-1 37 561 0 0,4-50-1346 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,2 2-1 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5883.97">1598 168 6825 0 0,'3'4'8859'0'0,"10"17"-6200"0"0,-6-1-2298 0 0,0 0 0 0 0,-1 0 0 0 0,5 36 1 0 0,-9-47-292 0 0,-1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-6 12 0 0 0,7-18-35 0 0,0-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-2-1 0 0,0 2-21 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-3-5-1 0 0,6 6-13 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,3-1 0 0 0,27-14-76 0 0,-23 12-42 0 0,32-15-1555 0 0,-26 13-2578 0 0,1 0-5455 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5884.97">1396 598 10610 0 0,'8'-4'10118'0'0,"12"-11"-8048"0"0,-5 4-1282 0 0,40-26-2 0 0,-21 13-28 0 0,48-24 0 0 0,-41 31-4067 0 0,3 4-3639 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5883.96">1598 168 6825 0 0,'3'4'8859'0'0,"10"17"-6200"0"0,-6-1-2298 0 0,0 0 0 0 0,-1 0 0 0 0,5 36 1 0 0,-9-47-292 0 0,-1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-6 12 0 0 0,7-18-35 0 0,0-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-2-1 0 0,0 2-21 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-3-5-1 0 0,6 6-13 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,3-1 0 0 0,27-14-76 0 0,-23 12-42 0 0,32-15-1555 0 0,-26 13-2578 0 0,1 0-5455 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5884.96">1396 598 10610 0 0,'8'-4'10118'0'0,"12"-11"-8048"0"0,-5 4-1282 0 0,40-26-2 0 0,-21 13-28 0 0,48-24 0 0 0,-41 31-4067 0 0,3 4-3639 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6273.48">1506 601 15219 0 0,'7'-10'3875'0'0,"16"-6"-3019"0"0,-22 15-607 0 0,10-6-12 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,16-4 0 0 0,-22 8-230 0 0,0 0-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,7 2 0 0 0,-12-1 11 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,-9 28 805 0 0,-2-9-25 0 0,-7 18 372 0 0,18-37-1112 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,2 2 0 0 0,-2-4-53 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,14-7 16 0 0,9-14-255 0 0,47-59-2931 0 0,-48 52-1530 0 0,-1-1-4877 0 0,-13 16 1443 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6618.24">1745 240 8578 0 0,'4'-4'6846'0'0,"14"-13"-4462"0"0,28 0-1477 0 0,-44 17-876 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,2 2 1 0 0,-3-1 8 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 3-1 0 0,-23 39 534 0 0,18-34-359 0 0,-4 8 119 0 0,5-10-62 0 0,0 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-4 15 1 0 0,8-22-260 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,9-5 244 0 0,12-12-216 0 0,-21 16-18 0 0,56-48-1833 0 0,-38 32-2212 0 0,-1-1-4816 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6619.24">1698 492 14955 0 0,'-1'1'6948'0'0,"11"-3"-4524"0"0,16-7-1523 0 0,6-6-1577 0 0,114-47 1824 0 0,-97 42-6920 0 0,0 1-7164 0 0,-39 15 5952 0 0</inkml:trace>
@@ -2743,23 +2809,23 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="778.19">57 192 8 0 0,'0'0'81'0'0,"0"0"-1"0"0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,39 7 7861 0 0,-24-4-6151 0 0,154-2 2385 0 0,84-24-2745 0 0,27-2-1392 0 0,-38 19 38 0 0,229-13 162 0 0,-269 4-145 0 0,324-16 70 0 0,32 12-243 0 0,-554 20 80 0 0,808-21-155 0 0,-546 31 164 0 0,0-1-84 0 0,-238-10-1042 0 0,41-6-1 0 0,-37 1-4443 0 0,-1 0-7175 0 0,-28 6 12611 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1312.7">4347 1 8 0 0,'5'0'2537'0'0,"-6"8"3074"0"0,-3 10 2843 0 0,-4 10-6750 0 0,-9 49 0 0 0,1 86-898 0 0,12-104-507 0 0,-11 270 813 0 0,8-112-1045 0 0,8-202-606 0 0,1 12-894 0 0,-5-16-6930 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2224.41">30 1111 8 0 0,'2'2'13902'0'0,"22"1"-10295"0"0,37 3-2399 0 0,147-5 1056 0 0,231-30-1 0 0,-150 6-1942 0 0,562-15 559 0 0,-611 33-454 0 0,569 4 72 0 0,-314-4-37 0 0,-181 3-241 0 0,104-8 104 0 0,-345 4-284 0 0,-33 3 29 0 0,79-15 0 0 0,-104 15-146 0 0,0 1 0 0 0,0 0 0 0 0,22 0 0 0 0,-67-1-9773 0 0,16 3 1970 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33769.19">2464 356 8 0 0,'-8'4'2094'0'0,"0"11"5905"0"0,4 5 83 0 0,3-8-5842 0 0,-8 139 1355 0 0,-11 93-2129 0 0,19-227-1401 0 0,6-12-26 0 0,17-20-37 0 0,-19 13-15 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,6-1-1 0 0,11 0-26 0 0,0 1 0 0 0,38 2 0 0 0,21-3 106 0 0,55-7-51 0 0,236 10 0 0 0,-255-6 9 0 0,-125-37 256 0 0,9 37-287 0 0,-5-35-222 0 0,1-79 0 0 0,16-19-326 0 0,0-1-208 0 0,-11 136 777 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-2-4 1 0 0,1 5-11 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-4 0 0 0 0,-32 1-3 0 0,0 3 0 0 0,-71 14 1 0 0,-78 31 225 0 0,113-28 30 0 0,19-4-116 0 0,-68 29-1 0 0,125-46-185 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34240.63">2597 482 6505 0 0,'-8'-6'10270'0'0,"17"5"-6835"0"0,5-1-3601 0 0,-9 0 202 0 0,1 2 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,9 3 0 0 0,-14-3-16 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 2 0 0 0,-36 45 1269 0 0,31-42-1063 0 0,0-1 0 0 0,1 2 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-3 10 0 0 0,5-18-214 0 0,1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 0 0 0,19-4-51 0 0,30-26-2396 0 0,-41 24 980 0 0,14-12-4130 0 0,-8 5-4119 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34599.72">2689 547 8482 0 0,'17'-3'8414'0'0,"6"-4"-4715"0"0,33-16-6296 0 0,-3 2-6462 0 0,-43 18 4770 0 0,-1-1-353 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34600.72">2831 406 440 0 0,'-1'1'841'0'0,"-1"0"1"0"0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,-1 1 0 0 0,-5 26 3802 0 0,4 33-3365 0 0,3-52-538 0 0,-2 39-437 0 0,-1-12 217 0 0,3-13-2909 0 0,2-4-2563 0 0,1-1-3633 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33769.18">2464 356 8 0 0,'-8'4'2094'0'0,"0"11"5905"0"0,4 5 83 0 0,3-8-5842 0 0,-8 139 1355 0 0,-11 93-2129 0 0,19-227-1401 0 0,6-12-26 0 0,17-20-37 0 0,-19 13-15 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,6-1-1 0 0,11 0-26 0 0,0 1 0 0 0,38 2 0 0 0,21-3 106 0 0,55-7-51 0 0,236 10 0 0 0,-255-6 9 0 0,-125-37 256 0 0,9 37-287 0 0,-5-35-222 0 0,1-79 0 0 0,16-19-326 0 0,0-1-208 0 0,-11 136 777 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-2-4 1 0 0,1 5-11 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-4 0 0 0 0,-32 1-3 0 0,0 3 0 0 0,-71 14 1 0 0,-78 31 225 0 0,113-28 30 0 0,19-4-116 0 0,-68 29-1 0 0,125-46-185 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34240.61">2597 482 6505 0 0,'-8'-6'10270'0'0,"17"5"-6835"0"0,5-1-3601 0 0,-9 0 202 0 0,1 2 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,9 3 0 0 0,-14-3-16 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 2 0 0 0,-36 45 1269 0 0,31-42-1063 0 0,0-1 0 0 0,1 2 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-3 10 0 0 0,5-18-214 0 0,1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 0 0 0,19-4-51 0 0,30-26-2396 0 0,-41 24 980 0 0,14-12-4130 0 0,-8 5-4119 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34599.71">2689 547 8482 0 0,'17'-3'8414'0'0,"6"-4"-4715"0"0,33-16-6296 0 0,-3 2-6462 0 0,-43 18 4770 0 0,-1-1-353 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34600.71">2831 406 440 0 0,'-1'1'841'0'0,"-1"0"1"0"0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,-1 1 0 0 0,-5 26 3802 0 0,4 33-3365 0 0,3-52-538 0 0,-2 39-437 0 0,-1-12 217 0 0,3-13-2909 0 0,2-4-2563 0 0,1-1-3633 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34981.9">2937 405 6105 0 0,'-19'38'9565'0'0,"7"9"-5851"0"0,2 44-1764 0 0,9-80-2502 0 0,0 30 1149 0 0,5-21-4296 0 0,5-6-6599 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="35436.99">2959 455 15707 0 0,'13'-6'7568'0'0,"54"-13"-7918"0"0,-50 14-40 0 0,-4 3 21 0 0,-30 14 709 0 0,-48 38 359 0 0,60-46-615 0 0,0 1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-4 8 0 0 0,7-13-80 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,2 1 0 0 0,-1-2-11 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,2-1 0 0 0,8 0-845 0 0,0-2 0 0 0,-1 1 0 0 0,14-6-1 0 0,-23 7 384 0 0,22-9-8484 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="35437.99">2891 714 14979 0 0,'-7'12'6739'0'0,"13"-7"-3185"0"0,24-4-2404 0 0,70-13-1473 0 0,-65 6-2849 0 0,-1 2-4533 0 0,-23 3 709 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36138.02">3411 293 11418 0 0,'-7'3'10040'0'0,"7"-3"-9817"0"0,-7 18 2068 0 0,-2 20-2185 0 0,-12 105 1221 0 0,-5 30-641 0 0,23-158-665 0 0,-9 70 225 0 0,11-79-232 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,2 0-1 0 0,2 7 1 0 0,-4-11-18 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-2 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,3-1 0 0 0,39-16-149 0 0,-30 12 127 0 0,13-4 1 0 0,1 2 0 0 0,0 0 0 0 0,0 2 1 0 0,0 1-1 0 0,31-1 0 0 0,141 8 65 0 0,-34 1-61 0 0,-125-4 16 0 0,49-3 25 0 0,-79 2-17 0 0,0 0-1 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-2 1 0 0,11-4-1 0 0,-20 7 2 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1-2 0 0 0,-14-48 1 0 0,7 26-97 0 0,3-6-293 0 0,2-1 1 0 0,2 0-1 0 0,1 1 1 0 0,1-1-1 0 0,8-46 1 0 0,2-25 58 0 0,-11 101 374 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-4-4 1 0 0,1 3-12 0 0,1-1 0 0 0,-1 1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,-7-2 0 0 0,-9 0-35 0 0,1 0 0 0 0,-1 1-1 0 0,-40 0 1 0 0,51 3-9 0 0,-59 0-374 0 0,-134 18 0 0 0,-65 32 259 0 0,245-43 569 0 0,13 0-3543 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36568.73">3508 431 5617 0 0,'-16'26'8478'0'0,"1"3"-4460"0"0,0 8-3402 0 0,-4 17-4002 0 0,18-53 2766 0 0,0 5-2124 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36138.01">3411 293 11418 0 0,'-7'3'10040'0'0,"7"-3"-9817"0"0,-7 18 2068 0 0,-2 20-2185 0 0,-12 105 1221 0 0,-5 30-641 0 0,23-158-665 0 0,-9 70 225 0 0,11-79-232 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,2 0-1 0 0,2 7 1 0 0,-4-11-18 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-2 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,3-1 0 0 0,39-16-149 0 0,-30 12 127 0 0,13-4 1 0 0,1 2 0 0 0,0 0 0 0 0,0 2 1 0 0,0 1-1 0 0,31-1 0 0 0,141 8 65 0 0,-34 1-61 0 0,-125-4 16 0 0,49-3 25 0 0,-79 2-17 0 0,0 0-1 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-2 1 0 0,11-4-1 0 0,-20 7 2 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1-2 0 0 0,-14-48 1 0 0,7 26-97 0 0,3-6-293 0 0,2-1 1 0 0,2 0-1 0 0,1 1 1 0 0,1-1-1 0 0,8-46 1 0 0,2-25 58 0 0,-11 101 374 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-4-4 1 0 0,1 3-12 0 0,1-1 0 0 0,-1 1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,-7-2 0 0 0,-9 0-35 0 0,1 0 0 0 0,-1 1-1 0 0,-40 0 1 0 0,51 3-9 0 0,-59 0-374 0 0,-134 18 0 0 0,-65 32 259 0 0,245-43 569 0 0,13 0-3543 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36568.71">3508 431 5617 0 0,'-16'26'8478'0'0,"1"3"-4460"0"0,0 8-3402 0 0,-4 17-4002 0 0,18-53 2766 0 0,0 5-2124 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36919.15">3608 370 16404 0 0,'1'11'7625'0'0,"-2"22"-7174"0"0,1-16-42 0 0,0-3-341 0 0,-1 1-1 0 0,0-1 1 0 0,-2 0-1 0 0,1 1 1 0 0,-10 25-1 0 0,11-35-48 0 0,0-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-8 1 0 0 0,11-3-16 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-3 1 0 0,-1 2-16 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,3-2 0 0 0,7 0-835 0 0,24-5-1845 0 0,-24 7-2582 0 0,2 1-4421 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36920.15">3374 758 17868 0 0,'40'-7'8210'0'0,"26"-17"-7308"0"0,-5 2-903 0 0,-44 17-435 0 0,45-12-1140 0 0,-21 8-7938 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="37309.35">3517 764 15363 0 0,'6'-3'5239'0'0,"18"-6"-3191"0"0,-9 4-1112 0 0,43-10 373 0 0,-54 15-1289 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,6 3 0 0 0,-9-4-20 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-7 25 30 0 0,-20 22-12 0 0,26-48-22 0 0,-14 31 33 0 0,15-31-29 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 1 0 0,0 1-4 0 0,0-1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,2-1 0 0 0,9-6-961 0 0,-1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,-1 0 1 0 0,0-1 0 0 0,11-13-1 0 0,7-7-7502 0 0,-11 15 402 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="37965.13">3770 430 12619 0 0,'-1'-1'889'0'0,"1"1"-808"0"0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,1-2 1618 0 0,0 2-1617 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,15-5 1723 0 0,18-2-1174 0 0,24 5-532 0 0,-53 2-153 0 0,-1 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,2 2-1 0 0,-4-3 49 0 0,0 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-2 1 1 0 0,-33 32 226 0 0,35-33-227 0 0,0 0 13 0 0,-22 18 212 0 0,0-1-1 0 0,-1-1 1 0 0,-1 0 0 0 0,-39 18 0 0 0,81-44-531 0 0,0-1 1 0 0,28-20 0 0 0,-21 13-80 0 0,33-18 0 0 0,-105 91 3211 0 0,33-41-2397 0 0,8-9-204 0 0,0 0 0 0 0,0 1-1 0 0,0 0 1 0 0,1 1 0 0 0,0-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-5 11 1 0 0,10-19-213 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,12-3 46 0 0,13-10-165 0 0,-26 11 108 0 0,22-11-622 0 0,-1-2-1 0 0,0 0 1 0 0,-1-1 0 0 0,-1-1-1 0 0,0-1 1 0 0,-1-1 0 0 0,17-22-1 0 0,-22 23 773 0 0,-1-1-1 0 0,16-30 919 0 0,-47 81 1929 0 0,14-24-2758 0 0,-2 1-123 0 0,0 1 0 0 0,1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,0 1 0 0 0,-4 16 0 0 0,9-27-109 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,16-5 26 0 0,12-15 11 0 0,-20 11-31 0 0,0 0-1 0 0,0-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-2-1-1 0 0,1 0 0 0 0,6-18 1 0 0,-8 19-3 0 0,0 21 40 0 0,1 24 1666 0 0,-3 1-3507 0 0,-3-11-3571 0 0,-4-5-4978 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="38362.16">3858 734 17516 0 0,'-3'-4'6992'0'0,"3"4"-6889"0"0,12-11 1722 0 0,16-7-1631 0 0,-11 10-116 0 0,1 1-1 0 0,0 1 1 0 0,20-5 0 0 0,-33 9-79 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,7 4 1 0 0,-10-3 30 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,-1 7-1 0 0,-13 36-2772 0 0,5-27-2090 0 0,0-4-3331 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="37965.11">3770 430 12619 0 0,'-1'-1'889'0'0,"1"1"-808"0"0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,1-2 1618 0 0,0 2-1617 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,15-5 1723 0 0,18-2-1174 0 0,24 5-532 0 0,-53 2-153 0 0,-1 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,2 2-1 0 0,-4-3 49 0 0,0 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-2 1 1 0 0,-33 32 226 0 0,35-33-227 0 0,0 0 13 0 0,-22 18 212 0 0,0-1-1 0 0,-1-1 1 0 0,-1 0 0 0 0,-39 18 0 0 0,81-44-531 0 0,0-1 1 0 0,28-20 0 0 0,-21 13-80 0 0,33-18 0 0 0,-105 91 3211 0 0,33-41-2397 0 0,8-9-204 0 0,0 0 0 0 0,0 1-1 0 0,0 0 1 0 0,1 1 0 0 0,0-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-5 11 1 0 0,10-19-213 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,12-3 46 0 0,13-10-165 0 0,-26 11 108 0 0,22-11-622 0 0,-1-2-1 0 0,0 0 1 0 0,-1-1 0 0 0,-1-1-1 0 0,0-1 1 0 0,-1-1 0 0 0,17-22-1 0 0,-22 23 773 0 0,-1-1-1 0 0,16-30 919 0 0,-47 81 1929 0 0,14-24-2758 0 0,-2 1-123 0 0,0 1 0 0 0,1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,0 1 0 0 0,-4 16 0 0 0,9-27-109 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,16-5 26 0 0,12-15 11 0 0,-20 11-31 0 0,0 0-1 0 0,0-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-2-1-1 0 0,1 0 0 0 0,6-18 1 0 0,-8 19-3 0 0,0 21 40 0 0,1 24 1666 0 0,-3 1-3507 0 0,-3-11-3571 0 0,-4-5-4978 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="38362.15">3858 734 17516 0 0,'-3'-4'6992'0'0,"3"4"-6889"0"0,12-11 1722 0 0,16-7-1631 0 0,-11 10-116 0 0,1 1-1 0 0,0 1 1 0 0,20-5 0 0 0,-33 9-79 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,7 4 1 0 0,-10-3 30 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,-1 7-1 0 0,-13 36-2772 0 0,5-27-2090 0 0,0-4-3331 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="39299.74">3896 1033 8554 0 0,'-5'6'1682'0'0,"1"0"1"0"0,0 0 0 0 0,0 1-1 0 0,-4 10 1 0 0,-9 32 1871 0 0,1 55-2310 0 0,11-69-11 0 0,0 9-878 0 0,1-1-1 0 0,2 1 1 0 0,2-1-1 0 0,9 69 1 0 0,-6-93-362 0 0,1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,1 1 0 0 0,1-1 0 0 0,0-1 0 0 0,1 1 0 0 0,1-2 0 0 0,1 1 0 0 0,0-1 0 0 0,2 0 0 0 0,24 27 0 0 0,-30-38 13 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,12-1-1 0 0,1 0-203 0 0,1-1 0 0 0,23-4 0 0 0,13-6-3254 0 0,7 0-6123 0 0,-51 9 2619 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="39882.19">3908 1044 8354 0 0,'0'0'257'0'0,"-3"-4"2568"0"0,3 4-2568 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,-12 15 3234 0 0,-9 35-3722 0 0,17-38 1282 0 0,-7 18-1341 0 0,-61 135 1661 0 0,28-87-3793 0 0,-9-6-6034 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="39883.19">3902 1132 15123 0 0,'0'4'6500'0'0,"3"17"-4655"0"0,-2-13-1693 0 0,0 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,0 0 0 0 0,9 11-1 0 0,-7-12-672 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,11 5 0 0 0,17 7-7585 0 0,-16-9-183 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="39882.18">3908 1044 8354 0 0,'0'0'257'0'0,"-3"-4"2568"0"0,3 4-2568 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,-12 15 3234 0 0,-9 35-3722 0 0,17-38 1282 0 0,-7 18-1341 0 0,-61 135 1661 0 0,28-87-3793 0 0,-9-6-6034 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="39883.18">3902 1132 15123 0 0,'0'4'6500'0'0,"3"17"-4655"0"0,-2-13-1693 0 0,0 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,0 0 0 0 0,9 11-1 0 0,-7-12-672 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,11 5 0 0 0,17 7-7585 0 0,-16-9-183 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="40278.07">4391 1614 5553 0 0,'-3'10'14137'0'0,"-2"-2"-10892"0"0,-4 7-2732 0 0,-7 14-368 0 0,-36 84 931 0 0,20-45-2226 0 0,-32 95 0 0 0,63-160 421 0 0,-4 21-1549 0 0,4-17-1885 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="40279.07">4319 1744 15283 0 0,'-4'2'9456'0'0,"4"-2"-9310"0"0,2 16 1802 0 0,9 18-2398 0 0,-6-27 217 0 0,-1 0 0 0 0,2 1 0 0 0,-1-2-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,9 7 0 0 0,8 2-3750 0 0,2-3-3757 0 0,-10-7-662 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="40280.07">4395 1804 17604 0 0,'-16'-2'4011'0'0,"19"-3"-1828"0"0,30-7-1186 0 0,-21 8-1116 0 0,82-38-2724 0 0,-36 8-7976 0 0,-43 23 3918 0 0</inkml:trace>
@@ -2767,11 +2833,11 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="40666.99">4368 1995 19332 0 0,'-3'3'422'0'0,"0"1"-1"0"0,1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,0 9 0 0 0,0-8-253 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,7 6 0 0 0,-4-5-165 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,7 0-1 0 0,-5-2-185 0 0,-1 0-1 0 0,1-1 0 0 0,0 0 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,10-9 0 0 0,30-28-4254 0 0,-8-3-6715 0 0,-27 27 2777 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="41016.78">4717 1671 14395 0 0,'-1'-6'9567'0'0,"1"6"-9408"0"0,19-13 1869 0 0,26-10-2470 0 0,12 2 191 0 0,-10 3-3726 0 0,-16 7-4867 0 0,-20 7 1082 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="41438.05">4709 1750 12051 0 0,'-14'11'7686'0'0,"24"-10"-3856"0"0,29-9-2482 0 0,37-29-1114 0 0,-57 26-387 0 0,2 1-1 0 0,0 0 0 0 0,32-9 1 0 0,-54 24-507 0 0,-10 8 667 0 0,-15 13 402 0 0,-49 51 1115 0 0,68-68-1376 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,1 0 0 0 0,0-1 0 0 0,-3 12-1 0 0,6-19-137 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,1 4 1 0 0,-1-5-13 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,2 1 0 0 0,1-1-34 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,6-3 0 0 0,12-8-115 0 0,0-1 0 0 0,-1-1 1 0 0,-1-1-1 0 0,0 0 1 0 0,-1-2-1 0 0,-1 0 0 0 0,-1-1 1 0 0,-1-1-1 0 0,0 0 1 0 0,-1-1-1 0 0,-2 0 0 0 0,0-1 1 0 0,-1-1-1 0 0,11-31 1 0 0,-22 52 1593 0 0,-2 6-570 0 0,-6 14-308 0 0,-8 29-476 0 0,10-23 20 0 0,4-16-96 0 0,-1 0-1 0 0,1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,2 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,2 13 0 0 0,-3-20-15 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,14-10-80 0 0,9-22-163 0 0,103-200-567 0 0,-105 186 987 0 0,-28 127 382 0 0,-13 57-2260 0 0,8-93-2853 0 0,-2 0-5144 0 0,7-27 1353 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="41873.77">4932 2117 20812 0 0,'0'0'163'0'0,"-1"-1"1"0"0,1 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-2 1 0 0,15-18 1176 0 0,21-11-1019 0 0,-17 17-276 0 0,1 0-1 0 0,0 2 1 0 0,26-12 0 0 0,-39 21-60 0 0,0 0 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,12-1-1 0 0,-16 2-8 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,5 4 1 0 0,-6-4 46 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,-1 7 1 0 0,1-3-629 0 0,-1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,-4 10-1 0 0,-5 3-4710 0 0,-1-4-3672 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="41874.77">5361 1487 17180 0 0,'-6'-3'1450'0'0,"9"1"-587"0"0,21-3-579 0 0,34 1-3276 0 0,-22 2-2318 0 0,-12 2-1987 0 0,-11 0 3127 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="41873.75">4932 2117 20812 0 0,'0'0'163'0'0,"-1"-1"1"0"0,1 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-2 1 0 0,15-18 1176 0 0,21-11-1019 0 0,-17 17-276 0 0,1 0-1 0 0,0 2 1 0 0,26-12 0 0 0,-39 21-60 0 0,0 0 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,12-1-1 0 0,-16 2-8 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,5 4 1 0 0,-6-4 46 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,-1 7 1 0 0,1-3-629 0 0,-1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,-4 10-1 0 0,-5 3-4710 0 0,-1-4-3672 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="41874.75">5361 1487 17180 0 0,'-6'-3'1450'0'0,"9"1"-587"0"0,21-3-579 0 0,34 1-3276 0 0,-22 2-2318 0 0,-12 2-1987 0 0,-11 0 3127 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="42277.11">5282 1669 17324 0 0,'21'-1'5744'0'0,"48"-4"-3989"0"0,-64 5-1763 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,7 5 0 0 0,-10-6 9 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 2 0 0 0,-22 48 36 0 0,16-39-10 0 0,-15 28 74 0 0,15-30 10 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 1 0 0,1 0-1 0 0,0-1 0 0 0,-3 18 0 0 0,7-28-111 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,16-7-77 0 0,14-21-374 0 0,-18 14 56 0 0,-1-1-1 0 0,-1-1 1 0 0,11-17-1 0 0,-19 26 303 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0-5-1 0 0,0 11 95 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-2-1 0 0 0,1 0 28 0 0,0 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1 0 0 0,-3 1-1 0 0,-4 1-375 0 0,-1 1 0 0 0,1 1 0 0 0,0-1 0 0 0,-10 8 0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="42659.79">5670 1567 18308 0 0,'-16'31'5562'0'0,"1"26"-2941"0"0,6-21-2064 0 0,6-25-755 0 0,0 0-1 0 0,1 0 0 0 0,0 15 0 0 0,1-7-4776 0 0,1 1-6857 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="42660.69">5630 1760 14955 0 0,'-1'-1'436'0'0,"0"-1"-1"0"0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,0-1-1 0 0,0 0-190 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,3-1-1 0 0,-2 1-531 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,5 2 1 0 0,-1 3-5585 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="42659.78">5670 1567 18308 0 0,'-16'31'5562'0'0,"1"26"-2941"0"0,6-21-2064 0 0,6-25-755 0 0,0 0-1 0 0,1 0 0 0 0,0 15 0 0 0,1-7-4776 0 0,1 1-6857 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="42660.68">5630 1760 14955 0 0,'-1'-1'436'0'0,"0"-1"-1"0"0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,0-1-1 0 0,0 0-190 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,3-1-1 0 0,-2 1-531 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,5 2 1 0 0,-1 3-5585 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="43052.85">5458 2027 16836 0 0,'8'-7'7848'0'0,"3"-1"-7619"0"0,1 2 0 0 0,21-11 0 0 0,-27 15-221 0 0,-1 0-10 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,10 2 0 0 0,-15-1 6 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-2 1 0 0 0,-19 32 273 0 0,6-16 54 0 0,11-13-180 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,-1 10 0 0 0,4-16-144 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,16-6 47 0 0,13-13-162 0 0,59-58-2052 0 0,-39 32-1542 0 0,3 3-4589 0 0,-32 29-38 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="43390.77">6310 1430 11835 0 0,'-3'7'11493'0'0,"-4"10"-7295"0"0,-18 47-4333 0 0,-1 4 332 0 0,-10 29-729 0 0,18-32-3955 0 0,17-54 1157 0 0,2-3-2897 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="43391.77">6288 1564 16195 0 0,'-15'-4'8144'0'0,"21"6"-4554"0"0,35 5-2996 0 0,-22-6-1194 0 0,38 2-1807 0 0,-38 0-1822 0 0,0 1-3343 0 0</inkml:trace>
@@ -3087,7 +3153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9685DD35-646D-4F18-B38B-7C194FF0E322}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C34" sqref="A34:C34"/>
     </sheetView>
   </sheetViews>
@@ -3097,18 +3163,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33" customHeight="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="35" t="s">
@@ -3395,6 +3461,122 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA6B292-9C02-47D3-B0BB-D8AF08FD456F}">
+  <dimension ref="A2:A21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="75" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="75" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="75" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="75" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="75" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="75" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="75" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="75" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="75" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" s="1" customFormat="1">
+      <c r="A13" s="75" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="75" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="75" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="75" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="75" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="75" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="75" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="75" t="s">
+        <v>263</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A8C1CE-C1F0-4982-85A8-F917430450C0}">
   <dimension ref="B2:L23"/>
   <sheetViews>
@@ -3668,7 +3850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7031D8E7-E59D-4CF6-92A4-F7402D47A7CE}">
   <dimension ref="B1:P48"/>
   <sheetViews>
@@ -3701,17 +3883,17 @@
       <c r="B4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="80"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="84"/>
     </row>
     <row r="5" spans="2:16">
       <c r="B5" s="14" t="s">
@@ -3730,7 +3912,7 @@
       <c r="K5" s="9"/>
     </row>
     <row r="6" spans="2:16">
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="78" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="32" t="s">
@@ -3748,7 +3930,7 @@
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="2:16">
-      <c r="B7" s="75"/>
+      <c r="B7" s="79"/>
       <c r="C7" s="14" t="s">
         <v>7</v>
       </c>
@@ -3796,7 +3978,7 @@
       <c r="K9" s="9"/>
     </row>
     <row r="10" spans="2:16">
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="78" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -3814,8 +3996,8 @@
       <c r="K10" s="9"/>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="75"/>
-      <c r="C11" s="74" t="s">
+      <c r="B11" s="79"/>
+      <c r="C11" s="78" t="s">
         <v>63</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -3830,8 +4012,8 @@
       <c r="K11" s="9"/>
     </row>
     <row r="12" spans="2:16" s="1" customFormat="1">
-      <c r="B12" s="75"/>
-      <c r="C12" s="76"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="80"/>
       <c r="D12" s="8" t="s">
         <v>83</v>
       </c>
@@ -3844,7 +4026,7 @@
       <c r="K12" s="9"/>
     </row>
     <row r="13" spans="2:16">
-      <c r="B13" s="76"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
@@ -3870,18 +4052,18 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
       <c r="E16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="78" t="s">
+      <c r="F16" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="G16" s="78"/>
+      <c r="G16" s="82"/>
       <c r="H16" s="7" t="s">
         <v>96</v>
       </c>
@@ -3891,26 +4073,26 @@
       <c r="J16" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="K16" s="78" t="s">
+      <c r="K16" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="L16" s="78"/>
+      <c r="L16" s="82"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
       <c r="E17" s="4">
         <v>10</v>
       </c>
-      <c r="F17" s="77" t="s">
+      <c r="F17" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="77"/>
+      <c r="G17" s="81"/>
       <c r="H17" s="4">
         <v>11</v>
       </c>
@@ -3918,10 +4100,10 @@
       <c r="J17" s="20">
         <v>10</v>
       </c>
-      <c r="K17" s="77" t="s">
+      <c r="K17" s="81" t="s">
         <v>164</v>
       </c>
-      <c r="L17" s="77"/>
+      <c r="L17" s="81"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
@@ -3930,10 +4112,10 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="77" t="s">
+      <c r="F18" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="77"/>
+      <c r="G18" s="81"/>
       <c r="H18" s="4">
         <v>21</v>
       </c>
@@ -3941,10 +4123,10 @@
       <c r="J18" s="20">
         <v>10</v>
       </c>
-      <c r="K18" s="77" t="s">
+      <c r="K18" s="81" t="s">
         <v>167</v>
       </c>
-      <c r="L18" s="77"/>
+      <c r="L18" s="81"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
@@ -3964,10 +4146,10 @@
       <c r="J19" s="39">
         <v>10</v>
       </c>
-      <c r="K19" s="77" t="s">
+      <c r="K19" s="81" t="s">
         <v>165</v>
       </c>
-      <c r="L19" s="77"/>
+      <c r="L19" s="81"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
@@ -3987,10 +4169,10 @@
       <c r="J20" s="39">
         <v>10</v>
       </c>
-      <c r="K20" s="81" t="s">
+      <c r="K20" s="85" t="s">
         <v>166</v>
       </c>
-      <c r="L20" s="81"/>
+      <c r="L20" s="85"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
@@ -4010,10 +4192,10 @@
       <c r="J21" s="39">
         <v>10</v>
       </c>
-      <c r="K21" s="81" t="s">
+      <c r="K21" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="L21" s="81"/>
+      <c r="L21" s="85"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
@@ -4033,19 +4215,19 @@
       <c r="J22" s="39">
         <v>10</v>
       </c>
-      <c r="K22" s="81" t="s">
+      <c r="K22" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="L22" s="81"/>
+      <c r="L22" s="85"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="77" t="s">
+      <c r="B23" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
       <c r="E23" s="20">
         <v>20</v>
       </c>
@@ -4062,10 +4244,10 @@
       <c r="J23" s="20">
         <v>11</v>
       </c>
-      <c r="K23" s="77" t="s">
+      <c r="K23" s="81" t="s">
         <v>168</v>
       </c>
-      <c r="L23" s="77"/>
+      <c r="L23" s="81"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
@@ -4080,10 +4262,10 @@
       <c r="J24" s="20">
         <v>21</v>
       </c>
-      <c r="K24" s="77" t="s">
+      <c r="K24" s="81" t="s">
         <v>169</v>
       </c>
-      <c r="L24" s="77"/>
+      <c r="L24" s="81"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
@@ -4098,10 +4280,10 @@
       <c r="J25" s="20">
         <v>31</v>
       </c>
-      <c r="K25" s="77" t="s">
+      <c r="K25" s="81" t="s">
         <v>170</v>
       </c>
-      <c r="L25" s="77"/>
+      <c r="L25" s="81"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
@@ -4116,10 +4298,10 @@
       <c r="J26" s="20">
         <v>41</v>
       </c>
-      <c r="K26" s="77" t="s">
+      <c r="K26" s="81" t="s">
         <v>171</v>
       </c>
-      <c r="L26" s="77"/>
+      <c r="L26" s="81"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
@@ -4139,10 +4321,10 @@
       <c r="J27" s="20">
         <v>11</v>
       </c>
-      <c r="K27" s="77" t="s">
+      <c r="K27" s="81" t="s">
         <v>172</v>
       </c>
-      <c r="L27" s="77"/>
+      <c r="L27" s="81"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
@@ -4157,10 +4339,10 @@
       <c r="J28" s="20">
         <v>21</v>
       </c>
-      <c r="K28" s="77" t="s">
+      <c r="K28" s="81" t="s">
         <v>173</v>
       </c>
-      <c r="L28" s="77"/>
+      <c r="L28" s="81"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
@@ -4175,10 +4357,10 @@
       <c r="J29" s="20">
         <v>31</v>
       </c>
-      <c r="K29" s="77" t="s">
+      <c r="K29" s="81" t="s">
         <v>174</v>
       </c>
-      <c r="L29" s="77"/>
+      <c r="L29" s="81"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
@@ -4196,10 +4378,10 @@
       <c r="J30" s="20">
         <v>41</v>
       </c>
-      <c r="K30" s="77" t="s">
+      <c r="K30" s="81" t="s">
         <v>175</v>
       </c>
-      <c r="L30" s="77"/>
+      <c r="L30" s="81"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
@@ -4221,10 +4403,10 @@
       <c r="J31" s="20">
         <v>11</v>
       </c>
-      <c r="K31" s="77" t="s">
+      <c r="K31" s="81" t="s">
         <v>176</v>
       </c>
-      <c r="L31" s="77"/>
+      <c r="L31" s="81"/>
     </row>
     <row r="32" spans="2:16">
       <c r="B32" s="15"/>
@@ -4237,10 +4419,10 @@
       <c r="J32" s="20">
         <v>21</v>
       </c>
-      <c r="K32" s="77" t="s">
+      <c r="K32" s="81" t="s">
         <v>177</v>
       </c>
-      <c r="L32" s="77"/>
+      <c r="L32" s="81"/>
     </row>
     <row r="33" spans="2:12">
       <c r="B33" s="15"/>
@@ -4253,10 +4435,10 @@
       <c r="J33" s="20">
         <v>31</v>
       </c>
-      <c r="K33" s="77" t="s">
+      <c r="K33" s="81" t="s">
         <v>178</v>
       </c>
-      <c r="L33" s="77"/>
+      <c r="L33" s="81"/>
     </row>
     <row r="34" spans="2:12" s="1" customFormat="1">
       <c r="B34" s="15"/>
@@ -4272,10 +4454,10 @@
       <c r="J34" s="20">
         <v>41</v>
       </c>
-      <c r="K34" s="77" t="s">
+      <c r="K34" s="81" t="s">
         <v>179</v>
       </c>
-      <c r="L34" s="77"/>
+      <c r="L34" s="81"/>
     </row>
     <row r="35" spans="2:12">
       <c r="B35" s="15"/>
@@ -4295,10 +4477,10 @@
       <c r="J35" s="20">
         <v>11</v>
       </c>
-      <c r="K35" s="77" t="s">
+      <c r="K35" s="81" t="s">
         <v>180</v>
       </c>
-      <c r="L35" s="77"/>
+      <c r="L35" s="81"/>
     </row>
     <row r="36" spans="2:12">
       <c r="B36" s="15"/>
@@ -4314,10 +4496,10 @@
       <c r="J36" s="20">
         <v>21</v>
       </c>
-      <c r="K36" s="77" t="s">
+      <c r="K36" s="81" t="s">
         <v>181</v>
       </c>
-      <c r="L36" s="77"/>
+      <c r="L36" s="81"/>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="15"/>
@@ -4333,10 +4515,10 @@
       <c r="J37" s="20">
         <v>31</v>
       </c>
-      <c r="K37" s="77" t="s">
+      <c r="K37" s="81" t="s">
         <v>182</v>
       </c>
-      <c r="L37" s="77"/>
+      <c r="L37" s="81"/>
     </row>
     <row r="38" spans="2:12">
       <c r="B38" s="15"/>
@@ -4352,17 +4534,17 @@
       <c r="J38" s="20">
         <v>41</v>
       </c>
-      <c r="K38" s="77" t="s">
+      <c r="K38" s="81" t="s">
         <v>183</v>
       </c>
-      <c r="L38" s="77"/>
+      <c r="L38" s="81"/>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="82" t="s">
+      <c r="B39" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="83"/>
-      <c r="D39" s="84"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="88"/>
       <c r="E39" s="19">
         <v>30</v>
       </c>
@@ -4377,10 +4559,10 @@
       <c r="J39" s="20">
         <v>11</v>
       </c>
-      <c r="K39" s="77" t="s">
+      <c r="K39" s="81" t="s">
         <v>205</v>
       </c>
-      <c r="L39" s="77"/>
+      <c r="L39" s="81"/>
     </row>
     <row r="40" spans="2:12">
       <c r="I40" s="41" t="s">
@@ -4389,10 +4571,10 @@
       <c r="J40" s="41">
         <v>21</v>
       </c>
-      <c r="K40" s="77" t="s">
+      <c r="K40" s="81" t="s">
         <v>188</v>
       </c>
-      <c r="L40" s="77"/>
+      <c r="L40" s="81"/>
     </row>
     <row r="41" spans="2:12">
       <c r="I41" s="41" t="s">
@@ -4401,10 +4583,10 @@
       <c r="J41" s="41">
         <v>31</v>
       </c>
-      <c r="K41" s="77" t="s">
+      <c r="K41" s="81" t="s">
         <v>206</v>
       </c>
-      <c r="L41" s="77"/>
+      <c r="L41" s="81"/>
     </row>
     <row r="42" spans="2:12">
       <c r="I42" s="41" t="s">
@@ -4413,10 +4595,10 @@
       <c r="J42" s="41">
         <v>41</v>
       </c>
-      <c r="K42" s="77" t="s">
+      <c r="K42" s="81" t="s">
         <v>207</v>
       </c>
-      <c r="L42" s="77"/>
+      <c r="L42" s="81"/>
     </row>
     <row r="43" spans="2:12">
       <c r="I43" s="41" t="s">
@@ -4425,10 +4607,10 @@
       <c r="J43" s="41">
         <v>51</v>
       </c>
-      <c r="K43" s="77" t="s">
+      <c r="K43" s="81" t="s">
         <v>208</v>
       </c>
-      <c r="L43" s="77"/>
+      <c r="L43" s="81"/>
     </row>
     <row r="44" spans="2:12">
       <c r="I44" s="41" t="s">
@@ -4437,10 +4619,10 @@
       <c r="J44" s="41">
         <v>61</v>
       </c>
-      <c r="K44" s="77" t="s">
+      <c r="K44" s="81" t="s">
         <v>209</v>
       </c>
-      <c r="L44" s="77"/>
+      <c r="L44" s="81"/>
     </row>
     <row r="46" spans="2:12" s="3" customFormat="1">
       <c r="B46" s="3" t="s">
@@ -4501,7 +4683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB72675-8795-4DA3-A916-AE0915099200}">
   <dimension ref="B1:H33"/>
   <sheetViews>
@@ -4540,17 +4722,17 @@
       <c r="B4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="80"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="84"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="78" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -4563,7 +4745,7 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="2:8" s="1" customFormat="1">
-      <c r="B6" s="76"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="8" t="s">
         <v>38</v>
       </c>
@@ -4574,7 +4756,7 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="78" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -4589,8 +4771,8 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="75"/>
-      <c r="C8" s="74" t="s">
+      <c r="B8" s="79"/>
+      <c r="C8" s="78" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -4602,8 +4784,8 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8" s="1" customFormat="1">
-      <c r="B9" s="75"/>
-      <c r="C9" s="76"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="80"/>
       <c r="D9" s="8" t="s">
         <v>194</v>
       </c>
@@ -4613,7 +4795,7 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8" s="1" customFormat="1">
-      <c r="B10" s="75"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="59" t="s">
         <v>113</v>
       </c>
@@ -4626,7 +4808,7 @@
       <c r="H10" s="63"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="76"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="4" t="s">
         <v>61</v>
       </c>
@@ -4642,17 +4824,17 @@
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="78" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -4667,7 +4849,7 @@
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="76"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="4" t="s">
         <v>15</v>
       </c>
@@ -4858,7 +5040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B521D6-2D85-4E20-A231-43C3768C3612}">
   <dimension ref="B1:L42"/>
   <sheetViews>
@@ -4894,17 +5076,17 @@
       <c r="B4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="80"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="84"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="78" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -4917,7 +5099,7 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="2:8" s="1" customFormat="1">
-      <c r="B6" s="75"/>
+      <c r="B6" s="79"/>
       <c r="C6" s="8" t="s">
         <v>22</v>
       </c>
@@ -4928,7 +5110,7 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="76"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="8" t="s">
         <v>114</v>
       </c>
@@ -4939,7 +5121,7 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="78" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -4954,8 +5136,8 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="75"/>
-      <c r="C9" s="74" t="s">
+      <c r="B9" s="79"/>
+      <c r="C9" s="78" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -4967,8 +5149,8 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="8" t="s">
         <v>23</v>
       </c>
@@ -4978,8 +5160,8 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="2:8" s="1" customFormat="1">
-      <c r="B11" s="75"/>
-      <c r="C11" s="76"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="80"/>
       <c r="D11" s="51" t="s">
         <v>216</v>
       </c>
@@ -4989,8 +5171,8 @@
       <c r="H11" s="52"/>
     </row>
     <row r="12" spans="2:8" s="1" customFormat="1">
-      <c r="B12" s="75"/>
-      <c r="C12" s="74" t="s">
+      <c r="B12" s="79"/>
+      <c r="C12" s="78" t="s">
         <v>113</v>
       </c>
       <c r="D12" s="33" t="s">
@@ -5002,8 +5184,8 @@
       <c r="H12" s="68"/>
     </row>
     <row r="13" spans="2:8" s="1" customFormat="1">
-      <c r="B13" s="75"/>
-      <c r="C13" s="76"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="26" t="s">
         <v>239</v>
       </c>
@@ -5013,7 +5195,7 @@
       <c r="H13" s="34"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="76"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="4" t="s">
         <v>61</v>
       </c>
@@ -5042,12 +5224,12 @@
       <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="86" t="s">
         <v>228</v>
       </c>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
     </row>
@@ -5065,10 +5247,10 @@
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="74" t="s">
+      <c r="C18" s="78" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -5080,8 +5262,8 @@
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="2:12" s="1" customFormat="1">
-      <c r="B19" s="75"/>
-      <c r="C19" s="76"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="80"/>
       <c r="D19" s="8" t="s">
         <v>26</v>
       </c>
@@ -5091,7 +5273,7 @@
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="76"/>
+      <c r="B20" s="80"/>
       <c r="C20" s="4" t="s">
         <v>15</v>
       </c>
@@ -5168,7 +5350,7 @@
       <c r="J24" s="69">
         <v>1</v>
       </c>
-      <c r="K24" s="87">
+      <c r="K24" s="73">
         <v>0.1</v>
       </c>
       <c r="L24" s="69" t="s">
@@ -5198,7 +5380,7 @@
       <c r="J25" s="69">
         <v>3</v>
       </c>
-      <c r="K25" s="88">
+      <c r="K25" s="74">
         <v>0.15</v>
       </c>
       <c r="L25" s="69" t="s">
@@ -5228,7 +5410,7 @@
       <c r="J26" s="69">
         <v>7</v>
       </c>
-      <c r="K26" s="87">
+      <c r="K26" s="73">
         <v>0.3</v>
       </c>
       <c r="L26" s="69" t="s">
@@ -5258,10 +5440,10 @@
       <c r="J27" s="69">
         <v>13</v>
       </c>
-      <c r="K27" s="87">
+      <c r="K27" s="73">
         <v>0.5</v>
       </c>
-      <c r="L27" s="86" t="s">
+      <c r="L27" s="72" t="s">
         <v>251</v>
       </c>
     </row>
@@ -5382,12 +5564,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5AC036-5AF3-43C9-8DCB-8CAD147E7305}">
   <dimension ref="B1:H25"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -5418,17 +5600,17 @@
       <c r="B4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="80"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="84"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="78" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -5441,7 +5623,7 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="76"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="8" t="s">
         <v>88</v>
       </c>
@@ -5452,7 +5634,7 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="78" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -5467,8 +5649,8 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="75"/>
-      <c r="C8" s="74" t="s">
+      <c r="B8" s="79"/>
+      <c r="C8" s="78" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -5480,8 +5662,8 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="75"/>
-      <c r="C9" s="76"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="80"/>
       <c r="D9" s="8" t="s">
         <v>23</v>
       </c>
@@ -5491,7 +5673,7 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8" s="1" customFormat="1">
-      <c r="B10" s="75"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="30" t="s">
         <v>113</v>
       </c>
@@ -5504,7 +5686,7 @@
       <c r="H10" s="34"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="76"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="4" t="s">
         <v>61</v>
       </c>
@@ -5530,7 +5712,7 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="2:8" s="1" customFormat="1">
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="78" t="s">
         <v>222</v>
       </c>
       <c r="C13" s="60" t="s">
@@ -5539,7 +5721,7 @@
       <c r="D13" s="62"/>
       <c r="E13" s="62"/>
       <c r="F13" s="62"/>
-      <c r="G13" s="77" t="s">
+      <c r="G13" s="81" t="s">
         <v>224</v>
       </c>
       <c r="H13" s="66">
@@ -5547,32 +5729,32 @@
       </c>
     </row>
     <row r="14" spans="2:8" s="1" customFormat="1">
-      <c r="B14" s="75"/>
+      <c r="B14" s="79"/>
       <c r="C14" s="60" t="s">
         <v>225</v>
       </c>
       <c r="D14" s="62"/>
       <c r="E14" s="62"/>
-      <c r="G14" s="77"/>
+      <c r="G14" s="81"/>
       <c r="H14" s="66">
         <v>0.3</v>
       </c>
     </row>
     <row r="15" spans="2:8" s="1" customFormat="1">
-      <c r="B15" s="76"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="60" t="s">
         <v>226</v>
       </c>
       <c r="D15" s="62"/>
       <c r="E15" s="62"/>
       <c r="F15" s="62"/>
-      <c r="G15" s="77"/>
+      <c r="G15" s="81"/>
       <c r="H15" s="66">
         <v>0.1</v>
       </c>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="78" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -5587,7 +5769,7 @@
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="76"/>
+      <c r="B17" s="80"/>
       <c r="C17" s="4" t="s">
         <v>15</v>
       </c>

--- a/Design/맵기믹 기획.xlsx
+++ b/Design/맵기믹 기획.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\PLUM\2022 8월 게임 프로젝트\Copy\PlumTowerDefecne\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F34DCC-2117-44C0-A3E9-73F6E42226E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EB5DE5-8371-4E2F-97F0-033E2076262D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="936" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{6ED0029A-6F1E-4A92-AB37-7B6700187FC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6ED0029A-6F1E-4A92-AB37-7B6700187FC9}"/>
   </bookViews>
   <sheets>
     <sheet name="VerCon" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="275">
   <si>
     <t>맵 기믹 기획서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,10 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기존 맵을 포함한 전체 맵에서 랜덤 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>컨셉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1075,29 +1071,14 @@
     <t>[x] 에셋 적용 되었는지</t>
   </si>
   <si>
-    <t>[ ] 클릭시 어떤 보상이 나왔는지 보물상자 위에 표시한 후 없어지면 좋을 듯</t>
-  </si>
-  <si>
     <t>[x] 곡괭이의 레벨에 따라 채굴 속도가 달라짐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[ ] 자원당 2~9번 채굴 가능해야함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[x] 에셋 잘 들어갔는지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[ ] 곡괭이가 안없어짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ ] 타일 수에 비례해서 비용이 드는지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[x] 몇개 생기는지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1107,6 +1088,38 @@
   </si>
   <si>
     <t>[x] 에셋 적용 되었는지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ver2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자원 생성 알고리즘 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확장되는 그라운드 바로 근처의 그라운드에서만 생성됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[x] 클릭시 어떤 보상이 나왔는지 보물상자 위에 표시한 후 없어지면 좋을 듯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[x] 곡괭이가 안없어짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[x] 자원당 2~9번 채굴 가능해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[x] 타일 수에 비례해서 비용이 드는지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발 체크리스트 체크 완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1349,7 +1362,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1578,12 +1591,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1591,30 +1634,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -2726,7 +2745,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="396.02">318 0 8058 0 0,'0'11'7588'0'0,"6"18"-5804"0"0,-5-27-1145 0 0,18 111 3239 0 0,-1 60-2199 0 0,-1-8-1339 0 0,-12-127-417 0 0,-4-18-358 0 0,1 0 1 0 0,2-1-1 0 0,0 1 0 0 0,0-1 0 0 0,10 21 1 0 0,-6-28-3445 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="765.04">418 372 1880 0 0,'-1'-1'627'0'0,"0"0"-1"0"0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1-2 0 0 0,18-8 3974 0 0,-8 6-5512 0 0,34-21-2802 0 0,-1-6-8943 0 0,-33 23 10941 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1144.27">590 87 5609 0 0,'-2'0'594'0'0,"0"0"1"0"0,1 0-1 0 0,-1-1 0 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-2 2 0 0 0,1 0-151 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-3 6 0 0 0,4-7-388 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,4 3 0 0 0,-4-5-62 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-2 0 0 0,5-3-418 0 0,-1 0 0 0 0,0-1 0 0 0,10-12 0 0 0,-11 12-69 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,3-10 0 0 0,-6 17 423 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-1-1 0 0 0,0 1-85 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-4 4-1 0 0,-32 45-773 0 0,29-38 800 0 0,-12 15 190 0 0,10-14 182 0 0,0 0 0 0 0,1 0 1 0 0,0 1-1 0 0,1 1 0 0 0,1 0 1 0 0,1 0-1 0 0,-8 24 0 0 0,15-41-145 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,3 0 294 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,5-5 0 0 0,-8 6-384 0 0,14-14 407 0 0,1 0 0 0 0,25-21-1 0 0,-36 33-461 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,2 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,6 1 0 0 0,-9 0 41 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 2 0 0 0,1 0 16 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,-2 4 1 0 0,-2 5 47 0 0,-1 1 0 0 0,0-1 0 0 0,-11 15 0 0 0,17-27-58 0 0,-9 14 5 0 0,-14 20-771 0 0,45-85-1385 0 0,26-33 3048 0 0,44-68-892 0 0,-92 150-22 0 0,2-2 19 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,2-7 220 0 0,-8 44-148 0 0,11 203-54 0 0,-3-183-4241 0 0,0 0-4371 0 0,-3-38 2522 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1655.67">561 417 15779 0 0,'-2'1'225'0'0,"1"-1"0"0"0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 2 0 0 0,1-2-156 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,3 0-1 0 0,8 0-223 0 0,0 1 0 0 0,1-2 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1-1 0 0 0,0 0 0 0 0,23-8-1 0 0,10-6-4496 0 0,-4-5-5059 0 0,-28 13 2593 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1655.66">561 417 15779 0 0,'-2'1'225'0'0,"1"-1"0"0"0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 2 0 0 0,1-2-156 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,3 0-1 0 0,8 0-223 0 0,0 1 0 0 0,1-2 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1-1 0 0 0,0 0 0 0 0,23-8-1 0 0,10-6-4496 0 0,-4-5-5059 0 0,-28 13 2593 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -3151,10 +3170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9685DD35-646D-4F18-B38B-7C194FF0E322}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C34" sqref="A34:C34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C37" sqref="A37:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -3163,291 +3182,316 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33" customHeight="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
+      <c r="A2" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="35" t="s">
         <v>45</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>46</v>
       </c>
       <c r="C3" s="31"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>47</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="31">
         <v>220819</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="31"/>
       <c r="B6" s="31"/>
       <c r="C6" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="31">
         <v>220820</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="31">
         <v>220821</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="31"/>
       <c r="B9" s="31"/>
       <c r="C9" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="31"/>
       <c r="B10" s="31"/>
       <c r="C10" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" s="31">
         <v>220823</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="31"/>
       <c r="B12" s="31"/>
       <c r="C12" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="31"/>
       <c r="B13" s="31"/>
       <c r="C13" s="31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="31"/>
       <c r="B14" s="31"/>
       <c r="C14" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="31"/>
       <c r="B15" s="31"/>
       <c r="C15" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="31"/>
       <c r="B16" s="31"/>
       <c r="C16" s="35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="31"/>
       <c r="B17" s="31"/>
       <c r="C17" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="31"/>
       <c r="B18" s="31"/>
       <c r="C18" s="35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B19" s="39">
         <v>220825</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="39"/>
       <c r="B20" s="39"/>
       <c r="C20" s="41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="39"/>
       <c r="B21" s="39"/>
       <c r="C21" s="41" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="46"/>
       <c r="B22" s="46"/>
       <c r="C22" s="47" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B23" s="46">
         <v>220827</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="46"/>
       <c r="B24" s="46"/>
       <c r="C24" s="47" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="46"/>
       <c r="B25" s="46"/>
       <c r="C25" s="47" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="49" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B26" s="49">
         <v>220828</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="49"/>
       <c r="B27" s="49"/>
       <c r="C27" s="50" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="53" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B28" s="53">
         <v>220830</v>
       </c>
       <c r="C28" s="57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="60" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B29" s="60">
         <v>220901</v>
       </c>
       <c r="C29" s="61" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="60"/>
       <c r="B30" s="60"/>
       <c r="C30" s="61" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="60"/>
       <c r="B31" s="60"/>
       <c r="C31" s="61" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="64" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B32" s="64">
         <v>220903</v>
       </c>
       <c r="C32" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="64"/>
       <c r="B33" s="64"/>
       <c r="C33" s="65" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="69" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B34" s="69">
         <v>220904</v>
       </c>
       <c r="C34" s="71" t="s">
-        <v>253</v>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="76" t="s">
+        <v>267</v>
+      </c>
+      <c r="B35" s="76">
+        <v>221004</v>
+      </c>
+      <c r="C35" s="77" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="76"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="77" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="76"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="77" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -3464,8 +3508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA6B292-9C02-47D3-B0BB-D8AF08FD456F}">
   <dimension ref="A2:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -3477,27 +3521,27 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="75" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="75" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="75" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="75" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="75" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -3507,67 +3551,67 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="75" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="75" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="75" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="75" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:1" s="1" customFormat="1">
       <c r="A13" s="75" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="75" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="75" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="75" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="75" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="75" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="75" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="75" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -3595,24 +3639,24 @@
   <sheetData>
     <row r="2" spans="2:12">
       <c r="B2" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="D2" s="46" t="s">
         <v>197</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="C3" s="46" t="s">
-        <v>200</v>
-      </c>
       <c r="D3" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:12">
@@ -3620,10 +3664,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="2:12">
@@ -3631,7 +3675,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D5" s="46" t="s">
         <v>1</v>
@@ -3642,7 +3686,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>11</v>
@@ -3653,25 +3697,25 @@
         <v>4</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="2:12" s="3" customFormat="1">
       <c r="B9" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="2:12" s="1" customFormat="1"/>
     <row r="11" spans="2:12">
       <c r="B11" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
@@ -3684,7 +3728,7 @@
     </row>
     <row r="12" spans="2:12">
       <c r="D12" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
@@ -3708,11 +3752,11 @@
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
@@ -3727,7 +3771,7 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
@@ -3740,7 +3784,7 @@
     </row>
     <row r="16" spans="2:12" s="1" customFormat="1">
       <c r="D16" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
@@ -3755,7 +3799,7 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
@@ -3768,7 +3812,7 @@
     </row>
     <row r="18" spans="2:12">
       <c r="D18" s="32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E18" s="33"/>
       <c r="F18" s="33"/>
@@ -3781,7 +3825,7 @@
     </row>
     <row r="19" spans="2:12">
       <c r="D19" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
@@ -3794,7 +3838,7 @@
     </row>
     <row r="20" spans="2:12">
       <c r="D20" s="32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
@@ -3807,7 +3851,7 @@
     </row>
     <row r="21" spans="2:12">
       <c r="D21" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E21" s="33"/>
       <c r="F21" s="33"/>
@@ -3820,7 +3864,7 @@
     </row>
     <row r="22" spans="2:12">
       <c r="D22" s="32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E22" s="33"/>
       <c r="F22" s="33"/>
@@ -3833,7 +3877,7 @@
     </row>
     <row r="23" spans="2:12">
       <c r="D23" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E23" s="33"/>
       <c r="F23" s="33"/>
@@ -3871,36 +3915,36 @@
   <sheetData>
     <row r="1" spans="2:16" s="3" customFormat="1">
       <c r="B1" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="2:16">
       <c r="B3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="2:16">
       <c r="B4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="83" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="84"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="86"/>
     </row>
     <row r="5" spans="2:16">
       <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="36"/>
       <c r="E5" s="8"/>
@@ -3912,7 +3956,7 @@
       <c r="K5" s="9"/>
     </row>
     <row r="6" spans="2:16">
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="88" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="32" t="s">
@@ -3930,12 +3974,12 @@
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="2:16">
-      <c r="B7" s="79"/>
+      <c r="B7" s="89"/>
       <c r="C7" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -3950,7 +3994,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="8"/>
@@ -3963,10 +4007,10 @@
     </row>
     <row r="9" spans="2:16">
       <c r="B9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -3978,14 +4022,14 @@
       <c r="K9" s="9"/>
     </row>
     <row r="10" spans="2:16">
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="88" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -3996,12 +4040,12 @@
       <c r="K10" s="9"/>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="79"/>
-      <c r="C11" s="78" t="s">
-        <v>63</v>
+      <c r="B11" s="89"/>
+      <c r="C11" s="88" t="s">
+        <v>62</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -4012,10 +4056,10 @@
       <c r="K11" s="9"/>
     </row>
     <row r="12" spans="2:16" s="1" customFormat="1">
-      <c r="B12" s="79"/>
-      <c r="C12" s="80"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="90"/>
       <c r="D12" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -4026,9 +4070,9 @@
       <c r="K12" s="9"/>
     </row>
     <row r="13" spans="2:16">
-      <c r="B13" s="80"/>
+      <c r="B13" s="90"/>
       <c r="C13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -4046,53 +4090,53 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="81" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="81"/>
+      <c r="H16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="K16" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="82" t="s">
-        <v>95</v>
-      </c>
-      <c r="G16" s="82"/>
-      <c r="H16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="K16" s="82" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" s="82"/>
+      <c r="L16" s="81"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
+      <c r="B17" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
       <c r="E17" s="4">
         <v>10</v>
       </c>
-      <c r="F17" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="81"/>
+      <c r="F17" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="80"/>
       <c r="H17" s="4">
         <v>11</v>
       </c>
@@ -4100,10 +4144,10 @@
       <c r="J17" s="20">
         <v>10</v>
       </c>
-      <c r="K17" s="81" t="s">
-        <v>164</v>
-      </c>
-      <c r="L17" s="81"/>
+      <c r="K17" s="80" t="s">
+        <v>163</v>
+      </c>
+      <c r="L17" s="80"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
@@ -4112,10 +4156,10 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="81"/>
+      <c r="F18" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="80"/>
       <c r="H18" s="4">
         <v>21</v>
       </c>
@@ -4123,10 +4167,10 @@
       <c r="J18" s="20">
         <v>10</v>
       </c>
-      <c r="K18" s="81" t="s">
-        <v>167</v>
-      </c>
-      <c r="L18" s="81"/>
+      <c r="K18" s="80" t="s">
+        <v>166</v>
+      </c>
+      <c r="L18" s="80"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
@@ -4136,7 +4180,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="39">
@@ -4146,10 +4190,10 @@
       <c r="J19" s="39">
         <v>10</v>
       </c>
-      <c r="K19" s="81" t="s">
-        <v>165</v>
-      </c>
-      <c r="L19" s="81"/>
+      <c r="K19" s="80" t="s">
+        <v>164</v>
+      </c>
+      <c r="L19" s="80"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
@@ -4159,7 +4203,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="39">
@@ -4169,10 +4213,10 @@
       <c r="J20" s="39">
         <v>10</v>
       </c>
-      <c r="K20" s="85" t="s">
-        <v>166</v>
-      </c>
-      <c r="L20" s="85"/>
+      <c r="K20" s="87" t="s">
+        <v>165</v>
+      </c>
+      <c r="L20" s="87"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
@@ -4182,7 +4226,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="39">
@@ -4192,10 +4236,10 @@
       <c r="J21" s="39">
         <v>10</v>
       </c>
-      <c r="K21" s="85" t="s">
-        <v>106</v>
-      </c>
-      <c r="L21" s="85"/>
+      <c r="K21" s="87" t="s">
+        <v>105</v>
+      </c>
+      <c r="L21" s="87"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
@@ -4205,7 +4249,7 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="39">
@@ -4215,39 +4259,39 @@
       <c r="J22" s="39">
         <v>10</v>
       </c>
-      <c r="K22" s="85" t="s">
-        <v>105</v>
-      </c>
-      <c r="L22" s="85"/>
+      <c r="K22" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="L22" s="87"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="81" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
+      <c r="B23" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
       <c r="E23" s="20">
         <v>20</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G23" s="18"/>
       <c r="H23" s="22">
         <v>11</v>
       </c>
       <c r="I23" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J23" s="20">
         <v>11</v>
       </c>
-      <c r="K23" s="81" t="s">
-        <v>168</v>
-      </c>
-      <c r="L23" s="81"/>
+      <c r="K23" s="80" t="s">
+        <v>167</v>
+      </c>
+      <c r="L23" s="80"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
@@ -4257,15 +4301,15 @@
       <c r="D24" s="6"/>
       <c r="E24" s="28"/>
       <c r="I24" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J24" s="20">
         <v>21</v>
       </c>
-      <c r="K24" s="81" t="s">
-        <v>169</v>
-      </c>
-      <c r="L24" s="81"/>
+      <c r="K24" s="80" t="s">
+        <v>168</v>
+      </c>
+      <c r="L24" s="80"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
@@ -4275,15 +4319,15 @@
       <c r="D25" s="6"/>
       <c r="E25" s="28"/>
       <c r="I25" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J25" s="20">
         <v>31</v>
       </c>
-      <c r="K25" s="81" t="s">
-        <v>170</v>
-      </c>
-      <c r="L25" s="81"/>
+      <c r="K25" s="80" t="s">
+        <v>169</v>
+      </c>
+      <c r="L25" s="80"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
@@ -4293,15 +4337,15 @@
       <c r="D26" s="6"/>
       <c r="E26" s="28"/>
       <c r="I26" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J26" s="20">
         <v>41</v>
       </c>
-      <c r="K26" s="81" t="s">
-        <v>171</v>
-      </c>
-      <c r="L26" s="81"/>
+      <c r="K26" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="L26" s="80"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
@@ -4309,22 +4353,22 @@
       <c r="B27" s="15"/>
       <c r="E27" s="28"/>
       <c r="F27" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G27" s="18"/>
       <c r="H27" s="22">
         <v>21</v>
       </c>
       <c r="I27" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J27" s="20">
         <v>11</v>
       </c>
-      <c r="K27" s="81" t="s">
-        <v>172</v>
-      </c>
-      <c r="L27" s="81"/>
+      <c r="K27" s="80" t="s">
+        <v>171</v>
+      </c>
+      <c r="L27" s="80"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
@@ -4334,15 +4378,15 @@
       <c r="D28" s="6"/>
       <c r="E28" s="28"/>
       <c r="I28" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J28" s="20">
         <v>21</v>
       </c>
-      <c r="K28" s="81" t="s">
-        <v>173</v>
-      </c>
-      <c r="L28" s="81"/>
+      <c r="K28" s="80" t="s">
+        <v>172</v>
+      </c>
+      <c r="L28" s="80"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
@@ -4352,15 +4396,15 @@
       <c r="D29" s="6"/>
       <c r="E29" s="28"/>
       <c r="I29" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J29" s="20">
         <v>31</v>
       </c>
-      <c r="K29" s="81" t="s">
-        <v>174</v>
-      </c>
-      <c r="L29" s="81"/>
+      <c r="K29" s="80" t="s">
+        <v>173</v>
+      </c>
+      <c r="L29" s="80"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
@@ -4373,15 +4417,15 @@
       <c r="G30" s="26"/>
       <c r="H30" s="6"/>
       <c r="I30" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J30" s="20">
         <v>41</v>
       </c>
-      <c r="K30" s="81" t="s">
-        <v>175</v>
-      </c>
-      <c r="L30" s="81"/>
+      <c r="K30" s="80" t="s">
+        <v>174</v>
+      </c>
+      <c r="L30" s="80"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
@@ -4391,22 +4435,22 @@
       <c r="D31" s="6"/>
       <c r="E31" s="28"/>
       <c r="F31" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G31" s="18"/>
       <c r="H31" s="22">
         <v>31</v>
       </c>
       <c r="I31" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J31" s="20">
         <v>11</v>
       </c>
-      <c r="K31" s="81" t="s">
-        <v>176</v>
-      </c>
-      <c r="L31" s="81"/>
+      <c r="K31" s="80" t="s">
+        <v>175</v>
+      </c>
+      <c r="L31" s="80"/>
     </row>
     <row r="32" spans="2:16">
       <c r="B32" s="15"/>
@@ -4414,15 +4458,15 @@
       <c r="D32" s="6"/>
       <c r="E32" s="28"/>
       <c r="I32" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J32" s="20">
         <v>21</v>
       </c>
-      <c r="K32" s="81" t="s">
-        <v>177</v>
-      </c>
-      <c r="L32" s="81"/>
+      <c r="K32" s="80" t="s">
+        <v>176</v>
+      </c>
+      <c r="L32" s="80"/>
     </row>
     <row r="33" spans="2:12">
       <c r="B33" s="15"/>
@@ -4430,15 +4474,15 @@
       <c r="D33" s="6"/>
       <c r="E33" s="28"/>
       <c r="I33" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J33" s="20">
         <v>31</v>
       </c>
-      <c r="K33" s="81" t="s">
-        <v>178</v>
-      </c>
-      <c r="L33" s="81"/>
+      <c r="K33" s="80" t="s">
+        <v>177</v>
+      </c>
+      <c r="L33" s="80"/>
     </row>
     <row r="34" spans="2:12" s="1" customFormat="1">
       <c r="B34" s="15"/>
@@ -4449,15 +4493,15 @@
       <c r="G34" s="26"/>
       <c r="H34" s="6"/>
       <c r="I34" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J34" s="20">
         <v>41</v>
       </c>
-      <c r="K34" s="81" t="s">
-        <v>179</v>
-      </c>
-      <c r="L34" s="81"/>
+      <c r="K34" s="80" t="s">
+        <v>178</v>
+      </c>
+      <c r="L34" s="80"/>
     </row>
     <row r="35" spans="2:12">
       <c r="B35" s="15"/>
@@ -4465,22 +4509,22 @@
       <c r="D35" s="6"/>
       <c r="E35" s="28"/>
       <c r="F35" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G35" s="18"/>
       <c r="H35" s="22">
         <v>41</v>
       </c>
       <c r="I35" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J35" s="20">
         <v>11</v>
       </c>
-      <c r="K35" s="81" t="s">
-        <v>180</v>
-      </c>
-      <c r="L35" s="81"/>
+      <c r="K35" s="80" t="s">
+        <v>179</v>
+      </c>
+      <c r="L35" s="80"/>
     </row>
     <row r="36" spans="2:12">
       <c r="B36" s="15"/>
@@ -4491,15 +4535,15 @@
       <c r="G36" s="26"/>
       <c r="H36" s="6"/>
       <c r="I36" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J36" s="20">
         <v>21</v>
       </c>
-      <c r="K36" s="81" t="s">
-        <v>181</v>
-      </c>
-      <c r="L36" s="81"/>
+      <c r="K36" s="80" t="s">
+        <v>180</v>
+      </c>
+      <c r="L36" s="80"/>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="15"/>
@@ -4510,15 +4554,15 @@
       <c r="G37" s="26"/>
       <c r="H37" s="6"/>
       <c r="I37" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J37" s="20">
         <v>31</v>
       </c>
-      <c r="K37" s="81" t="s">
-        <v>182</v>
-      </c>
-      <c r="L37" s="81"/>
+      <c r="K37" s="80" t="s">
+        <v>181</v>
+      </c>
+      <c r="L37" s="80"/>
     </row>
     <row r="38" spans="2:12">
       <c r="B38" s="15"/>
@@ -4529,22 +4573,22 @@
       <c r="G38" s="26"/>
       <c r="H38" s="6"/>
       <c r="I38" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J38" s="20">
         <v>41</v>
       </c>
-      <c r="K38" s="81" t="s">
-        <v>183</v>
-      </c>
-      <c r="L38" s="81"/>
+      <c r="K38" s="80" t="s">
+        <v>182</v>
+      </c>
+      <c r="L38" s="80"/>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="86" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="87"/>
-      <c r="D39" s="88"/>
+      <c r="B39" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="83"/>
+      <c r="D39" s="84"/>
       <c r="E39" s="19">
         <v>30</v>
       </c>
@@ -4554,94 +4598,108 @@
         <v>10</v>
       </c>
       <c r="I39" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J39" s="20">
         <v>11</v>
       </c>
-      <c r="K39" s="81" t="s">
-        <v>205</v>
-      </c>
-      <c r="L39" s="81"/>
+      <c r="K39" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="L39" s="80"/>
     </row>
     <row r="40" spans="2:12">
       <c r="I40" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J40" s="41">
         <v>21</v>
       </c>
-      <c r="K40" s="81" t="s">
-        <v>188</v>
-      </c>
-      <c r="L40" s="81"/>
+      <c r="K40" s="80" t="s">
+        <v>187</v>
+      </c>
+      <c r="L40" s="80"/>
     </row>
     <row r="41" spans="2:12">
       <c r="I41" s="41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J41" s="41">
         <v>31</v>
       </c>
-      <c r="K41" s="81" t="s">
-        <v>206</v>
-      </c>
-      <c r="L41" s="81"/>
+      <c r="K41" s="80" t="s">
+        <v>205</v>
+      </c>
+      <c r="L41" s="80"/>
     </row>
     <row r="42" spans="2:12">
       <c r="I42" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J42" s="41">
         <v>41</v>
       </c>
-      <c r="K42" s="81" t="s">
-        <v>207</v>
-      </c>
-      <c r="L42" s="81"/>
+      <c r="K42" s="80" t="s">
+        <v>206</v>
+      </c>
+      <c r="L42" s="80"/>
     </row>
     <row r="43" spans="2:12">
       <c r="I43" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J43" s="41">
         <v>51</v>
       </c>
-      <c r="K43" s="81" t="s">
-        <v>208</v>
-      </c>
-      <c r="L43" s="81"/>
+      <c r="K43" s="80" t="s">
+        <v>207</v>
+      </c>
+      <c r="L43" s="80"/>
     </row>
     <row r="44" spans="2:12">
       <c r="I44" s="41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J44" s="41">
         <v>61</v>
       </c>
-      <c r="K44" s="81" t="s">
-        <v>209</v>
-      </c>
-      <c r="L44" s="81"/>
+      <c r="K44" s="80" t="s">
+        <v>208</v>
+      </c>
+      <c r="L44" s="80"/>
     </row>
     <row r="46" spans="2:12" s="3" customFormat="1">
       <c r="B46" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="2:12" s="1" customFormat="1"/>
     <row r="48" spans="2:12" s="1" customFormat="1">
       <c r="B48" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
     <mergeCell ref="K38:L38"/>
     <mergeCell ref="K39:L39"/>
     <mergeCell ref="B16:D16"/>
@@ -4658,25 +4716,11 @@
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="K34:L34"/>
     <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:L44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4688,7 +4732,7 @@
   <dimension ref="B1:H33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T52" sqref="T52"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -4703,13 +4747,13 @@
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1">
       <c r="B1" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="2:8" s="12" customFormat="1"/>
     <row r="3" spans="2:8">
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
@@ -4720,19 +4764,19 @@
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="83" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="84"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="86"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="88" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -4745,9 +4789,9 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="2:8" s="1" customFormat="1">
-      <c r="B6" s="80"/>
+      <c r="B6" s="90"/>
       <c r="C6" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -4756,7 +4800,7 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="88" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -4771,12 +4815,12 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="79"/>
-      <c r="C8" s="78" t="s">
+      <c r="B8" s="89"/>
+      <c r="C8" s="88" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -4784,10 +4828,10 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8" s="1" customFormat="1">
-      <c r="B9" s="79"/>
-      <c r="C9" s="80"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="90"/>
       <c r="D9" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -4795,12 +4839,12 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8" s="1" customFormat="1">
-      <c r="B10" s="79"/>
+      <c r="B10" s="89"/>
       <c r="C10" s="59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" s="62" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E10" s="62"/>
       <c r="F10" s="62"/>
@@ -4808,9 +4852,9 @@
       <c r="H10" s="63"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="80"/>
+      <c r="B11" s="90"/>
       <c r="C11" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="10">
         <v>1</v>
@@ -4824,24 +4868,24 @@
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="89" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
+      <c r="C12" s="91" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="88" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -4849,24 +4893,24 @@
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="80"/>
+      <c r="B14" s="90"/>
       <c r="C14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="G14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:8">
@@ -4874,18 +4918,18 @@
         <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -4893,10 +4937,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="20">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -4904,10 +4948,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" s="20">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="2:8">
@@ -4915,10 +4959,10 @@
         <v>3</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" s="20">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="2:8">
@@ -4926,10 +4970,10 @@
         <v>4</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="20">
-        <v>3</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="2:8">
@@ -4937,10 +4981,10 @@
         <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="39">
-        <v>3</v>
+        <v>69</v>
+      </c>
+      <c r="D22" s="76">
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="2:8">
@@ -4948,10 +4992,10 @@
         <v>6</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="39">
-        <v>3</v>
+        <v>70</v>
+      </c>
+      <c r="D23" s="76">
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="2:8">
@@ -4959,10 +5003,10 @@
         <v>7</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="39">
-        <v>3</v>
+        <v>70</v>
+      </c>
+      <c r="D24" s="76">
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="2:8">
@@ -4970,10 +5014,10 @@
         <v>8</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" s="20">
-        <v>4</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="2:8">
@@ -4981,17 +5025,17 @@
     </row>
     <row r="27" spans="2:8" s="3" customFormat="1">
       <c r="B27" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
@@ -4999,20 +5043,20 @@
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="34"/>
       <c r="F32" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="34"/>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
@@ -5044,8 +5088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B521D6-2D85-4E20-A231-43C3768C3612}">
   <dimension ref="B1:L42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -5064,33 +5108,33 @@
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1">
       <c r="B1" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="83" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="84"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="86"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="88" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -5099,9 +5143,9 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="2:8" s="1" customFormat="1">
-      <c r="B6" s="79"/>
+      <c r="B6" s="89"/>
       <c r="C6" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -5110,9 +5154,9 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="80"/>
+      <c r="B7" s="90"/>
       <c r="C7" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -5121,7 +5165,7 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="88" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -5136,12 +5180,12 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="79"/>
-      <c r="C9" s="78" t="s">
+      <c r="B9" s="89"/>
+      <c r="C9" s="88" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>12</v>
+        <v>269</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -5149,10 +5193,10 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
       <c r="D10" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -5160,10 +5204,10 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="2:8" s="1" customFormat="1">
-      <c r="B11" s="79"/>
-      <c r="C11" s="80"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="90"/>
       <c r="D11" s="51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E11" s="51"/>
       <c r="F11" s="51"/>
@@ -5171,12 +5215,12 @@
       <c r="H11" s="52"/>
     </row>
     <row r="12" spans="2:8" s="1" customFormat="1">
-      <c r="B12" s="79"/>
-      <c r="C12" s="78" t="s">
-        <v>113</v>
+      <c r="B12" s="89"/>
+      <c r="C12" s="88" t="s">
+        <v>112</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E12" s="67"/>
       <c r="F12" s="67"/>
@@ -5184,10 +5228,10 @@
       <c r="H12" s="68"/>
     </row>
     <row r="13" spans="2:8" s="1" customFormat="1">
-      <c r="B13" s="79"/>
-      <c r="C13" s="80"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="90"/>
       <c r="D13" s="26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
@@ -5195,9 +5239,9 @@
       <c r="H13" s="34"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="80"/>
+      <c r="B14" s="90"/>
       <c r="C14" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="10">
         <v>2</v>
@@ -5209,10 +5253,10 @@
     </row>
     <row r="15" spans="2:8" s="1" customFormat="1">
       <c r="B15" s="58" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" s="54" t="s">
         <v>220</v>
-      </c>
-      <c r="C15" s="54" t="s">
-        <v>221</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="55"/>
@@ -5224,21 +5268,21 @@
       <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
+      <c r="C16" s="82" t="s">
+        <v>227</v>
+      </c>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -5247,14 +5291,14 @@
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="78" t="s">
-        <v>13</v>
+      <c r="C18" s="88" t="s">
+        <v>12</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -5262,10 +5306,10 @@
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="2:12" s="1" customFormat="1">
-      <c r="B19" s="79"/>
-      <c r="C19" s="80"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="90"/>
       <c r="D19" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -5273,69 +5317,69 @@
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="80"/>
+      <c r="B20" s="90"/>
       <c r="C20" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>34</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
     </row>
     <row r="22" spans="2:12">
       <c r="E22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="E23" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>2</v>
       </c>
       <c r="G23" s="42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H23" s="43"/>
       <c r="I23" s="70" t="s">
         <v>10</v>
       </c>
       <c r="J23" s="70" t="s">
+        <v>244</v>
+      </c>
+      <c r="K23" s="70" t="s">
         <v>245</v>
       </c>
-      <c r="K23" s="70" t="s">
+      <c r="L23" s="70" t="s">
         <v>246</v>
-      </c>
-      <c r="L23" s="70" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="24" spans="2:12">
       <c r="B24" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F24" s="13">
         <v>0.4</v>
@@ -5345,7 +5389,7 @@
       </c>
       <c r="H24" s="44"/>
       <c r="I24" s="69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J24" s="69">
         <v>1</v>
@@ -5354,7 +5398,7 @@
         <v>0.1</v>
       </c>
       <c r="L24" s="69" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="2:12">
@@ -5362,10 +5406,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F25" s="13">
         <v>0.3</v>
@@ -5375,7 +5419,7 @@
       </c>
       <c r="H25" s="45"/>
       <c r="I25" s="69" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J25" s="69">
         <v>3</v>
@@ -5384,7 +5428,7 @@
         <v>0.15</v>
       </c>
       <c r="L25" s="69" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="2:12">
@@ -5392,10 +5436,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F26" s="13">
         <v>0.2</v>
@@ -5405,7 +5449,7 @@
       </c>
       <c r="H26" s="45"/>
       <c r="I26" s="69" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J26" s="69">
         <v>7</v>
@@ -5414,7 +5458,7 @@
         <v>0.3</v>
       </c>
       <c r="L26" s="69" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="2:12">
@@ -5422,10 +5466,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F27" s="13">
         <v>0.1</v>
@@ -5435,7 +5479,7 @@
       </c>
       <c r="H27" s="45"/>
       <c r="I27" s="69" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J27" s="69">
         <v>13</v>
@@ -5444,7 +5488,7 @@
         <v>0.5</v>
       </c>
       <c r="L27" s="72" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="2:12">
@@ -5452,17 +5496,17 @@
         <v>4</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="2:12" s="3" customFormat="1">
       <c r="B30" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="2:12">
       <c r="B32" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -5474,7 +5518,7 @@
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
@@ -5482,7 +5526,7 @@
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
@@ -5490,7 +5534,7 @@
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
@@ -5498,7 +5542,7 @@
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
@@ -5506,7 +5550,7 @@
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
@@ -5514,7 +5558,7 @@
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
@@ -5522,7 +5566,7 @@
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
@@ -5530,7 +5574,7 @@
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C41" s="36"/>
       <c r="D41" s="36"/>
@@ -5582,12 +5626,12 @@
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1">
       <c r="B1" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
@@ -5598,23 +5642,23 @@
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="83" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="84"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="86"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="88" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -5623,9 +5667,9 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="80"/>
+      <c r="B6" s="90"/>
       <c r="C6" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -5634,14 +5678,14 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="88" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -5649,12 +5693,12 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="79"/>
-      <c r="C8" s="78" t="s">
+      <c r="B8" s="89"/>
+      <c r="C8" s="88" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -5662,10 +5706,10 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="79"/>
-      <c r="C9" s="80"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="90"/>
       <c r="D9" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -5673,12 +5717,12 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8" s="1" customFormat="1">
-      <c r="B10" s="79"/>
+      <c r="B10" s="89"/>
       <c r="C10" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
@@ -5686,9 +5730,9 @@
       <c r="H10" s="34"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="80"/>
+      <c r="B11" s="90"/>
       <c r="C11" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="10">
         <v>3</v>
@@ -5703,7 +5747,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5712,56 +5756,56 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="2:8" s="1" customFormat="1">
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="88" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" s="60" t="s">
         <v>222</v>
-      </c>
-      <c r="C13" s="60" t="s">
-        <v>223</v>
       </c>
       <c r="D13" s="62"/>
       <c r="E13" s="62"/>
       <c r="F13" s="62"/>
-      <c r="G13" s="81" t="s">
-        <v>224</v>
+      <c r="G13" s="80" t="s">
+        <v>223</v>
       </c>
       <c r="H13" s="66">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:8" s="1" customFormat="1">
-      <c r="B14" s="79"/>
+      <c r="B14" s="89"/>
       <c r="C14" s="60" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D14" s="62"/>
       <c r="E14" s="62"/>
-      <c r="G14" s="81"/>
+      <c r="G14" s="80"/>
       <c r="H14" s="66">
         <v>0.3</v>
       </c>
     </row>
     <row r="15" spans="2:8" s="1" customFormat="1">
-      <c r="B15" s="80"/>
+      <c r="B15" s="90"/>
       <c r="C15" s="60" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D15" s="62"/>
       <c r="E15" s="62"/>
       <c r="F15" s="62"/>
-      <c r="G15" s="81"/>
+      <c r="G15" s="80"/>
       <c r="H15" s="66">
         <v>0.1</v>
       </c>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="88" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -5769,9 +5813,9 @@
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="80"/>
+      <c r="B17" s="90"/>
       <c r="C17" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -5781,19 +5825,19 @@
     </row>
     <row r="19" spans="2:8" s="3" customFormat="1">
       <c r="B19" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="2:8" s="1" customFormat="1"/>
     <row r="21" spans="2:8" s="1" customFormat="1">
       <c r="B21" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="2:8" s="1" customFormat="1"/>
     <row r="23" spans="2:8" s="1" customFormat="1">
       <c r="B23" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
@@ -5801,7 +5845,7 @@
     </row>
     <row r="24" spans="2:8" s="1" customFormat="1">
       <c r="B24" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
